--- a/docs/test/test-cases template-v1.1.xlsx
+++ b/docs/test/test-cases template-v1.1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vunguyen/Google Drive/Data/Courses/CS 300 - Fall 2018/Projects/Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PA\Year 3\Software Engineering\Lab\E-commerce\E-commerce_Web_Application\docs\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0842163B-F5F8-43EB-8A83-DC4EEAB01B6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26160" windowHeight="15320" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="2" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="77">
   <si>
     <t>ID</t>
   </si>
@@ -61,19 +62,6 @@
 2. The error message should be displayed</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>1. Allows the user to proceed and
-2. The error message is not displayed</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>TDHoang</t>
-  </si>
-  <si>
     <t>Login with blank Password</t>
   </si>
   <si>
@@ -89,9 +77,6 @@
     <t>Function 01: Login as admin</t>
   </si>
   <si>
-    <t>Function 02: Login as end user</t>
-  </si>
-  <si>
     <t>UC01</t>
   </si>
   <si>
@@ -117,27 +102,14 @@
   </si>
   <si>
     <t>UI04</t>
-  </si>
-  <si>
-    <t>HTThanh</t>
-  </si>
-  <si>
-    <t>NKHuy</t>
   </si>
   <si>
     <t>1. Authenticated
 2. A welcome message will  be displayed</t>
   </si>
   <si>
-    <t>The same ER</t>
-  </si>
-  <si>
     <t>1. Unauthenticated
 2. A wrong user-account notice will  be displayed</t>
-  </si>
-  <si>
-    <t>1. Unauthenticated
-2. No notice is shown</t>
   </si>
   <si>
     <t>Login with Special characters of User name and Password</t>
@@ -484,13 +456,127 @@
   </si>
   <si>
     <t>Function/Feature ID</t>
+  </si>
+  <si>
+    <t>Function 02: Login as customer</t>
+  </si>
+  <si>
+    <t>Function 03: Register as admin</t>
+  </si>
+  <si>
+    <t>Function 04: Register as customer</t>
+  </si>
+  <si>
+    <t>Function 05: Make purchase</t>
+  </si>
+  <si>
+    <t>Function 06: Search product</t>
+  </si>
+  <si>
+    <t>Function 07: Browse product</t>
+  </si>
+  <si>
+    <t>Function 08: View cart</t>
+  </si>
+  <si>
+    <t>Function 09: Edit products in cart</t>
+  </si>
+  <si>
+    <t>Function 10: Remove products from carts</t>
+  </si>
+  <si>
+    <t>Function 11: Add a product to cart</t>
+  </si>
+  <si>
+    <t>Function 12: Payment</t>
+  </si>
+  <si>
+    <t>Function 13: Add new product</t>
+  </si>
+  <si>
+    <t>Function 14: Edit product</t>
+  </si>
+  <si>
+    <t>Function 15: Delete product</t>
+  </si>
+  <si>
+    <t>Function 16: Edit profile as admin</t>
+  </si>
+  <si>
+    <t>Function 17: Edit profile as customer</t>
+  </si>
+  <si>
+    <t>UC03</t>
+  </si>
+  <si>
+    <t>UC04</t>
+  </si>
+  <si>
+    <t>UC05</t>
+  </si>
+  <si>
+    <t>UC06</t>
+  </si>
+  <si>
+    <t>UC08</t>
+  </si>
+  <si>
+    <t>UC09</t>
+  </si>
+  <si>
+    <t>UC10</t>
+  </si>
+  <si>
+    <t>UC11</t>
+  </si>
+  <si>
+    <t>UC7</t>
+  </si>
+  <si>
+    <t>UC12</t>
+  </si>
+  <si>
+    <t>UC13</t>
+  </si>
+  <si>
+    <t>UC14</t>
+  </si>
+  <si>
+    <t>UC15</t>
+  </si>
+  <si>
+    <t>UC16</t>
+  </si>
+  <si>
+    <t>UC17</t>
+  </si>
+  <si>
+    <t>UC18</t>
+  </si>
+  <si>
+    <t>UC19</t>
+  </si>
+  <si>
+    <t>UC20</t>
+  </si>
+  <si>
+    <t>Function 18: Forgot password as admin</t>
+  </si>
+  <si>
+    <t>Function 19: Forgot password as customer</t>
+  </si>
+  <si>
+    <t>Function 20: View shopping history</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yy"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,6 +595,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -549,7 +641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -563,13 +655,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -603,30 +700,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A5:D9" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A5:D9" totalsRowShown="0">
   <tableColumns count="4">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Feature Name"/>
-    <tableColumn id="3" name="Description"/>
-    <tableColumn id="4" name="Remark"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Feature Name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J10" totalsRowShown="0" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:J31" totalsRowShown="0" dataDxfId="6">
   <tableColumns count="10">
-    <tableColumn id="1" name="Function/Feature ID"/>
-    <tableColumn id="11" name="Case ID"/>
-    <tableColumn id="2" name="Test case name"/>
-    <tableColumn id="4" name="Test step" dataDxfId="5"/>
-    <tableColumn id="5" name="Expected Result (ER)" dataDxfId="4"/>
-    <tableColumn id="6" name="Actual Result" dataDxfId="3"/>
-    <tableColumn id="7" name="Status" dataDxfId="2"/>
-    <tableColumn id="8" name="Tester" dataDxfId="1"/>
-    <tableColumn id="9" name="Tested Date" dataDxfId="0"/>
-    <tableColumn id="10" name="Remark"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Function/Feature ID"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Case ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test case name"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Test step" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Expected Result (ER)" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Actual Result" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Status" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Tester" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Tested Date" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -918,62 +1015,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.1640625" customWidth="1"/>
-    <col min="4" max="4" width="45.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
+    <col min="4" max="4" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -985,30 +1082,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.83203125" customWidth="1"/>
-    <col min="5" max="5" width="27.83203125" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1"/>
-    <col min="8" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1017,7 +1114,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1035,9 +1132,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1049,125 +1146,92 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="3">
-        <v>41429</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="3">
-        <v>41429</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="3">
-        <v>41429</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="3">
-        <v>41429</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1179,94 +1243,1131 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="3">
-        <v>41429</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="F8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="3">
-        <v>41429</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="3">
-        <v>41459</v>
-      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="9"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="9"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="9"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="9"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="9"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="9"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="9"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="9"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="9"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="9"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="9"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="9"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="9"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="9"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="9"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="9"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="9"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="9"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="9"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="9"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="9"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="9"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="9"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="9"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="9"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="9"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="9"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="9"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="9"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="9"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="9"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="9"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="9"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="9"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B78" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="9"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="4"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="9"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="9"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B82" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/docs/test/test-cases template-v1.1.xlsx
+++ b/docs/test/test-cases template-v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PA\Year 3\Software Engineering\Lab\E-commerce\E-commerce_Web_Application\docs\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0842163B-F5F8-43EB-8A83-DC4EEAB01B6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB0E550-FA2A-467C-A576-5BE123BF782E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="86">
   <si>
     <t>ID</t>
   </si>
@@ -53,16 +53,10 @@
   </si>
   <si>
     <t>Remark</t>
-  </si>
-  <si>
-    <t>Login with blank User name</t>
   </si>
   <si>
     <t>1. Disallows the user to proceed and
 2. The error message should be displayed</t>
-  </si>
-  <si>
-    <t>Login with blank Password</t>
   </si>
   <si>
     <t>Login with blank User name and Password</t>
@@ -567,6 +561,39 @@
   </si>
   <si>
     <t>Function 20: View shopping history</t>
+  </si>
+  <si>
+    <t>UI05</t>
+  </si>
+  <si>
+    <t>UI06</t>
+  </si>
+  <si>
+    <t>UI07</t>
+  </si>
+  <si>
+    <t>Log in with incorrect password</t>
+  </si>
+  <si>
+    <t>Register with valid email, username and password</t>
+  </si>
+  <si>
+    <t>Register with invalid email format</t>
+  </si>
+  <si>
+    <t>Register with username containing special character</t>
+  </si>
+  <si>
+    <t>Register with password containing special character</t>
+  </si>
+  <si>
+    <t>Leave blank</t>
+  </si>
+  <si>
+    <t>Register with registered email</t>
+  </si>
+  <si>
+    <t>Register with registered username</t>
   </si>
 </sst>
 </file>
@@ -712,7 +739,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:J31" totalsRowShown="0" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:J42" totalsRowShown="0" dataDxfId="6">
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Function/Feature ID"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Case ID"/>
@@ -1032,12 +1059,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1045,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -1056,21 +1083,21 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1083,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,10 +1129,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1114,7 +1141,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1134,7 +1161,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1148,19 +1175,19 @@
     </row>
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="2"/>
@@ -1169,163 +1196,164 @@
     </row>
     <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="3"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
+    <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="3"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1333,58 +1361,68 @@
       <c r="H12" s="2"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="9"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1392,14 +1430,16 @@
       <c r="H16" s="2"/>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1407,14 +1447,16 @@
       <c r="H17" s="2"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1423,27 +1465,32 @@
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -1451,14 +1498,16 @@
       <c r="H20" s="2"/>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1467,42 +1516,46 @@
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1510,14 +1563,16 @@
       <c r="H24" s="2"/>
       <c r="I24" s="9"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -1525,14 +1580,16 @@
       <c r="H25" s="2"/>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -1541,27 +1598,32 @@
       <c r="I26" s="9"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -1569,14 +1631,16 @@
       <c r="H28" s="2"/>
       <c r="I28" s="9"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -1585,40 +1649,40 @@
       <c r="I29" s="9"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="9"/>
+      <c r="A30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="4"/>
+      <c r="A31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="9"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>18</v>
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1630,10 +1694,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1644,40 +1708,40 @@
       <c r="I33" s="9"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="9"/>
+      <c r="A34" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="4"/>
+      <c r="A35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="9"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>18</v>
+        <v>57</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1689,10 +1753,10 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1703,40 +1767,40 @@
       <c r="I37" s="9"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="9"/>
+      <c r="A38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="4"/>
+      <c r="A39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="9"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>18</v>
+      <c r="B40" t="s">
+        <v>17</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1751,7 +1815,7 @@
         <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1762,40 +1826,40 @@
       <c r="I41" s="9"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B42" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="9"/>
+      <c r="A42" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="4"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="4"/>
+      <c r="A43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="9"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>18</v>
+        <v>58</v>
+      </c>
+      <c r="B44" t="s">
+        <v>17</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1807,10 +1871,10 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1821,40 +1885,40 @@
       <c r="I45" s="9"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="9"/>
+      <c r="A46" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="4"/>
+      <c r="A47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="9"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>18</v>
+        <v>59</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -1866,10 +1930,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -1880,40 +1944,40 @@
       <c r="I49" s="9"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="9"/>
+      <c r="A50" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="4"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="4"/>
+      <c r="A51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="9"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>18</v>
+        <v>60</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -1925,10 +1989,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -1939,40 +2003,40 @@
       <c r="I53" s="9"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B54" t="s">
-        <v>20</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="9"/>
+      <c r="A54" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="4"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="4"/>
+      <c r="A55" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="9"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>18</v>
+        <v>61</v>
+      </c>
+      <c r="B56" t="s">
+        <v>17</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -1984,10 +2048,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -1998,40 +2062,40 @@
       <c r="I57" s="9"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B58" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="9"/>
+      <c r="A58" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="4"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="4"/>
+      <c r="A59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="9"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>18</v>
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>17</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -2043,10 +2107,10 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -2057,40 +2121,40 @@
       <c r="I61" s="9"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B62" t="s">
-        <v>20</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="9"/>
+      <c r="A62" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="4"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="4"/>
+      <c r="A63" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="9"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>18</v>
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>17</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2102,10 +2166,10 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -2116,40 +2180,40 @@
       <c r="I65" s="9"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66" t="s">
-        <v>20</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="9"/>
+      <c r="A66" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="4"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="4"/>
+      <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="9"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>18</v>
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
+        <v>17</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -2161,10 +2225,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -2175,40 +2239,40 @@
       <c r="I69" s="9"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" t="s">
-        <v>20</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="9"/>
+      <c r="A70" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="4"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="4"/>
+      <c r="A71" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="9"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>18</v>
+        <v>66</v>
+      </c>
+      <c r="B72" t="s">
+        <v>17</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -2220,10 +2284,10 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -2234,40 +2298,40 @@
       <c r="I73" s="9"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B74" t="s">
-        <v>20</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="9"/>
+      <c r="A74" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="4"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="4"/>
+      <c r="A75" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="9"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>18</v>
+        <v>67</v>
+      </c>
+      <c r="B76" t="s">
+        <v>17</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -2279,10 +2343,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -2293,40 +2357,40 @@
       <c r="I77" s="9"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B78" t="s">
-        <v>20</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="9"/>
+      <c r="A78" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="4"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="4"/>
+      <c r="A79" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="9"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>18</v>
+        <v>68</v>
+      </c>
+      <c r="B80" t="s">
+        <v>17</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -2336,12 +2400,12 @@
       <c r="H80" s="2"/>
       <c r="I80" s="9"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -2351,20 +2415,182 @@
       <c r="H81" s="2"/>
       <c r="I81" s="9"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="4"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="9"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="9"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="9"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B82" t="s">
-        <v>20</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="9"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="4"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="9"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B88" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="9"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B89" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="9"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="4"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="9"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B92" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="9"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B93" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/docs/test/test-cases template-v1.1.xlsx
+++ b/docs/test/test-cases template-v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PA\Year 3\Software Engineering\Lab\E-commerce\E-commerce_Web_Application\docs\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB0E550-FA2A-467C-A576-5BE123BF782E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36A7C2B-5F5B-40B9-8F38-077A1A8F4BE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="90">
   <si>
     <t>ID</t>
   </si>
@@ -594,6 +594,18 @@
   </si>
   <si>
     <t>Register with registered username</t>
+  </si>
+  <si>
+    <t>UC21</t>
+  </si>
+  <si>
+    <t>Function 21: Add comment</t>
+  </si>
+  <si>
+    <t>UC22</t>
+  </si>
+  <si>
+    <t>Function 22: Add rating</t>
   </si>
 </sst>
 </file>
@@ -1110,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2592,6 +2604,82 @@
       <c r="H93" s="2"/>
       <c r="I93" s="9"/>
     </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="4"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>86</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>86</v>
+      </c>
+      <c r="B96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>86</v>
+      </c>
+      <c r="B97" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="4"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>88</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>88</v>
+      </c>
+      <c r="B100" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>88</v>
+      </c>
+      <c r="B101" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/test/test-cases template-v1.1.xlsx
+++ b/docs/test/test-cases template-v1.1.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PA\Year 3\Software Engineering\Lab\E-commerce\E-commerce_Web_Application\docs\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36A7C2B-5F5B-40B9-8F38-077A1A8F4BE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3BC577-D93E-4EEF-B11A-FC738EDC4B10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Features" sheetId="2" r:id="rId1"/>
-    <sheet name="Test cases" sheetId="1" r:id="rId2"/>
+    <sheet name="Test cases" sheetId="1" r:id="rId1"/>
+    <sheet name="Features" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="132">
   <si>
     <t>ID</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Login as admin</t>
-  </si>
-  <si>
-    <t>Login as end user</t>
   </si>
   <si>
     <t>Function 01: Login as admin</t>
@@ -394,6 +391,195 @@
     <t>Expected Result (ER)</t>
   </si>
   <si>
+    <t>Feature Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Function/Feature ID</t>
+  </si>
+  <si>
+    <t>Function 02: Login as customer</t>
+  </si>
+  <si>
+    <t>Function 03: Register as admin</t>
+  </si>
+  <si>
+    <t>Function 04: Register as customer</t>
+  </si>
+  <si>
+    <t>Function 05: Make purchase</t>
+  </si>
+  <si>
+    <t>Function 06: Search product</t>
+  </si>
+  <si>
+    <t>Function 07: Browse product</t>
+  </si>
+  <si>
+    <t>Function 08: View cart</t>
+  </si>
+  <si>
+    <t>Function 09: Edit products in cart</t>
+  </si>
+  <si>
+    <t>Function 10: Remove products from carts</t>
+  </si>
+  <si>
+    <t>Function 11: Add a product to cart</t>
+  </si>
+  <si>
+    <t>Function 12: Payment</t>
+  </si>
+  <si>
+    <t>Function 13: Add new product</t>
+  </si>
+  <si>
+    <t>Function 14: Edit product</t>
+  </si>
+  <si>
+    <t>Function 15: Delete product</t>
+  </si>
+  <si>
+    <t>Function 16: Edit profile as admin</t>
+  </si>
+  <si>
+    <t>Function 17: Edit profile as customer</t>
+  </si>
+  <si>
+    <t>UC03</t>
+  </si>
+  <si>
+    <t>UC04</t>
+  </si>
+  <si>
+    <t>UC05</t>
+  </si>
+  <si>
+    <t>UC06</t>
+  </si>
+  <si>
+    <t>UC08</t>
+  </si>
+  <si>
+    <t>UC09</t>
+  </si>
+  <si>
+    <t>UC10</t>
+  </si>
+  <si>
+    <t>UC11</t>
+  </si>
+  <si>
+    <t>UC7</t>
+  </si>
+  <si>
+    <t>UC12</t>
+  </si>
+  <si>
+    <t>UC13</t>
+  </si>
+  <si>
+    <t>UC14</t>
+  </si>
+  <si>
+    <t>UC15</t>
+  </si>
+  <si>
+    <t>UC16</t>
+  </si>
+  <si>
+    <t>UC17</t>
+  </si>
+  <si>
+    <t>UC18</t>
+  </si>
+  <si>
+    <t>UC19</t>
+  </si>
+  <si>
+    <t>UC20</t>
+  </si>
+  <si>
+    <t>Function 18: Forgot password as admin</t>
+  </si>
+  <si>
+    <t>Function 19: Forgot password as customer</t>
+  </si>
+  <si>
+    <t>Function 20: View shopping history</t>
+  </si>
+  <si>
+    <t>UI05</t>
+  </si>
+  <si>
+    <t>UI06</t>
+  </si>
+  <si>
+    <t>UI07</t>
+  </si>
+  <si>
+    <t>Log in with incorrect password</t>
+  </si>
+  <si>
+    <t>Register with valid email, username and password</t>
+  </si>
+  <si>
+    <t>Register with invalid email format</t>
+  </si>
+  <si>
+    <t>Register with username containing special character</t>
+  </si>
+  <si>
+    <t>Register with password containing special character</t>
+  </si>
+  <si>
+    <t>Leave blank</t>
+  </si>
+  <si>
+    <t>Register with registered email</t>
+  </si>
+  <si>
+    <t>Register with registered username</t>
+  </si>
+  <si>
+    <t>UC21</t>
+  </si>
+  <si>
+    <t>Function 21: Add comment</t>
+  </si>
+  <si>
+    <t>UC22</t>
+  </si>
+  <si>
+    <t>Function 22: Add rating</t>
+  </si>
+  <si>
+    <t>Login as the manager of the cosmetic shop</t>
+  </si>
+  <si>
+    <t>Login as customer</t>
+  </si>
+  <si>
+    <t>Login as the custom of the cosmetic shop</t>
+  </si>
+  <si>
+    <t>Register as admin</t>
+  </si>
+  <si>
+    <t>Register as customer</t>
+  </si>
+  <si>
+    <t>UC07</t>
+  </si>
+  <si>
+    <t>Register a admin account</t>
+  </si>
+  <si>
+    <t>Register a customer account</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -413,7 +599,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: hailua.com.vn</t>
+      <t>: https://dangcompany.herokuapp.com/</t>
     </r>
   </si>
   <si>
@@ -436,176 +622,116 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 5</t>
-    </r>
-  </si>
-  <si>
-    <t>Feature Name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>&lt;brief description of the feature&gt;</t>
-  </si>
-  <si>
-    <t>Function/Feature ID</t>
-  </si>
-  <si>
-    <t>Function 02: Login as customer</t>
-  </si>
-  <si>
-    <t>Function 03: Register as admin</t>
-  </si>
-  <si>
-    <t>Function 04: Register as customer</t>
-  </si>
-  <si>
-    <t>Function 05: Make purchase</t>
-  </si>
-  <si>
-    <t>Function 06: Search product</t>
-  </si>
-  <si>
-    <t>Function 07: Browse product</t>
-  </si>
-  <si>
-    <t>Function 08: View cart</t>
-  </si>
-  <si>
-    <t>Function 09: Edit products in cart</t>
-  </si>
-  <si>
-    <t>Function 10: Remove products from carts</t>
-  </si>
-  <si>
-    <t>Function 11: Add a product to cart</t>
-  </si>
-  <si>
-    <t>Function 12: Payment</t>
-  </si>
-  <si>
-    <t>Function 13: Add new product</t>
-  </si>
-  <si>
-    <t>Function 14: Edit product</t>
-  </si>
-  <si>
-    <t>Function 15: Delete product</t>
-  </si>
-  <si>
-    <t>Function 16: Edit profile as admin</t>
-  </si>
-  <si>
-    <t>Function 17: Edit profile as customer</t>
-  </si>
-  <si>
-    <t>UC03</t>
-  </si>
-  <si>
-    <t>UC04</t>
-  </si>
-  <si>
-    <t>UC05</t>
-  </si>
-  <si>
-    <t>UC06</t>
-  </si>
-  <si>
-    <t>UC08</t>
-  </si>
-  <si>
-    <t>UC09</t>
-  </si>
-  <si>
-    <t>UC10</t>
-  </si>
-  <si>
-    <t>UC11</t>
-  </si>
-  <si>
-    <t>UC7</t>
-  </si>
-  <si>
-    <t>UC12</t>
-  </si>
-  <si>
-    <t>UC13</t>
-  </si>
-  <si>
-    <t>UC14</t>
-  </si>
-  <si>
-    <t>UC15</t>
-  </si>
-  <si>
-    <t>UC16</t>
-  </si>
-  <si>
-    <t>UC17</t>
-  </si>
-  <si>
-    <t>UC18</t>
-  </si>
-  <si>
-    <t>UC19</t>
-  </si>
-  <si>
-    <t>UC20</t>
-  </si>
-  <si>
-    <t>Function 18: Forgot password as admin</t>
-  </si>
-  <si>
-    <t>Function 19: Forgot password as customer</t>
-  </si>
-  <si>
-    <t>Function 20: View shopping history</t>
-  </si>
-  <si>
-    <t>UI05</t>
-  </si>
-  <si>
-    <t>UI06</t>
-  </si>
-  <si>
-    <t>UI07</t>
-  </si>
-  <si>
-    <t>Log in with incorrect password</t>
-  </si>
-  <si>
-    <t>Register with valid email, username and password</t>
-  </si>
-  <si>
-    <t>Register with invalid email format</t>
-  </si>
-  <si>
-    <t>Register with username containing special character</t>
-  </si>
-  <si>
-    <t>Register with password containing special character</t>
-  </si>
-  <si>
-    <t>Leave blank</t>
-  </si>
-  <si>
-    <t>Register with registered email</t>
-  </si>
-  <si>
-    <t>Register with registered username</t>
-  </si>
-  <si>
-    <t>UC21</t>
-  </si>
-  <si>
-    <t>Function 21: Add comment</t>
-  </si>
-  <si>
-    <t>UC22</t>
-  </si>
-  <si>
-    <t>Function 22: Add rating</t>
+      <t>: 6</t>
+    </r>
+  </si>
+  <si>
+    <t>Make purchase</t>
+  </si>
+  <si>
+    <t>Browse product</t>
+  </si>
+  <si>
+    <t>Search product</t>
+  </si>
+  <si>
+    <t>View cart</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Add product to cart</t>
+  </si>
+  <si>
+    <t>Remove product from cart</t>
+  </si>
+  <si>
+    <t>Edit product in cart</t>
+  </si>
+  <si>
+    <t>Add new product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit product </t>
+  </si>
+  <si>
+    <t>Delete product</t>
+  </si>
+  <si>
+    <t>Edit profile as admin</t>
+  </si>
+  <si>
+    <t>Edit profile as customer</t>
+  </si>
+  <si>
+    <t>Forgot password as admin</t>
+  </si>
+  <si>
+    <t>Forgot password as customer</t>
+  </si>
+  <si>
+    <t>View shopping history</t>
+  </si>
+  <si>
+    <t>Add comment</t>
+  </si>
+  <si>
+    <t>Add rating</t>
+  </si>
+  <si>
+    <t>Purchase all item in cart</t>
+  </si>
+  <si>
+    <t>Search product name or information in search bar</t>
+  </si>
+  <si>
+    <t>View product summary and product detail</t>
+  </si>
+  <si>
+    <t>View all item in currently in cart</t>
+  </si>
+  <si>
+    <t>Change the attribute of a product currently in cart</t>
+  </si>
+  <si>
+    <t>Remove product in cart</t>
+  </si>
+  <si>
+    <t>Add the viewing product to cart</t>
+  </si>
+  <si>
+    <t>Select the method of payment (cash or credit)</t>
+  </si>
+  <si>
+    <t>Admin add a new product to shop</t>
+  </si>
+  <si>
+    <t>Admin edit the information of a product in shop</t>
+  </si>
+  <si>
+    <t>Admin delete  a product in shop</t>
+  </si>
+  <si>
+    <t>Change information about admin user</t>
+  </si>
+  <si>
+    <t>Change information about customer</t>
+  </si>
+  <si>
+    <t>Retrieve admin's account password by validate e-mail</t>
+  </si>
+  <si>
+    <t>Retrieve customer account password by validate e-mail</t>
+  </si>
+  <si>
+    <t>View all item purchased</t>
+  </si>
+  <si>
+    <t>Comment about a product in produt detail</t>
+  </si>
+  <si>
+    <t>Rate a product quality</t>
   </si>
 </sst>
 </file>
@@ -739,18 +865,6 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A5:D9" totalsRowShown="0">
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Feature Name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Remark"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:J42" totalsRowShown="0" dataDxfId="6">
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Function/Feature ID"/>
@@ -763,6 +877,18 @@
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Tester" dataDxfId="1"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Tested Date" dataDxfId="0"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Remark"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A5:D27" totalsRowShown="0">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Feature Name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1054,78 +1180,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" customWidth="1"/>
-    <col min="4" max="4" width="45.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,10 +1200,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1153,7 +1212,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1173,7 +1232,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1187,19 +1246,19 @@
     </row>
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="2"/>
@@ -1208,19 +1267,19 @@
     </row>
     <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2"/>
       <c r="H4" s="2"/>
@@ -1228,13 +1287,13 @@
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1245,16 +1304,16 @@
     </row>
     <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>8</v>
@@ -1266,16 +1325,16 @@
     </row>
     <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>8</v>
@@ -1287,7 +1346,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1301,16 +1360,16 @@
     </row>
     <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>8</v>
@@ -1321,16 +1380,16 @@
     </row>
     <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>8</v>
@@ -1341,13 +1400,13 @@
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1358,10 +1417,10 @@
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -1375,16 +1434,16 @@
     </row>
     <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>8</v>
@@ -1396,7 +1455,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1410,13 +1469,13 @@
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1427,13 +1486,13 @@
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1444,13 +1503,13 @@
     </row>
     <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1461,13 +1520,13 @@
     </row>
     <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1478,13 +1537,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1495,13 +1554,13 @@
     </row>
     <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1512,13 +1571,13 @@
     </row>
     <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1529,7 +1588,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1543,13 +1602,13 @@
     </row>
     <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1560,13 +1619,13 @@
     </row>
     <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1577,13 +1636,13 @@
     </row>
     <row r="25" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1594,13 +1653,13 @@
     </row>
     <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1611,13 +1670,13 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1628,13 +1687,13 @@
     </row>
     <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1645,13 +1704,13 @@
     </row>
     <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1662,7 +1721,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1676,10 +1735,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1691,10 +1750,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1706,10 +1765,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1721,7 +1780,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1735,10 +1794,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1750,10 +1809,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1765,10 +1824,10 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1780,7 +1839,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1794,10 +1853,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1809,10 +1868,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1824,10 +1883,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1839,7 +1898,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1853,10 +1912,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1868,10 +1927,10 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1883,10 +1942,10 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1898,7 +1957,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1912,10 +1971,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -1927,10 +1986,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -1942,10 +2001,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -1957,7 +2016,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -1971,10 +2030,10 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -1986,10 +2045,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2001,10 +2060,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2016,7 +2075,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2030,10 +2089,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2045,10 +2104,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2060,10 +2119,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2075,7 +2134,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2089,10 +2148,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -2104,10 +2163,10 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -2119,10 +2178,10 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -2134,7 +2193,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2148,10 +2207,10 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2163,10 +2222,10 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2178,10 +2237,10 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -2193,7 +2252,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2207,10 +2266,10 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -2222,10 +2281,10 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -2237,10 +2296,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -2252,7 +2311,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2266,10 +2325,10 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -2281,10 +2340,10 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -2296,10 +2355,10 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -2311,7 +2370,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -2325,10 +2384,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -2340,10 +2399,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -2355,10 +2414,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -2370,7 +2429,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -2384,10 +2443,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -2399,10 +2458,10 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -2414,10 +2473,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -2429,7 +2488,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -2443,10 +2502,10 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -2458,10 +2517,10 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -2473,10 +2532,10 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -2488,7 +2547,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -2502,10 +2561,10 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -2517,10 +2576,10 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -2532,10 +2591,10 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -2547,7 +2606,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -2561,10 +2620,10 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -2576,10 +2635,10 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -2591,10 +2650,10 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -2606,7 +2665,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -2620,31 +2679,31 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -2658,26 +2717,26 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2688,4 +2747,295 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
+    <col min="4" max="4" width="45.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/docs/test/test-cases template-v1.1.xlsx
+++ b/docs/test/test-cases template-v1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PA\Year 3\Software Engineering\Lab\E-commerce\E-commerce_Web_Application\docs\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3BC577-D93E-4EEF-B11A-FC738EDC4B10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25ACCFBD-F897-4CD6-BE11-77A1599BBD8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test cases" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="145">
   <si>
     <t>ID</t>
   </si>
@@ -732,6 +732,45 @@
   </si>
   <si>
     <t>Rate a product quality</t>
+  </si>
+  <si>
+    <t>Rate 1 star</t>
+  </si>
+  <si>
+    <t>Rate 2 star</t>
+  </si>
+  <si>
+    <t>Rate 3 star</t>
+  </si>
+  <si>
+    <t>Rate 4 star</t>
+  </si>
+  <si>
+    <t>Rate 5 star</t>
+  </si>
+  <si>
+    <t>Blank comment</t>
+  </si>
+  <si>
+    <t>Comment contains special character</t>
+  </si>
+  <si>
+    <t>Long comment (&gt;100 character)</t>
+  </si>
+  <si>
+    <t>Long comment (&gt;1000 character)</t>
+  </si>
+  <si>
+    <t>Increase amount while amount = stock</t>
+  </si>
+  <si>
+    <t>Increase amount</t>
+  </si>
+  <si>
+    <t>Decrease amount while amount =1</t>
+  </si>
+  <si>
+    <t>Decrease amount</t>
   </si>
 </sst>
 </file>
@@ -1181,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1969,14 +2008,16 @@
       <c r="I46" s="8"/>
       <c r="J46" s="4"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -1984,14 +2025,16 @@
       <c r="H47" s="2"/>
       <c r="I47" s="9"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -2006,7 +2049,9 @@
       <c r="B49" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="2"/>
+      <c r="C49" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -2015,40 +2060,42 @@
       <c r="I49" s="9"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="9"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="4"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="9"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="4"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B52" t="s">
-        <v>16</v>
+      <c r="B52" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2063,7 +2110,7 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2074,40 +2121,40 @@
       <c r="I53" s="9"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="9"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="4"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="9"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="4"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B56" t="s">
-        <v>16</v>
+      <c r="B56" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2122,7 +2169,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2133,40 +2180,40 @@
       <c r="I57" s="9"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="9"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="4"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="9"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="4"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
-        <v>16</v>
+      <c r="B60" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -2181,7 +2228,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -2192,40 +2239,40 @@
       <c r="I61" s="9"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="9"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="4"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="9"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="4"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B64" t="s">
-        <v>16</v>
+      <c r="B64" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2240,7 +2287,7 @@
         <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -2251,40 +2298,40 @@
       <c r="I65" s="9"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="9"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="4"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="9"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="4"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B68" t="s">
-        <v>16</v>
+      <c r="B68" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -2299,7 +2346,7 @@
         <v>61</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -2310,40 +2357,40 @@
       <c r="I69" s="9"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B70" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="9"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="4"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="9"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="4"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B72" t="s">
-        <v>16</v>
+      <c r="B72" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -2358,7 +2405,7 @@
         <v>62</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -2369,40 +2416,40 @@
       <c r="I73" s="9"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="9"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="4"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="9"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="4"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B76" t="s">
-        <v>16</v>
+      <c r="B76" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -2417,7 +2464,7 @@
         <v>63</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -2428,40 +2475,40 @@
       <c r="I77" s="9"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B78" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="9"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="4"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="9"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="4"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B80" t="s">
-        <v>16</v>
+      <c r="B80" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -2476,7 +2523,7 @@
         <v>64</v>
       </c>
       <c r="B81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -2487,40 +2534,40 @@
       <c r="I81" s="9"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B82" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="9"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="4"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="9"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="4"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B84" t="s">
-        <v>16</v>
+      <c r="B84" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -2535,7 +2582,7 @@
         <v>65</v>
       </c>
       <c r="B85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -2546,40 +2593,40 @@
       <c r="I85" s="9"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B86" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="9"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="4"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="9"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="4"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B88" t="s">
-        <v>16</v>
+      <c r="B88" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -2594,7 +2641,7 @@
         <v>66</v>
       </c>
       <c r="B89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -2605,40 +2652,40 @@
       <c r="I89" s="9"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="9"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="4"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="9"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="4"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B92" t="s">
-        <v>16</v>
+      <c r="B92" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -2653,7 +2700,7 @@
         <v>67</v>
       </c>
       <c r="B93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -2664,33 +2711,43 @@
       <c r="I93" s="9"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B94" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="9"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="4"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>82</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="4"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>82</v>
       </c>
-      <c r="B96" t="s">
-        <v>16</v>
+      <c r="B96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -2698,45 +2755,112 @@
         <v>82</v>
       </c>
       <c r="B97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>82</v>
+      </c>
+      <c r="B98" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="8"/>
-      <c r="J98" s="4"/>
+      <c r="C98" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="C99" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>82</v>
+      </c>
+      <c r="B100" t="s">
+        <v>71</v>
+      </c>
+      <c r="C100" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="4"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>84</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>84</v>
+      </c>
+      <c r="B103" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="C103" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>84</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B104" t="s">
         <v>17</v>
+      </c>
+      <c r="C104" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>84</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C105" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>84</v>
+      </c>
+      <c r="B106" t="s">
+        <v>71</v>
+      </c>
+      <c r="C106" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2753,7 +2877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/docs/test/test-cases template-v1.1.xlsx
+++ b/docs/test/test-cases template-v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PA\Year 3\Software Engineering\Lab\E-commerce\E-commerce_Web_Application\docs\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25ACCFBD-F897-4CD6-BE11-77A1599BBD8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273827A7-E44E-4271-A399-97C3E51F25CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="182">
   <si>
     <t>ID</t>
   </si>
@@ -771,6 +771,117 @@
   </si>
   <si>
     <t>Decrease amount</t>
+  </si>
+  <si>
+    <t>Remove 1 product</t>
+  </si>
+  <si>
+    <t>Remove all products</t>
+  </si>
+  <si>
+    <t>Remove 2 products</t>
+  </si>
+  <si>
+    <t>Remove 3 products</t>
+  </si>
+  <si>
+    <t>Remove 2 products then add new product</t>
+  </si>
+  <si>
+    <t>Add all items each of two product</t>
+  </si>
+  <si>
+    <t>Add 5 items each of two product</t>
+  </si>
+  <si>
+    <t>Add 1 items  each of two products</t>
+  </si>
+  <si>
+    <t>Add all items of one product</t>
+  </si>
+  <si>
+    <t>Add 5 items of one product</t>
+  </si>
+  <si>
+    <t>Add 1 items of one product</t>
+  </si>
+  <si>
+    <t>Click on product 1</t>
+  </si>
+  <si>
+    <t>Click on product 2</t>
+  </si>
+  <si>
+    <t>Click on product 3</t>
+  </si>
+  <si>
+    <t>UI08</t>
+  </si>
+  <si>
+    <t>UI09</t>
+  </si>
+  <si>
+    <t>UI10</t>
+  </si>
+  <si>
+    <t>Click on product 4</t>
+  </si>
+  <si>
+    <t>Click on product 5</t>
+  </si>
+  <si>
+    <t>Click on product 6</t>
+  </si>
+  <si>
+    <t>Click on product 7</t>
+  </si>
+  <si>
+    <t>Click on product 8</t>
+  </si>
+  <si>
+    <t>Click on product 9</t>
+  </si>
+  <si>
+    <t>Click on product 10</t>
+  </si>
+  <si>
+    <t>Click on cart icon</t>
+  </si>
+  <si>
+    <t>Click on product</t>
+  </si>
+  <si>
+    <t>Enter coupon</t>
+  </si>
+  <si>
+    <t>Check out</t>
+  </si>
+  <si>
+    <t>Enter random string</t>
+  </si>
+  <si>
+    <t>Enter negative number</t>
+  </si>
+  <si>
+    <t>Enter number larger than stock</t>
+  </si>
+  <si>
+    <t>Enter float</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fullname contains special characters </t>
+  </si>
+  <si>
+    <t>Invalid email format</t>
+  </si>
+  <si>
+    <t>Invalid birthdate</t>
+  </si>
+  <si>
+    <t>Address contains special characters</t>
+  </si>
+  <si>
+    <t>All valid information</t>
   </si>
 </sst>
 </file>
@@ -904,7 +1015,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:J42" totalsRowShown="0" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:J49" totalsRowShown="0" dataDxfId="6">
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Function/Feature ID"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Case ID"/>
@@ -1220,10 +1331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J106"/>
+  <dimension ref="A1:J125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1897,7 +2008,9 @@
       <c r="B39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -1912,7 +2025,9 @@
       <c r="B40" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -1927,7 +2042,9 @@
       <c r="B41" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -1936,27 +2053,32 @@
       <c r="I41" s="9"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="4"/>
+      <c r="A42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="9"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="B43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -1966,12 +2088,14 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -1981,12 +2105,14 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -1995,28 +2121,31 @@
       <c r="I45" s="9"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="4"/>
-    </row>
-    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="9"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>15</v>
+        <v>58</v>
+      </c>
+      <c r="B47" t="s">
+        <v>160</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -2025,15 +2154,15 @@
       <c r="H47" s="2"/>
       <c r="I47" s="9"/>
     </row>
-    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" t="s">
-        <v>16</v>
+        <v>58</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -2043,31 +2172,28 @@
       <c r="I48" s="9"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="9"/>
+      <c r="A49" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>144</v>
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>169</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -2077,27 +2203,32 @@
       <c r="I50" s="9"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="4"/>
+      <c r="A51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>170</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="9"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" t="s">
+        <v>171</v>
+      </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -2107,12 +2238,14 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" t="s">
+        <v>172</v>
+      </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -2121,42 +2254,46 @@
       <c r="I53" s="9"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="9"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="4"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="9"/>
+    </row>
+    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -2166,12 +2303,14 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -2181,12 +2320,14 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>17</v>
-      </c>
-      <c r="C58" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -2195,27 +2336,32 @@
       <c r="I58" s="9"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="4"/>
+      <c r="A59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="9"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -2223,14 +2369,16 @@
       <c r="H60" s="2"/>
       <c r="I60" s="9"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" s="2"/>
+      <c r="B61" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -2240,12 +2388,14 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B62" t="s">
-        <v>17</v>
-      </c>
-      <c r="C62" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -2255,7 +2405,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2269,12 +2419,14 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C64" s="2"/>
+      <c r="C64" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -2284,12 +2436,14 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B65" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="2"/>
+      <c r="C65" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -2299,12 +2453,14 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B66" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="2"/>
+      <c r="C66" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -2313,27 +2469,32 @@
       <c r="I66" s="9"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="4"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="9"/>
+    </row>
+    <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -2342,28 +2503,29 @@
       <c r="I68" s="9"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B69" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="9"/>
+      <c r="A69" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="4"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B70" t="s">
-        <v>17</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -2372,27 +2534,32 @@
       <c r="I70" s="9"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="4"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="9"/>
+    </row>
+    <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="B72" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
@@ -2400,14 +2567,16 @@
       <c r="H72" s="2"/>
       <c r="I72" s="9"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
-      </c>
-      <c r="C73" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -2415,14 +2584,16 @@
       <c r="H73" s="2"/>
       <c r="I73" s="9"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
-      </c>
-      <c r="C74" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -2430,41 +2601,43 @@
       <c r="H74" s="2"/>
       <c r="I74" s="9"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="4"/>
+    <row r="75" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B75" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="9"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="9"/>
+      <c r="A76" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="4"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B77" t="s">
-        <v>16</v>
+        <v>59</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -2476,10 +2649,10 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -2490,40 +2663,40 @@
       <c r="I78" s="9"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="4"/>
+      <c r="A79" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="9"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="9"/>
+      <c r="A80" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="4"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B81" t="s">
-        <v>16</v>
+        <v>60</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -2535,10 +2708,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -2549,40 +2722,40 @@
       <c r="I82" s="9"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="4"/>
+      <c r="A83" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B83" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="9"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="9"/>
+      <c r="A84" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="4"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B85" t="s">
-        <v>16</v>
+        <v>61</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -2594,10 +2767,10 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -2608,40 +2781,40 @@
       <c r="I86" s="9"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="4"/>
+      <c r="A87" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B87" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="9"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="9"/>
+      <c r="A88" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="4"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B89" t="s">
-        <v>16</v>
+        <v>62</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -2653,10 +2826,10 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -2667,42 +2840,44 @@
       <c r="I90" s="9"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="4"/>
+      <c r="A91" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B91" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="9"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B92" s="1" t="s">
+      <c r="A92" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="4"/>
+    </row>
+    <row r="93" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="9"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B93" t="s">
-        <v>16</v>
-      </c>
-      <c r="C93" s="2"/>
+      <c r="C93" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
@@ -2712,12 +2887,14 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B94" t="s">
-        <v>17</v>
-      </c>
-      <c r="C94" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
@@ -2726,140 +2903,427 @@
       <c r="I94" s="9"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B95" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="9"/>
+    </row>
+    <row r="96" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="9"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B97" t="s">
+        <v>71</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="9"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="4"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="9"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="9"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B101" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="9"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="4"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="9"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B104" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="9"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="9"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="4"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="9"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B108" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="9"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B109" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="9"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="4"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="9"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B112" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="9"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B113" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="9"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="4"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="4"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>82</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C115" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>82</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B116" t="s">
         <v>16</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C116" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>82</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B117" t="s">
         <v>17</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C117" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>82</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C118" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>82</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B119" t="s">
         <v>71</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C119" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="8"/>
-      <c r="J101" s="4"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="8"/>
+      <c r="J120" s="4"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>84</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C121" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>84</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B122" t="s">
         <v>16</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C122" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>84</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B123" t="s">
         <v>17</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C123" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>84</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C124" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>84</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B125" t="s">
         <v>71</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C125" t="s">
         <v>136</v>
       </c>
     </row>

--- a/docs/test/test-cases template-v1.1.xlsx
+++ b/docs/test/test-cases template-v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PA\Year 3\Software Engineering\Lab\E-commerce\E-commerce_Web_Application\docs\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2155EA10-6A48-4B4B-9FF7-8D9A49A3548E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D26D07-FC81-4E50-8E74-B433A1FAAC58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="326">
   <si>
     <t>ID</t>
   </si>
@@ -2777,6 +2777,1778 @@
     <t>1. Save changes
 2. Reload page
 3. Display new profile</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter name: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Enter phone number: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0912345678</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+3. Enter address: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+4. Enter order note: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"(optional)
+5. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Confirm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter name: ""
+2. Enter phone number: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0912345678</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+3. Enter address: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+4. Enter order note: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"(optional)
+5. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Confirm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter name: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Enter phone number: ""
+3. Enter address: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+4. Enter order note: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"(optional)
+5. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Confirm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter name: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Enter phone number: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0912345678</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+3. Enter address: ""
+4. Enter order note: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"(optional)
+5. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Confirm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter name: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abc/\;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Enter phone number: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0912345678</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+3. Enter address: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+4. Enter order note: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"(optional)
+5. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Confirm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter name: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Enter phone number: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0912345678abc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+3. Enter address: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+4. Enter order note: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"(optional)
+5. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Confirm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter name: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Enter phone number: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0912345678</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+3. Enter address: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+4. Enter order note: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example\/;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"(optional)
+5. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Confirm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter coupon: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apply</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter coupon: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example-wrong</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apply</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter coupon: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apply</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button
+3. Enter coupon: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+4. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apply</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter coupon: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apply</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button
+3. Enter coupon: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+4. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apply</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter coupon: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example\/;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apply</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sexy Men</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Versace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fashion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>221</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\'/;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter ""
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+1. Go to homepage
+2. Click on product "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>212 Sexy Men</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" picture</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+1. Go to homepage
+2. Click on product "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>212 Sexy Men</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+1. Go to homepage
+2. Click on product "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>212 Sexy Men</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>View</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+1. Go to homepage
+2. Click on product "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Maxi F21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" picture</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+1. Click on "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>View all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button
+2. Click on product "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>212 Sexy Men</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" picture</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+1. Click on "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>View all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button
+2. Click on product "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>212 Sexy Men</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+1. Go to homepage
+2. Click on product "L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ancome Tresor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" picture</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+1. Click on "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>View all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button
+2. Click on product "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Maxi F21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" picture</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+1. Click on "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>View all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button
+2. Click on product "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lancome Tresor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" picture</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Proceed to product detail of product "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>212 Sexy Men</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Proceed to product detail of product "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lancome Tresor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Proceed to product detail of product "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Maxi F21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Go to homepage
+2. Click on cart</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+1. Click on "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>View all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button
+2. Click on product "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>212 Sexy Men</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>View</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Proceed to product detail of product 6</t>
+  </si>
+  <si>
+    <t>1. Submit comment
+2. Display new comment</t>
+  </si>
+  <si>
+    <t>1. Submit rating</t>
   </si>
 </sst>
 </file>
@@ -3261,8 +5033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G177" sqref="G177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4062,7 +5834,7 @@
       <c r="I44" s="9"/>
       <c r="J44" s="6"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -4072,12 +5844,15 @@
       <c r="C45" s="2" t="s">
         <v>187</v>
       </c>
+      <c r="D45" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="E45" s="2" t="s">
         <v>244</v>
       </c>
       <c r="I45" s="8"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
@@ -4087,12 +5862,15 @@
       <c r="C46" s="2" t="s">
         <v>188</v>
       </c>
+      <c r="D46" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="E46" s="2" t="s">
         <v>244</v>
       </c>
       <c r="I46" s="8"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
@@ -4102,12 +5880,15 @@
       <c r="C47" s="2" t="s">
         <v>189</v>
       </c>
+      <c r="D47" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="E47" s="2" t="s">
         <v>244</v>
       </c>
       <c r="I47" s="8"/>
     </row>
-    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>43</v>
       </c>
@@ -4117,12 +5898,15 @@
       <c r="C48" s="2" t="s">
         <v>190</v>
       </c>
+      <c r="D48" s="2" t="s">
+        <v>295</v>
+      </c>
       <c r="E48" s="2" t="s">
         <v>244</v>
       </c>
       <c r="I48" s="8"/>
     </row>
-    <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>43</v>
       </c>
@@ -4132,12 +5916,15 @@
       <c r="C49" s="2" t="s">
         <v>174</v>
       </c>
+      <c r="D49" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="E49" s="2" t="s">
         <v>244</v>
       </c>
       <c r="I49" s="8"/>
     </row>
-    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4147,8 +5934,11 @@
       <c r="C50" s="2" t="s">
         <v>191</v>
       </c>
+      <c r="D50" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="E50" s="2" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="I50" s="8"/>
     </row>
@@ -4162,12 +5952,15 @@
       <c r="C51" s="2" t="s">
         <v>183</v>
       </c>
+      <c r="D51" s="2" t="s">
+        <v>298</v>
+      </c>
       <c r="E51" s="2" t="s">
         <v>245</v>
       </c>
       <c r="I51" s="8"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>43</v>
       </c>
@@ -4177,12 +5970,15 @@
       <c r="C52" s="2" t="s">
         <v>192</v>
       </c>
+      <c r="D52" s="2" t="s">
+        <v>299</v>
+      </c>
       <c r="E52" s="2" t="s">
         <v>244</v>
       </c>
       <c r="I52" s="8"/>
     </row>
-    <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>43</v>
       </c>
@@ -4192,12 +5988,15 @@
       <c r="C53" s="2" t="s">
         <v>194</v>
       </c>
+      <c r="D53" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="E53" s="2" t="s">
         <v>245</v>
       </c>
       <c r="I53" s="8"/>
     </row>
-    <row r="54" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>43</v>
       </c>
@@ -4206,6 +6005,9 @@
       </c>
       <c r="C54" s="2" t="s">
         <v>193</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>246</v>
@@ -4222,12 +6024,15 @@
       <c r="C55" s="2" t="s">
         <v>195</v>
       </c>
+      <c r="D55" s="2" t="s">
+        <v>302</v>
+      </c>
       <c r="E55" s="2" t="s">
         <v>244</v>
       </c>
       <c r="I55" s="8"/>
     </row>
-    <row r="56" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>43</v>
       </c>
@@ -4236,6 +6041,9 @@
       </c>
       <c r="C56" s="2" t="s">
         <v>207</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>257</v>
@@ -4266,6 +6074,9 @@
       <c r="C58" s="2" t="s">
         <v>177</v>
       </c>
+      <c r="D58" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="E58" s="2" t="s">
         <v>260</v>
       </c>
@@ -4281,6 +6092,9 @@
       <c r="C59" s="2" t="s">
         <v>258</v>
       </c>
+      <c r="D59" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="E59" s="2" t="s">
         <v>260</v>
       </c>
@@ -4296,6 +6110,9 @@
       <c r="C60" s="2" t="s">
         <v>259</v>
       </c>
+      <c r="D60" s="2" t="s">
+        <v>305</v>
+      </c>
       <c r="E60" s="2" t="s">
         <v>260</v>
       </c>
@@ -4311,6 +6128,9 @@
       <c r="C61" s="2" t="s">
         <v>178</v>
       </c>
+      <c r="D61" s="2" t="s">
+        <v>306</v>
+      </c>
       <c r="E61" s="2" t="s">
         <v>260</v>
       </c>
@@ -4326,12 +6146,15 @@
       <c r="C62" s="2" t="s">
         <v>211</v>
       </c>
+      <c r="D62" s="2" t="s">
+        <v>307</v>
+      </c>
       <c r="E62" s="2" t="s">
         <v>260</v>
       </c>
       <c r="I62" s="8"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>44</v>
       </c>
@@ -4340,6 +6163,9 @@
       </c>
       <c r="C63" s="2" t="s">
         <v>69</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>265</v>
@@ -4360,7 +6186,7 @@
       <c r="I64" s="9"/>
       <c r="J64" s="6"/>
     </row>
-    <row r="65" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>49</v>
       </c>
@@ -4370,12 +6196,15 @@
       <c r="C65" s="2" t="s">
         <v>217</v>
       </c>
+      <c r="D65" s="2" t="s">
+        <v>309</v>
+      </c>
       <c r="E65" s="2" t="s">
-        <v>252</v>
+        <v>318</v>
       </c>
       <c r="I65" s="8"/>
     </row>
-    <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>49</v>
       </c>
@@ -4385,12 +6214,15 @@
       <c r="C66" s="2" t="s">
         <v>218</v>
       </c>
+      <c r="D66" s="2" t="s">
+        <v>310</v>
+      </c>
       <c r="E66" s="2" t="s">
-        <v>253</v>
+        <v>318</v>
       </c>
       <c r="I66" s="8"/>
     </row>
-    <row r="67" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>49</v>
       </c>
@@ -4400,12 +6232,15 @@
       <c r="C67" s="2" t="s">
         <v>219</v>
       </c>
+      <c r="D67" s="2" t="s">
+        <v>311</v>
+      </c>
       <c r="E67" s="2" t="s">
-        <v>254</v>
+        <v>318</v>
       </c>
       <c r="I67" s="8"/>
     </row>
-    <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>49</v>
       </c>
@@ -4415,12 +6250,15 @@
       <c r="C68" s="2" t="s">
         <v>220</v>
       </c>
+      <c r="D68" s="2" t="s">
+        <v>315</v>
+      </c>
       <c r="E68" s="2" t="s">
-        <v>255</v>
+        <v>319</v>
       </c>
       <c r="I68" s="8"/>
     </row>
-    <row r="69" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>49</v>
       </c>
@@ -4430,12 +6268,15 @@
       <c r="C69" s="2" t="s">
         <v>221</v>
       </c>
+      <c r="D69" s="2" t="s">
+        <v>312</v>
+      </c>
       <c r="E69" s="2" t="s">
-        <v>256</v>
+        <v>320</v>
       </c>
       <c r="I69" s="8"/>
     </row>
-    <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>49</v>
       </c>
@@ -4445,12 +6286,15 @@
       <c r="C70" s="2" t="s">
         <v>222</v>
       </c>
+      <c r="D70" s="2" t="s">
+        <v>313</v>
+      </c>
       <c r="E70" s="2" t="s">
-        <v>252</v>
+        <v>318</v>
       </c>
       <c r="I70" s="8"/>
     </row>
-    <row r="71" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>49</v>
       </c>
@@ -4460,12 +6304,15 @@
       <c r="C71" s="2" t="s">
         <v>223</v>
       </c>
+      <c r="D71" s="2" t="s">
+        <v>314</v>
+      </c>
       <c r="E71" s="2" t="s">
-        <v>253</v>
+        <v>318</v>
       </c>
       <c r="I71" s="8"/>
     </row>
-    <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>49</v>
       </c>
@@ -4475,12 +6322,15 @@
       <c r="C72" s="2" t="s">
         <v>224</v>
       </c>
+      <c r="D72" s="2" t="s">
+        <v>322</v>
+      </c>
       <c r="E72" s="2" t="s">
-        <v>254</v>
+        <v>318</v>
       </c>
       <c r="I72" s="8"/>
     </row>
-    <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>49</v>
       </c>
@@ -4490,12 +6340,15 @@
       <c r="C73" s="2" t="s">
         <v>225</v>
       </c>
+      <c r="D73" s="2" t="s">
+        <v>317</v>
+      </c>
       <c r="E73" s="2" t="s">
-        <v>255</v>
+        <v>319</v>
       </c>
       <c r="I73" s="8"/>
     </row>
-    <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>49</v>
       </c>
@@ -4505,8 +6358,11 @@
       <c r="C74" s="2" t="s">
         <v>226</v>
       </c>
+      <c r="D74" s="2" t="s">
+        <v>316</v>
+      </c>
       <c r="E74" s="2" t="s">
-        <v>256</v>
+        <v>320</v>
       </c>
       <c r="I74" s="8"/>
     </row>
@@ -4534,6 +6390,9 @@
       <c r="C76" s="2" t="s">
         <v>247</v>
       </c>
+      <c r="D76" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="E76" s="2" t="s">
         <v>261</v>
       </c>
@@ -5703,7 +7562,7 @@
       <c r="I161" s="9"/>
       <c r="J161" s="6"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>58</v>
       </c>
@@ -5713,9 +7572,12 @@
       <c r="C162" s="2" t="s">
         <v>145</v>
       </c>
+      <c r="E162" s="11" t="s">
+        <v>252</v>
+      </c>
       <c r="I162" s="8"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>58</v>
       </c>
@@ -5725,9 +7587,12 @@
       <c r="C163" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="E163" s="11" t="s">
+        <v>253</v>
+      </c>
       <c r="I163" s="8"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>58</v>
       </c>
@@ -5737,9 +7602,12 @@
       <c r="C164" s="2" t="s">
         <v>147</v>
       </c>
+      <c r="E164" s="11" t="s">
+        <v>254</v>
+      </c>
       <c r="I164" s="8"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>58</v>
       </c>
@@ -5749,9 +7617,12 @@
       <c r="C165" s="2" t="s">
         <v>151</v>
       </c>
+      <c r="E165" s="11" t="s">
+        <v>255</v>
+      </c>
       <c r="I165" s="8"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>58</v>
       </c>
@@ -5761,9 +7632,12 @@
       <c r="C166" s="2" t="s">
         <v>152</v>
       </c>
+      <c r="E166" s="11" t="s">
+        <v>256</v>
+      </c>
       <c r="I166" s="8"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>58</v>
       </c>
@@ -5772,6 +7646,9 @@
       </c>
       <c r="C167" s="2" t="s">
         <v>153</v>
+      </c>
+      <c r="E167" s="11" t="s">
+        <v>323</v>
       </c>
       <c r="I167" s="8"/>
     </row>
@@ -5799,6 +7676,9 @@
       <c r="C169" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="E169" s="2" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="170" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
@@ -5810,6 +7690,9 @@
       <c r="C170" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="E170" s="2" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="171" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
@@ -5821,6 +7704,9 @@
       <c r="C171" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="E171" s="2" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="172" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
@@ -5832,6 +7718,9 @@
       <c r="C172" s="2" t="s">
         <v>130</v>
       </c>
+      <c r="E172" s="2" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="173" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
@@ -5842,6 +7731,9 @@
       </c>
       <c r="C173" s="2" t="s">
         <v>170</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
@@ -5868,6 +7760,9 @@
       <c r="C175" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="E175" s="2" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
@@ -5879,6 +7774,9 @@
       <c r="C176" s="2" t="s">
         <v>123</v>
       </c>
+      <c r="E176" s="2" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
@@ -5890,6 +7788,9 @@
       <c r="C177" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="E177" s="2" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
@@ -5901,6 +7802,9 @@
       <c r="C178" s="2" t="s">
         <v>125</v>
       </c>
+      <c r="E178" s="2" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
@@ -5911,6 +7815,9 @@
       </c>
       <c r="C179" s="2" t="s">
         <v>126</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">

--- a/docs/test/test-cases template-v1.1.xlsx
+++ b/docs/test/test-cases template-v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PA\Year 3\Software Engineering\Lab\E-commerce\E-commerce_Web_Application\docs\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D26D07-FC81-4E50-8E74-B433A1FAAC58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E0BB20-9F9D-43E5-AF83-2099FEAFF638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="441">
   <si>
     <t>ID</t>
   </si>
@@ -4544,11 +4544,1913 @@
     <t>1. Proceed to product detail of product 6</t>
   </si>
   <si>
+    <t>1. Submit rating</t>
+  </si>
+  <si>
+    <t>1. Go to cart
+2. Click on product 1 picture</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Continue shopping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" links</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. While the cart is empty
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Check out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. While the cart is not empty
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Clear shopping cart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. While the cart is not empty
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Check out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <t>1. While amount is equal to stock
+2. Click on "Increase" button
+3. Click "OK"</t>
+  </si>
+  <si>
+    <t>1. While amount is not equal stock
+2. Click on "Increase" button
+3. Click "OK"</t>
+  </si>
+  <si>
+    <t>1. While amount is not 1
+2. Click on "Decrease" button
+3. Click "OK"</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abc123</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Click "OK"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. While amount is 1
+2. Click on "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Decrease</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button
+3. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Click "OK"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>99999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Click "OK"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Click "OK"</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Enter ""
+2. Click "OK"</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Remove</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button of product 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Remove</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button of product 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Remove</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button of product 3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. While cart is not empty
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Remove all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. While cart is empty
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Remove all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. On profile's shopping history
+2. Click picture of product 1 </t>
+  </si>
+  <si>
+    <t>1. On profile's shopping history
+2. Click picture of product 2</t>
+  </si>
+  <si>
+    <t>1. On profile's shopping history
+2. Click picture of product 3</t>
+  </si>
+  <si>
+    <t>1. On profile's shopping history
+2. Click picture of product 4</t>
+  </si>
+  <si>
+    <t>1. On profile's shopping history
+2. Click picture of product 5</t>
+  </si>
+  <si>
+    <t>1. On profile's shopping history
+2. Click picture of product 6</t>
+  </si>
+  <si>
+    <r>
+      <t>1. On product detail of "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>212 Sexy Men</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>", change amount to 1
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add to cart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. On product detail of "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>212 Sexy Men</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>", change amount to stock
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add to cart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. On product detail of "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>212 Sexy Men</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>", change amount to 5
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add to cart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. On product detail of "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>212 Sexy Men</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>", change amount to 1
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add to cart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button
+3. On product detail of "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Maxi F21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>", change amount to 1
+4. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add to cart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. On product detail of "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>212 Sexy Men</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>", change amount to 5
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add to cart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button
+3. On product detail of "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Maxi F21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>", change amount to 5
+4. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add to cart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. On product detail of "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>212 Sexy Men</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>", change amount to stock
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add to cart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button
+3. On product detail of "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Maxi F21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>", change amount to stock
+4. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add to cart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1 star</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> box</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2 star</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> box</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 3 star</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> box</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 4 star</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> box</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 5 star</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> box</t>
+    </r>
+  </si>
+  <si>
     <t>1. Submit comment
-2. Display new comment</t>
-  </si>
-  <si>
-    <t>1. Submit rating</t>
+2. Display newly added comment</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter comment: ""
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter comment: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$|\/'.;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter comment: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lorem-100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter comment: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lorem-1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Enter comment: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Lorem-10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter fullname: ""
+2. Enter phone number: ""
+3. Enter address: ""
+4. Enter email: ""
+5. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Save</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Order history</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Address</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Security</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Order management</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Account's password changed
+2. Notify that password has been change</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter password: ""
+2. Enter new password: ""
+3. Confirm new password: ""
+4. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <t>Go to perfume</t>
+  </si>
+  <si>
+    <t>Go to homepage</t>
+  </si>
+  <si>
+    <t>Go to cosmetic</t>
+  </si>
+  <si>
+    <t>Go to fashion</t>
+  </si>
+  <si>
+    <t>Go to skincare</t>
+  </si>
+  <si>
+    <t>Go to cart</t>
+  </si>
+  <si>
+    <t>Go to sign up</t>
+  </si>
+  <si>
+    <t>Go to log in</t>
+  </si>
+  <si>
+    <t>Go to profile</t>
+  </si>
+  <si>
+    <t>Log out</t>
+  </si>
+  <si>
+    <t>Go to product detail 1</t>
+  </si>
+  <si>
+    <t>Go to product detail 2</t>
+  </si>
+  <si>
+    <t>Go to product detail 3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>logo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Perfume</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Click product image</t>
+  </si>
+  <si>
+    <t>1. Click product name</t>
+  </si>
+  <si>
+    <t>1. Click product view icon</t>
+  </si>
+  <si>
+    <t>1. Redirect to homepage</t>
+  </si>
+  <si>
+    <t>1. Redirect to product detail</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cosmetic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fashion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Skincare</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sign up</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Log in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Logged in
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Profile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Redirect to Perfume category page</t>
+  </si>
+  <si>
+    <t>1. Redirect to Cosmetic category page</t>
+  </si>
+  <si>
+    <t>1. Redirect to Fashion category page</t>
+  </si>
+  <si>
+    <t>1. Redirect to Skincare category page</t>
+  </si>
+  <si>
+    <t>1. Redirect to  shopping cart</t>
+  </si>
+  <si>
+    <t>1. Redirect to Sign up page</t>
+  </si>
+  <si>
+    <t>1. Redirect to Log in page</t>
+  </si>
+  <si>
+    <t>1. Redirect to Profile page</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Logged in
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Log out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <t>1. User exit current session
+2. Refresh page</t>
+  </si>
+  <si>
+    <t>UC26</t>
+  </si>
+  <si>
+    <t>Order management</t>
+  </si>
+  <si>
+    <t>User management</t>
+  </si>
+  <si>
+    <t>UC27</t>
+  </si>
+  <si>
+    <t>Choose and delete order</t>
+  </si>
+  <si>
+    <t>Function 26: Order management</t>
+  </si>
+  <si>
+    <t>Choose 1 order to remove</t>
+  </si>
+  <si>
+    <t>Choose 2 orders to remove</t>
+  </si>
+  <si>
+    <t>Choose all orders to remove</t>
+  </si>
+  <si>
+    <t>Choose no order to remove</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Check the box at the first order
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Remove</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Check the box at the first order
+2. Check the box at the second order
+3. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Remove</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Check the boxes at all orders
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Remove</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Do not check any box
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Remove</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Remove the chosen orders
+2. Display new order list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add, reset or remove user account </t>
+  </si>
+  <si>
+    <t>Function 27: User management</t>
+  </si>
+  <si>
+    <t>Reset password</t>
+  </si>
+  <si>
+    <t>Remove account</t>
+  </si>
+  <si>
+    <t>Create new account with blank username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create new account with username contain special character </t>
+  </si>
+  <si>
+    <t>Create new account with blank password</t>
+  </si>
+  <si>
+    <t>Create new account with password contain special character</t>
+  </si>
+  <si>
+    <t>Create new account with normal character username and password</t>
+  </si>
+  <si>
+    <t>1. Redirect to password reset page</t>
+  </si>
+  <si>
+    <t>1. User account is remove</t>
+  </si>
+  <si>
+    <t>1. New account is created</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reset password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Remove account</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter username: ""
+2. Enter password: ""
+3. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Create account</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4632,69 +6534,83 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="12">
     <dxf>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="m/d/yy"/>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4715,25 +6631,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:J75" totalsRowShown="0" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:J75" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Function/Feature ID"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Case ID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test case name" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Test step" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Expected Result (ER)" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Actual Result" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Status" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Tester" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Tested Date" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Remark" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Function/Feature ID" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Case ID" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test case name" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Test step" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Expected Result (ER)" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Actual Result" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Status" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Tester" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Tested Date" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Remark" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A5:D30" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A5:D32" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Feature Name"/>
@@ -5031,29 +6947,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J201"/>
+  <dimension ref="A1:J227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G177" sqref="G177"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="4"/>
+    <col min="3" max="3" width="29.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40" style="2" customWidth="1"/>
+    <col min="5" max="5" width="57.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" style="2" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" style="2"/>
     <col min="8" max="9" width="13.7109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -5082,27 +7000,27 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -5111,17 +7029,16 @@
       <c r="E3" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -5130,16 +7047,16 @@
       <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="8" t="s">
         <v>65</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -5148,16 +7065,16 @@
       <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>214</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -5166,13 +7083,13 @@
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="8"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -5184,13 +7101,13 @@
       <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -5202,13 +7119,13 @@
       <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -5220,30 +7137,30 @@
       <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="8"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -5252,16 +7169,16 @@
       <c r="E11" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -5270,16 +7187,16 @@
       <c r="E12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="8" t="s">
         <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -5288,16 +7205,16 @@
       <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>214</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -5306,13 +7223,13 @@
       <c r="E14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="8"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -5324,13 +7241,13 @@
       <c r="E15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -5342,13 +7259,13 @@
       <c r="E16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -5360,27 +7277,27 @@
       <c r="E17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="8"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -5392,13 +7309,13 @@
       <c r="E19" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -5410,13 +7327,13 @@
       <c r="E20" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -5428,13 +7345,13 @@
       <c r="E21" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -5446,13 +7363,13 @@
       <c r="E22" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -5464,13 +7381,13 @@
       <c r="E23" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="24" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -5482,13 +7399,13 @@
       <c r="E24" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -5500,13 +7417,13 @@
       <c r="E25" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -5518,13 +7435,13 @@
       <c r="E26" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="27" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="4" t="s">
         <v>149</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -5536,13 +7453,13 @@
       <c r="E27" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="I27" s="8"/>
-    </row>
-    <row r="28" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -5554,13 +7471,13 @@
       <c r="E28" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="I28" s="8"/>
-    </row>
-    <row r="29" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="4" t="s">
         <v>196</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -5572,13 +7489,13 @@
       <c r="E29" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="I29" s="8"/>
-    </row>
-    <row r="30" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -5590,27 +7507,27 @@
       <c r="E30" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="I30" s="8"/>
+      <c r="I30" s="10"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="6"/>
-    </row>
-    <row r="32" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -5622,13 +7539,13 @@
       <c r="E32" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="I32" s="8"/>
-    </row>
-    <row r="33" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="I32" s="10"/>
+    </row>
+    <row r="33" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -5640,13 +7557,13 @@
       <c r="E33" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="I33" s="8"/>
-    </row>
-    <row r="34" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -5658,13 +7575,13 @@
       <c r="E34" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="I34" s="8"/>
-    </row>
-    <row r="35" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -5676,13 +7593,13 @@
       <c r="E35" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="I35" s="8"/>
-    </row>
-    <row r="36" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -5694,13 +7611,13 @@
       <c r="E36" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="I36" s="8"/>
-    </row>
-    <row r="37" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="I36" s="10"/>
+    </row>
+    <row r="37" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -5712,13 +7629,13 @@
       <c r="E37" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="I37" s="8"/>
-    </row>
-    <row r="38" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -5730,13 +7647,13 @@
       <c r="E38" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="I38" s="8"/>
-    </row>
-    <row r="39" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="I38" s="10"/>
+    </row>
+    <row r="39" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -5748,13 +7665,13 @@
       <c r="E39" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="I39" s="8"/>
-    </row>
-    <row r="40" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="I39" s="10"/>
+    </row>
+    <row r="40" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="4" t="s">
         <v>149</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -5766,13 +7683,13 @@
       <c r="E40" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="I40" s="8"/>
-    </row>
-    <row r="41" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="I40" s="10"/>
+    </row>
+    <row r="41" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -5784,11 +7701,11 @@
       <c r="E41" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="I41" s="8"/>
-    </row>
-    <row r="42" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" t="s">
+      <c r="I41" s="10"/>
+    </row>
+    <row r="42" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="4" t="s">
         <v>196</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -5800,13 +7717,13 @@
       <c r="E42" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="I42" s="8"/>
-    </row>
-    <row r="43" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="I42" s="10"/>
+    </row>
+    <row r="43" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -5818,27 +7735,27 @@
       <c r="E43" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="I43" s="8"/>
+      <c r="I43" s="10"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="6"/>
-    </row>
-    <row r="45" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="B44" s="6"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="7"/>
+    </row>
+    <row r="45" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -5850,13 +7767,13 @@
       <c r="E45" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="I45" s="8"/>
-    </row>
-    <row r="46" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="I45" s="10"/>
+    </row>
+    <row r="46" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -5868,13 +7785,13 @@
       <c r="E46" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="I46" s="8"/>
-    </row>
-    <row r="47" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="I46" s="10"/>
+    </row>
+    <row r="47" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -5886,13 +7803,13 @@
       <c r="E47" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="I47" s="8"/>
-    </row>
-    <row r="48" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="I47" s="10"/>
+    </row>
+    <row r="48" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -5904,13 +7821,13 @@
       <c r="E48" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="I48" s="8"/>
-    </row>
-    <row r="49" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="I48" s="10"/>
+    </row>
+    <row r="49" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -5922,13 +7839,13 @@
       <c r="E49" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="I49" s="8"/>
-    </row>
-    <row r="50" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="I49" s="10"/>
+    </row>
+    <row r="50" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -5940,13 +7857,13 @@
       <c r="E50" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="I50" s="8"/>
+      <c r="I50" s="10"/>
     </row>
     <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -5958,13 +7875,13 @@
       <c r="E51" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="I51" s="8"/>
-    </row>
-    <row r="52" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="I51" s="10"/>
+    </row>
+    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -5976,13 +7893,13 @@
       <c r="E52" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="I52" s="8"/>
+      <c r="I52" s="10"/>
     </row>
     <row r="53" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="3" t="s">
         <v>149</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -5994,13 +7911,13 @@
       <c r="E53" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="I53" s="8"/>
+      <c r="I53" s="10"/>
     </row>
     <row r="54" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -6012,13 +7929,13 @@
       <c r="E54" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="I54" s="8"/>
+      <c r="I54" s="10"/>
     </row>
     <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="3" t="s">
         <v>196</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -6030,13 +7947,13 @@
       <c r="E55" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="I55" s="8"/>
-    </row>
-    <row r="56" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="I55" s="10"/>
+    </row>
+    <row r="56" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -6048,27 +7965,27 @@
       <c r="E56" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="I56" s="8"/>
+      <c r="I56" s="10"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="6"/>
-    </row>
-    <row r="58" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="B57" s="6"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="7"/>
+    </row>
+    <row r="58" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -6080,13 +7997,13 @@
       <c r="E58" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="I58" s="8"/>
-    </row>
-    <row r="59" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="I58" s="10"/>
+    </row>
+    <row r="59" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -6098,13 +8015,13 @@
       <c r="E59" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="I59" s="8"/>
-    </row>
-    <row r="60" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="I59" s="10"/>
+    </row>
+    <row r="60" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -6116,13 +8033,13 @@
       <c r="E60" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="I60" s="8"/>
-    </row>
-    <row r="61" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="I60" s="10"/>
+    </row>
+    <row r="61" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -6134,13 +8051,13 @@
       <c r="E61" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="I61" s="8"/>
-    </row>
-    <row r="62" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="I61" s="10"/>
+    </row>
+    <row r="62" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -6152,13 +8069,13 @@
       <c r="E62" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="I62" s="8"/>
+      <c r="I62" s="10"/>
     </row>
     <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -6167,30 +8084,30 @@
       <c r="D63" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="E63" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="I63" s="8"/>
+      <c r="I63" s="10"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="6"/>
-    </row>
-    <row r="65" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="B64" s="6"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="7"/>
+    </row>
+    <row r="65" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -6202,13 +8119,13 @@
       <c r="E65" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="I65" s="8"/>
-    </row>
-    <row r="66" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="I65" s="10"/>
+    </row>
+    <row r="66" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -6220,13 +8137,13 @@
       <c r="E66" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="I66" s="8"/>
+      <c r="I66" s="10"/>
     </row>
     <row r="67" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -6238,13 +8155,13 @@
       <c r="E67" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="I67" s="8"/>
+      <c r="I67" s="10"/>
     </row>
     <row r="68" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -6256,13 +8173,13 @@
       <c r="E68" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="I68" s="8"/>
-    </row>
-    <row r="69" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="I68" s="10"/>
+    </row>
+    <row r="69" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -6274,13 +8191,13 @@
       <c r="E69" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="I69" s="8"/>
-    </row>
-    <row r="70" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="I69" s="10"/>
+    </row>
+    <row r="70" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -6292,13 +8209,13 @@
       <c r="E70" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="I70" s="8"/>
-    </row>
-    <row r="71" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="I70" s="10"/>
+    </row>
+    <row r="71" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -6310,13 +8227,13 @@
       <c r="E71" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="I71" s="8"/>
+      <c r="I71" s="10"/>
     </row>
     <row r="72" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -6328,13 +8245,13 @@
       <c r="E72" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="I72" s="8"/>
+      <c r="I72" s="10"/>
     </row>
     <row r="73" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="4" t="s">
         <v>149</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -6346,13 +8263,13 @@
       <c r="E73" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="I73" s="8"/>
-    </row>
-    <row r="74" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="I73" s="10"/>
+    </row>
+    <row r="74" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -6364,27 +8281,27 @@
       <c r="E74" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="I74" s="8"/>
+      <c r="I74" s="10"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="7"/>
     </row>
     <row r="76" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -6396,1664 +8313,2383 @@
       <c r="E76" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="I76" s="8"/>
+      <c r="I76" s="10"/>
     </row>
     <row r="77" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E77" s="11" t="s">
+      <c r="D77" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E77" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I77" s="8"/>
+      <c r="I77" s="10"/>
     </row>
     <row r="78" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E78" s="11" t="s">
+      <c r="D78" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E78" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="I78" s="8"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="I78" s="10"/>
+    </row>
+    <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>186</v>
       </c>
+      <c r="D79" s="2" t="s">
+        <v>328</v>
+      </c>
       <c r="E79" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="I79" s="8"/>
+      <c r="I79" s="10"/>
     </row>
     <row r="80" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E80" s="11" t="s">
+      <c r="D80" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E80" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="I80" s="8"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="I80" s="10"/>
+    </row>
+    <row r="81" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E81" s="11" t="s">
+      <c r="D81" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E81" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="I81" s="8"/>
-    </row>
-    <row r="82" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="I81" s="10"/>
+    </row>
+    <row r="82" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="4" t="s">
         <v>64</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E82" s="11" t="s">
+      <c r="D82" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E82" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="I82" s="8"/>
-    </row>
-    <row r="83" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="I82" s="10"/>
+    </row>
+    <row r="83" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="3" t="s">
         <v>148</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E83" s="11" t="s">
+      <c r="D83" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E83" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="I83" s="8"/>
+      <c r="I83" s="10"/>
     </row>
     <row r="84" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="3" t="s">
         <v>149</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E84" s="11" t="s">
+      <c r="D84" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E84" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="I84" s="8"/>
+      <c r="I84" s="10"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>184</v>
       </c>
+      <c r="D85" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="E85" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="I85" s="8"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="I85" s="10"/>
+    </row>
+    <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="3" t="s">
         <v>196</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E86" s="11" t="s">
+      <c r="D86" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E86" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="I86" s="8"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="I86" s="10"/>
+    </row>
+    <row r="87" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>154</v>
       </c>
+      <c r="D87" s="2" t="s">
+        <v>329</v>
+      </c>
       <c r="E87" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="I87" s="8"/>
+      <c r="I87" s="10"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B88" s="3"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="9"/>
-      <c r="J88" s="6"/>
-    </row>
-    <row r="89" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+      <c r="B88" s="6"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="7"/>
+    </row>
+    <row r="89" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E89" s="11" t="s">
+      <c r="D89" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E89" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="I89" s="8"/>
-    </row>
-    <row r="90" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="I89" s="10"/>
+    </row>
+    <row r="90" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E90" s="11" t="s">
+      <c r="D90" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E90" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="I90" s="8"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="I90" s="10"/>
+    </row>
+    <row r="91" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>132</v>
       </c>
+      <c r="D91" s="2" t="s">
+        <v>331</v>
+      </c>
       <c r="E91" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="I91" s="8"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="I91" s="10"/>
+    </row>
+    <row r="92" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>134</v>
       </c>
+      <c r="D92" s="2" t="s">
+        <v>332</v>
+      </c>
       <c r="E92" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="I92" s="8"/>
+      <c r="I92" s="10"/>
     </row>
     <row r="93" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E93" s="11" t="s">
+      <c r="D93" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E93" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="I93" s="8"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="I93" s="10"/>
+    </row>
+    <row r="94" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E94" s="11" t="s">
+      <c r="D94" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E94" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="I94" s="8"/>
+      <c r="I94" s="10"/>
     </row>
     <row r="95" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="4" t="s">
         <v>64</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E95" s="11" t="s">
+      <c r="D95" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E95" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="I95" s="8"/>
+      <c r="I95" s="10"/>
     </row>
     <row r="96" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="3" t="s">
         <v>148</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="E96" s="11" t="s">
+      <c r="D96" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E96" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="I96" s="8"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+      <c r="I96" s="10"/>
+    </row>
+    <row r="97" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="3" t="s">
         <v>149</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E97" s="11" t="s">
+      <c r="D97" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E97" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="I97" s="8"/>
+      <c r="I97" s="10"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B98" s="3"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="9"/>
-      <c r="J98" s="6"/>
-    </row>
-    <row r="99" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+      <c r="B98" s="6"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="7"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>135</v>
       </c>
+      <c r="D99" s="2" t="s">
+        <v>339</v>
+      </c>
       <c r="E99" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="I99" s="8"/>
-    </row>
-    <row r="100" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="I99" s="10"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>137</v>
       </c>
+      <c r="D100" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="E100" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="I100" s="8"/>
-    </row>
-    <row r="101" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="I100" s="10"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D101" s="2" t="s">
+        <v>341</v>
+      </c>
       <c r="E101" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="I101" s="8"/>
+      <c r="I101" s="10"/>
     </row>
     <row r="102" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>136</v>
       </c>
+      <c r="D102" s="2" t="s">
+        <v>342</v>
+      </c>
       <c r="E102" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="I102" s="8"/>
+      <c r="I102" s="10"/>
     </row>
     <row r="103" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E103" s="11" t="s">
+      <c r="D103" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E103" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="I103" s="8"/>
+      <c r="I103" s="10"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B104" s="3"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="9"/>
-      <c r="J104" s="6"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="7"/>
     </row>
     <row r="105" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>144</v>
       </c>
+      <c r="D105" s="2" t="s">
+        <v>350</v>
+      </c>
       <c r="E105" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="I105" s="8"/>
+      <c r="I105" s="10"/>
     </row>
     <row r="106" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="D106" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="E106" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="I106" s="8"/>
-    </row>
-    <row r="107" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+      <c r="I106" s="10"/>
+    </row>
+    <row r="107" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>142</v>
       </c>
+      <c r="D107" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="E107" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="I107" s="8"/>
-    </row>
-    <row r="108" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+      <c r="I107" s="10"/>
+    </row>
+    <row r="108" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>141</v>
       </c>
+      <c r="D108" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="E108" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I108" s="8"/>
-    </row>
-    <row r="109" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+      <c r="I108" s="10"/>
+    </row>
+    <row r="109" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>140</v>
       </c>
+      <c r="D109" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="E109" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I109" s="8"/>
-    </row>
-    <row r="110" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+      <c r="I109" s="10"/>
+    </row>
+    <row r="110" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="D110" s="2" t="s">
+        <v>355</v>
+      </c>
       <c r="E110" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="I110" s="8"/>
+      <c r="I110" s="10"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B111" s="3"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
-      <c r="I111" s="9"/>
-      <c r="J111" s="6"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="7"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I112" s="8"/>
+      <c r="I112" s="10"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B113" s="3"/>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
-      <c r="I113" s="9"/>
-      <c r="J113" s="6"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="7"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I114" s="8"/>
+      <c r="I114" s="10"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I115" s="8"/>
+      <c r="I115" s="10"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B116" t="s">
-        <v>15</v>
-      </c>
-      <c r="I116" s="8"/>
+      <c r="A116" s="3"/>
+      <c r="I116" s="10"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B117" s="3"/>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6"/>
-      <c r="G117" s="6"/>
-      <c r="H117" s="6"/>
-      <c r="I117" s="9"/>
-      <c r="J117" s="6"/>
+      <c r="A117" s="3"/>
+      <c r="I117" s="10"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I118" s="8"/>
+      <c r="A118" s="3"/>
+      <c r="I118" s="10"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B119" t="s">
-        <v>14</v>
-      </c>
-      <c r="I119" s="8"/>
+      <c r="A119" s="3"/>
+      <c r="I119" s="10"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B120" t="s">
-        <v>15</v>
-      </c>
-      <c r="I120" s="8"/>
+      <c r="A120" s="3"/>
+      <c r="I120" s="10"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B121" s="3"/>
-      <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
-      <c r="F121" s="6"/>
-      <c r="G121" s="6"/>
-      <c r="H121" s="6"/>
-      <c r="I121" s="9"/>
-      <c r="J121" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I121" s="10"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B122" s="1" t="s">
+      <c r="A122" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B122" s="6"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="7"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B123" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I122" s="8"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B123" t="s">
+      <c r="I123" s="10"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I123" s="8"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B124" t="s">
-        <v>15</v>
-      </c>
-      <c r="I124" s="8"/>
+      <c r="I124" s="10"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I125" s="10"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B126" s="6"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="12"/>
+      <c r="J126" s="7"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I127" s="10"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I128" s="10"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I129" s="10"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B125" s="3"/>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
-      <c r="F125" s="6"/>
-      <c r="G125" s="6"/>
-      <c r="H125" s="6"/>
-      <c r="I125" s="9"/>
-      <c r="J125" s="6"/>
-    </row>
-    <row r="126" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+      <c r="B130" s="6"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="7"/>
+    </row>
+    <row r="131" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B131" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C131" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E126" s="11" t="s">
+      <c r="D131" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E131" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="I126" s="8"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+      <c r="I131" s="10"/>
+    </row>
+    <row r="132" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B132" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C132" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E127" s="11" t="s">
+      <c r="D132" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E132" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="I127" s="8"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+      <c r="I132" s="10"/>
+    </row>
+    <row r="133" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B133" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C133" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E128" s="11" t="s">
+      <c r="D133" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E133" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="I128" s="8"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+      <c r="I133" s="10"/>
+    </row>
+    <row r="134" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B134" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C134" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E129" s="11" t="s">
+      <c r="D134" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E134" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="I129" s="8"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+      <c r="I134" s="10"/>
+    </row>
+    <row r="135" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B135" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C135" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E130" s="11" t="s">
+      <c r="D135" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E135" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="I130" s="8"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+      <c r="I135" s="10"/>
+    </row>
+    <row r="136" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B136" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C136" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E131" s="11" t="s">
+      <c r="D136" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E136" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="I131" s="8"/>
-    </row>
-    <row r="132" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+      <c r="I136" s="10"/>
+    </row>
+    <row r="137" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B137" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C137" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E132" s="2" t="s">
+      <c r="D137" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="I132" s="8"/>
-    </row>
-    <row r="133" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+      <c r="I137" s="10"/>
+    </row>
+    <row r="138" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B138" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C138" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E133" s="11" t="s">
+      <c r="D138" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E138" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="I133" s="8"/>
-    </row>
-    <row r="134" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+      <c r="I138" s="10"/>
+    </row>
+    <row r="139" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B139" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C139" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I139" s="10"/>
+    </row>
+    <row r="140" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="I140" s="10"/>
+    </row>
+    <row r="141" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I141" s="10"/>
+    </row>
+    <row r="142" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I142" s="10"/>
+    </row>
+    <row r="143" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C143" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="D143" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="I134" s="8"/>
-    </row>
-    <row r="135" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B135" s="1" t="s">
+      <c r="I143" s="10"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B144" s="6"/>
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="7"/>
+      <c r="G144" s="7"/>
+      <c r="H144" s="7"/>
+      <c r="I144" s="12"/>
+      <c r="J144" s="7"/>
+    </row>
+    <row r="145" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="I145" s="10"/>
+    </row>
+    <row r="146" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="I146" s="10"/>
+    </row>
+    <row r="147" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="I147" s="10"/>
+    </row>
+    <row r="148" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="I148" s="10"/>
+    </row>
+    <row r="149" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="I149" s="10"/>
+    </row>
+    <row r="150" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="I150" s="10"/>
+    </row>
+    <row r="151" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I151" s="10"/>
+    </row>
+    <row r="152" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="I152" s="10"/>
+    </row>
+    <row r="153" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I153" s="10"/>
+    </row>
+    <row r="154" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B154" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C154" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="D154" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="I135" s="8"/>
-    </row>
-    <row r="136" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B136" s="1" t="s">
+      <c r="I154" s="10"/>
+    </row>
+    <row r="155" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B155" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C155" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="D155" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="I136" s="8"/>
-    </row>
-    <row r="137" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B137" s="1" t="s">
+      <c r="I155" s="10"/>
+    </row>
+    <row r="156" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B156" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C156" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E137" s="2" t="s">
+      <c r="D156" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="I137" s="8"/>
-    </row>
-    <row r="138" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B138" s="1" t="s">
+      <c r="I156" s="10"/>
+    </row>
+    <row r="157" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B157" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="I138" s="8"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B139" s="3"/>
-      <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
-      <c r="F139" s="6"/>
-      <c r="G139" s="6"/>
-      <c r="H139" s="6"/>
-      <c r="I139" s="9"/>
-      <c r="J139" s="6"/>
-    </row>
-    <row r="140" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B140" s="1" t="s">
+      <c r="C157" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="I157" s="10"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B158" s="6"/>
+      <c r="C158" s="7"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="7"/>
+      <c r="F158" s="7"/>
+      <c r="G158" s="7"/>
+      <c r="H158" s="7"/>
+      <c r="I158" s="12"/>
+      <c r="J158" s="7"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B159" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E140" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="I140" s="8"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B141" s="1" t="s">
+      <c r="I159" s="10"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B160" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E141" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="I141" s="8"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E142" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="I142" s="8"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E143" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="I143" s="8"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E144" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="I144" s="8"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E145" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="I145" s="8"/>
-    </row>
-    <row r="146" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="I146" s="8"/>
-    </row>
-    <row r="147" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E147" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="I147" s="8"/>
-    </row>
-    <row r="148" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="I148" s="8"/>
-    </row>
-    <row r="149" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="I149" s="8"/>
-    </row>
-    <row r="150" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="I150" s="8"/>
-    </row>
-    <row r="151" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="I151" s="8"/>
-    </row>
-    <row r="152" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="I152" s="8"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B153" s="3"/>
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
-      <c r="E153" s="6"/>
-      <c r="F153" s="6"/>
-      <c r="G153" s="6"/>
-      <c r="H153" s="6"/>
-      <c r="I153" s="9"/>
-      <c r="J153" s="6"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I154" s="8"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B155" t="s">
-        <v>14</v>
-      </c>
-      <c r="I155" s="8"/>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B156" t="s">
-        <v>15</v>
-      </c>
-      <c r="I156" s="8"/>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B157" s="3"/>
-      <c r="C157" s="6"/>
-      <c r="D157" s="6"/>
-      <c r="E157" s="6"/>
-      <c r="F157" s="6"/>
-      <c r="G157" s="6"/>
-      <c r="H157" s="6"/>
-      <c r="I157" s="9"/>
-      <c r="J157" s="6"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I158" s="8"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B159" t="s">
-        <v>14</v>
-      </c>
-      <c r="I159" s="8"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B160" t="s">
-        <v>15</v>
-      </c>
-      <c r="I160" s="8"/>
+      <c r="I160" s="10"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I161" s="10"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B162" s="6"/>
+      <c r="C162" s="7"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="7"/>
+      <c r="F162" s="7"/>
+      <c r="G162" s="7"/>
+      <c r="H162" s="7"/>
+      <c r="I162" s="12"/>
+      <c r="J162" s="7"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I163" s="10"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I164" s="10"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I165" s="10"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B161" s="3"/>
-      <c r="C161" s="6"/>
-      <c r="D161" s="6"/>
-      <c r="E161" s="6"/>
-      <c r="F161" s="6"/>
-      <c r="G161" s="6"/>
-      <c r="H161" s="6"/>
-      <c r="I161" s="9"/>
-      <c r="J161" s="6"/>
-    </row>
-    <row r="162" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
+      <c r="B166" s="6"/>
+      <c r="C166" s="7"/>
+      <c r="D166" s="7"/>
+      <c r="E166" s="7"/>
+      <c r="F166" s="7"/>
+      <c r="G166" s="7"/>
+      <c r="H166" s="7"/>
+      <c r="I166" s="12"/>
+      <c r="J166" s="7"/>
+    </row>
+    <row r="167" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B167" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C167" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E162" s="11" t="s">
+      <c r="D167" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E167" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I162" s="8"/>
-    </row>
-    <row r="163" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
+      <c r="I167" s="10"/>
+    </row>
+    <row r="168" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B168" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C168" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E163" s="11" t="s">
+      <c r="D168" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E168" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="I163" s="8"/>
-    </row>
-    <row r="164" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
+      <c r="I168" s="10"/>
+    </row>
+    <row r="169" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B169" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C169" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E164" s="11" t="s">
+      <c r="D169" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E169" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="I164" s="8"/>
-    </row>
-    <row r="165" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
+      <c r="I169" s="10"/>
+    </row>
+    <row r="170" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B170" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C170" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E165" s="11" t="s">
+      <c r="D170" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E170" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="I165" s="8"/>
-    </row>
-    <row r="166" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
+      <c r="I170" s="10"/>
+    </row>
+    <row r="171" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B171" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C171" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E166" s="11" t="s">
+      <c r="D171" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E171" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="I166" s="8"/>
-    </row>
-    <row r="167" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
+      <c r="I171" s="10"/>
+    </row>
+    <row r="172" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B172" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C172" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E167" s="11" t="s">
+      <c r="D172" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E172" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="I167" s="8"/>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="3" t="s">
+      <c r="I172" s="10"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B168" s="3"/>
-      <c r="C168" s="6"/>
-      <c r="D168" s="6"/>
-      <c r="E168" s="6"/>
-      <c r="F168" s="6"/>
-      <c r="G168" s="6"/>
-      <c r="H168" s="6"/>
-      <c r="I168" s="9"/>
-      <c r="J168" s="6"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="B173" s="6"/>
+      <c r="C173" s="7"/>
+      <c r="D173" s="7"/>
+      <c r="E173" s="7"/>
+      <c r="F173" s="7"/>
+      <c r="G173" s="7"/>
+      <c r="H173" s="7"/>
+      <c r="I173" s="12"/>
+      <c r="J173" s="7"/>
+    </row>
+    <row r="174" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A174" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B174" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C174" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E169" s="2" t="s">
+      <c r="D174" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B179" s="6"/>
+      <c r="C179" s="7"/>
+      <c r="D179" s="7"/>
+      <c r="E179" s="7"/>
+      <c r="F179" s="7"/>
+      <c r="G179" s="7"/>
+      <c r="H179" s="7"/>
+      <c r="I179" s="12"/>
+      <c r="J179" s="7"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B185" s="6"/>
+      <c r="C185" s="7"/>
+      <c r="D185" s="7"/>
+      <c r="E185" s="7"/>
+      <c r="F185" s="7"/>
+      <c r="G185" s="7"/>
+      <c r="H185" s="7"/>
+      <c r="I185" s="12"/>
+      <c r="J185" s="7"/>
+    </row>
+    <row r="186" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A187" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E187" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>72</v>
-      </c>
-      <c r="B170" t="s">
+    <row r="188" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A188" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A189" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A190" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A192" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B193" s="6"/>
+      <c r="C193" s="7"/>
+      <c r="D193" s="7"/>
+      <c r="E193" s="7"/>
+      <c r="F193" s="7"/>
+      <c r="G193" s="7"/>
+      <c r="H193" s="7"/>
+      <c r="I193" s="12"/>
+      <c r="J193" s="7"/>
+    </row>
+    <row r="194" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A194" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A195" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B195" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>72</v>
-      </c>
-      <c r="B171" t="s">
+      <c r="C195" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B196" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>72</v>
-      </c>
-      <c r="B172" s="1" t="s">
+      <c r="C196" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B197" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>72</v>
-      </c>
-      <c r="B173" t="s">
+      <c r="C197" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B198" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B174" s="3"/>
-      <c r="C174" s="6"/>
-      <c r="D174" s="6"/>
-      <c r="E174" s="6"/>
-      <c r="F174" s="6"/>
-      <c r="G174" s="6"/>
-      <c r="H174" s="6"/>
-      <c r="I174" s="9"/>
-      <c r="J174" s="6"/>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>74</v>
-      </c>
-      <c r="B175" s="1" t="s">
+      <c r="C198" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A200" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B201" s="6"/>
+      <c r="C201" s="7"/>
+      <c r="D201" s="7"/>
+      <c r="E201" s="7"/>
+      <c r="F201" s="7"/>
+      <c r="G201" s="7"/>
+      <c r="H201" s="7"/>
+      <c r="I201" s="12"/>
+      <c r="J201" s="7"/>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B202" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>74</v>
-      </c>
-      <c r="B176" t="s">
+      <c r="C202" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B203" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>74</v>
-      </c>
-      <c r="B177" t="s">
+      <c r="C203" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B204" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>74</v>
-      </c>
-      <c r="B178" s="1" t="s">
+      <c r="C204" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B205" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>74</v>
-      </c>
-      <c r="B179" t="s">
+      <c r="C205" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A206" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B206" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A180" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B180" s="3"/>
-      <c r="C180" s="6"/>
-      <c r="D180" s="6"/>
-      <c r="E180" s="6"/>
-      <c r="F180" s="6"/>
-      <c r="G180" s="6"/>
-      <c r="H180" s="6"/>
-      <c r="I180" s="9"/>
-      <c r="J180" s="6"/>
-    </row>
-    <row r="181" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>161</v>
-      </c>
-      <c r="B181" s="1" t="s">
+      <c r="C206" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A207" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A208" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A209" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A210" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A213" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A214" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="B215" s="6"/>
+      <c r="C215" s="7"/>
+      <c r="D215" s="7"/>
+      <c r="E215" s="7"/>
+      <c r="F215" s="7"/>
+      <c r="G215" s="7"/>
+      <c r="H215" s="7"/>
+      <c r="I215" s="12"/>
+      <c r="J215" s="7"/>
+    </row>
+    <row r="216" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A216" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B216" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>161</v>
-      </c>
-      <c r="B182" t="s">
+      <c r="C216" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A217" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B217" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>161</v>
-      </c>
-      <c r="B183" t="s">
+      <c r="C217" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A218" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B218" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>161</v>
-      </c>
-      <c r="B184" s="1" t="s">
+      <c r="C218" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A219" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B219" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>161</v>
-      </c>
-      <c r="B185" s="1" t="s">
+      <c r="C219" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="B220" s="6"/>
+      <c r="C220" s="7"/>
+      <c r="D220" s="7"/>
+      <c r="E220" s="7"/>
+      <c r="F220" s="7"/>
+      <c r="G220" s="7"/>
+      <c r="H220" s="7"/>
+      <c r="I220" s="12"/>
+      <c r="J220" s="7"/>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A222" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A223" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A224" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A225" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B225" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>161</v>
-      </c>
-      <c r="B186" t="s">
+      <c r="C225" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A226" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B226" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>161</v>
-      </c>
-      <c r="B187" t="s">
+      <c r="C226" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A227" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B227" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A188" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B188" s="3"/>
-      <c r="C188" s="6"/>
-      <c r="D188" s="6"/>
-      <c r="E188" s="6"/>
-      <c r="F188" s="6"/>
-      <c r="G188" s="6"/>
-      <c r="H188" s="6"/>
-      <c r="I188" s="9"/>
-      <c r="J188" s="6"/>
-    </row>
-    <row r="189" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>162</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>162</v>
-      </c>
-      <c r="B190" t="s">
-        <v>14</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>162</v>
-      </c>
-      <c r="B191" t="s">
-        <v>15</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>162</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>162</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>162</v>
-      </c>
-      <c r="B194" t="s">
-        <v>63</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>162</v>
-      </c>
-      <c r="B195" t="s">
-        <v>64</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A196" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B196" s="3"/>
-      <c r="C196" s="6"/>
-      <c r="D196" s="6"/>
-      <c r="E196" s="6"/>
-      <c r="F196" s="6"/>
-      <c r="G196" s="6"/>
-      <c r="H196" s="6"/>
-      <c r="I196" s="9"/>
-      <c r="J196" s="6"/>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>167</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>167</v>
-      </c>
-      <c r="B198" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>167</v>
-      </c>
-      <c r="B199" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>167</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>167</v>
-      </c>
-      <c r="B201" t="s">
-        <v>62</v>
+      <c r="C227" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -8068,10 +10704,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8381,6 +11017,28 @@
         <v>185</v>
       </c>
     </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>411</v>
+      </c>
+      <c r="B31" t="s">
+        <v>412</v>
+      </c>
+      <c r="C31" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B32" t="s">
+        <v>413</v>
+      </c>
+      <c r="C32" t="s">
+        <v>426</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/test/test-cases template-v1.1.xlsx
+++ b/docs/test/test-cases template-v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PA\Year 3\Software Engineering\Lab\E-commerce\E-commerce_Web_Application\docs\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E0BB20-9F9D-43E5-AF83-2099FEAFF638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9013465E-C368-4F0C-A710-0DE91CD469E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="469">
   <si>
     <t>ID</t>
   </si>
@@ -137,9 +137,6 @@
     <t>Function 11: Add a product to cart</t>
   </si>
   <si>
-    <t>Function 12: Payment</t>
-  </si>
-  <si>
     <t>Function 13: Add new product</t>
   </si>
   <si>
@@ -182,9 +179,6 @@
     <t>UC7</t>
   </si>
   <si>
-    <t>UC12</t>
-  </si>
-  <si>
     <t>UC13</t>
   </si>
   <si>
@@ -342,9 +336,6 @@
     <t>View cart</t>
   </si>
   <si>
-    <t>Payment</t>
-  </si>
-  <si>
     <t>Add product to cart</t>
   </si>
   <si>
@@ -403,9 +394,6 @@
   </si>
   <si>
     <t>Add the viewing product to cart</t>
-  </si>
-  <si>
-    <t>Select the method of payment (cash or credit)</t>
   </si>
   <si>
     <t>Admin add a new product to shop</t>
@@ -6451,6 +6439,509 @@
       </rPr>
       <t>" button</t>
     </r>
+  </si>
+  <si>
+    <t>UI14</t>
+  </si>
+  <si>
+    <t>UI15</t>
+  </si>
+  <si>
+    <t>UI16</t>
+  </si>
+  <si>
+    <t>UI17</t>
+  </si>
+  <si>
+    <t>UI18</t>
+  </si>
+  <si>
+    <t>UI19</t>
+  </si>
+  <si>
+    <t>UI20</t>
+  </si>
+  <si>
+    <t>Blank product name</t>
+  </si>
+  <si>
+    <t>Blank stock</t>
+  </si>
+  <si>
+    <t>Blank price</t>
+  </si>
+  <si>
+    <t>Blank category</t>
+  </si>
+  <si>
+    <t>Blank description</t>
+  </si>
+  <si>
+    <t>Product name contain special character</t>
+  </si>
+  <si>
+    <t>Blank big image path</t>
+  </si>
+  <si>
+    <t>Blank small image path</t>
+  </si>
+  <si>
+    <t>Invalid big image file extension</t>
+  </si>
+  <si>
+    <t>Invalid small image file extension</t>
+  </si>
+  <si>
+    <t>Product category not exist</t>
+  </si>
+  <si>
+    <t>New valid product</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter product name: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Enter product stock: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+3. Enter product price: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+4. Enter product category: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+5. Enter product description: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+6. Browse product big image path: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+7. Browse product small image path: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+8. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add product</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <t>Search by blank id</t>
+  </si>
+  <si>
+    <t>Search by non existing id</t>
+  </si>
+  <si>
+    <t>Search by id contain special character</t>
+  </si>
+  <si>
+    <t>Search by valid id</t>
+  </si>
+  <si>
+    <t>Edit product</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter id: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Delete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button
+2. Confirm</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Add new product to store
+2. Notify that operation is success</t>
+  </si>
+  <si>
+    <t>1. Display product data</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter product name: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Enter product stock: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+3. Enter product price: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+4. Enter product category: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+5. Enter product description: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+6. Browse product big image path: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+7. Browse product small image path: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+8. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Edit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Edit product data
+2. Notify that operation is success</t>
+  </si>
+  <si>
+    <t>1. Delete product from store
+2. Notify that operation is success</t>
   </si>
 </sst>
 </file>
@@ -6534,7 +7025,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6570,17 +7061,14 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -6612,6 +7100,12 @@
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -6631,25 +7125,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:J75" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:J75" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Function/Feature ID" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Case ID" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test case name" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Test step" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Expected Result (ER)" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Actual Result" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Status" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Tester" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Tested Date" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Remark" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Function/Feature ID" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Case ID" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test case name" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Test step" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Expected Result (ER)" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Actual Result" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Status" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Tester" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Tested Date" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Remark" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A5:D32" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A5:D31" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Feature Name"/>
@@ -6947,22 +7441,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J227"/>
+  <dimension ref="A1:J252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124"/>
+    <sheetView tabSelected="1" topLeftCell="A150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F153" sqref="F153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="4"/>
-    <col min="3" max="3" width="29.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="40" style="2" customWidth="1"/>
-    <col min="5" max="5" width="57.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="2"/>
-    <col min="8" max="9" width="13.7109375" style="2" customWidth="1"/>
+    <col min="5" max="6" width="57.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" style="2" customWidth="1"/>
     <col min="11" max="16384" width="8.85546875" style="4"/>
   </cols>
@@ -7020,14 +7514,14 @@
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I3" s="9"/>
     </row>
@@ -7038,11 +7532,11 @@
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
@@ -7056,11 +7550,11 @@
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>65</v>
+      <c r="C5" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -7075,10 +7569,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
@@ -7090,13 +7584,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
@@ -7108,13 +7602,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
@@ -7126,13 +7620,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
@@ -7164,10 +7658,10 @@
         <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I11" s="9"/>
     </row>
@@ -7182,7 +7676,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>19</v>
@@ -7197,10 +7691,10 @@
         <v>15</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>19</v>
@@ -7215,10 +7709,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>19</v>
@@ -7230,13 +7724,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>19</v>
@@ -7248,13 +7742,13 @@
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>19</v>
@@ -7266,13 +7760,13 @@
         <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>19</v>
@@ -7295,217 +7789,217 @@
     </row>
     <row r="19" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I25" s="10"/>
     </row>
     <row r="26" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I26" s="10"/>
     </row>
     <row r="27" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I27" s="10"/>
     </row>
     <row r="28" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I28" s="10"/>
     </row>
     <row r="29" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I29" s="10"/>
     </row>
     <row r="30" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I30" s="10"/>
     </row>
@@ -7525,215 +8019,215 @@
     </row>
     <row r="32" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I33" s="10"/>
     </row>
     <row r="34" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I35" s="10"/>
     </row>
     <row r="36" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I36" s="10"/>
     </row>
     <row r="37" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I37" s="10"/>
     </row>
     <row r="38" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I38" s="10"/>
     </row>
     <row r="39" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I39" s="10"/>
     </row>
     <row r="40" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I40" s="10"/>
     </row>
     <row r="41" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I41" s="10"/>
     </row>
     <row r="42" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I42" s="10"/>
     </row>
     <row r="43" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I43" s="10"/>
     </row>
@@ -7753,217 +8247,217 @@
     </row>
     <row r="45" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I45" s="10"/>
     </row>
     <row r="46" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I46" s="10"/>
     </row>
     <row r="47" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I47" s="10"/>
     </row>
     <row r="48" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I48" s="10"/>
     </row>
     <row r="49" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I49" s="10"/>
     </row>
     <row r="50" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I50" s="10"/>
     </row>
     <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I51" s="10"/>
     </row>
     <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I52" s="10"/>
     </row>
     <row r="53" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I53" s="10"/>
     </row>
     <row r="54" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I54" s="10"/>
     </row>
     <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I55" s="10"/>
     </row>
     <row r="56" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I56" s="10"/>
     </row>
@@ -7983,109 +8477,109 @@
     </row>
     <row r="58" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I58" s="10"/>
     </row>
     <row r="59" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I59" s="10"/>
     </row>
     <row r="60" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I60" s="10"/>
     </row>
     <row r="61" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I61" s="10"/>
     </row>
     <row r="62" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I62" s="10"/>
     </row>
     <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I63" s="10"/>
     </row>
@@ -8105,181 +8599,211 @@
     </row>
     <row r="65" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="I65" s="10"/>
     </row>
     <row r="66" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="I66" s="10"/>
     </row>
     <row r="67" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="I67" s="10"/>
     </row>
     <row r="68" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>319</v>
+      <c r="F68" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="I68" s="10"/>
     </row>
     <row r="69" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="I69" s="10"/>
     </row>
     <row r="70" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="I70" s="10"/>
     </row>
     <row r="71" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>318</v>
+      <c r="F71" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="I71" s="10"/>
     </row>
     <row r="72" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="I72" s="10"/>
     </row>
     <row r="73" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="I73" s="10"/>
     </row>
     <row r="74" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>320</v>
+      <c r="F74" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="I74" s="10"/>
     </row>
@@ -8299,217 +8823,217 @@
     </row>
     <row r="76" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I76" s="10"/>
     </row>
     <row r="77" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="I77" s="10"/>
     </row>
     <row r="78" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I78" s="10"/>
     </row>
     <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I79" s="10"/>
     </row>
     <row r="80" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I80" s="10"/>
     </row>
     <row r="81" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I81" s="10"/>
     </row>
     <row r="82" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I82" s="10"/>
     </row>
     <row r="83" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I83" s="10"/>
     </row>
     <row r="84" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I84" s="10"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="I85" s="10"/>
     </row>
     <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I86" s="10"/>
     </row>
     <row r="87" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I87" s="10"/>
     </row>
@@ -8529,163 +9053,163 @@
     </row>
     <row r="89" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I89" s="10"/>
     </row>
     <row r="90" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I90" s="10"/>
     </row>
     <row r="91" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I91" s="10"/>
     </row>
     <row r="92" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I92" s="10"/>
     </row>
     <row r="93" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I93" s="10"/>
     </row>
     <row r="94" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I94" s="10"/>
     </row>
     <row r="95" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I95" s="10"/>
     </row>
     <row r="96" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I96" s="10"/>
     </row>
     <row r="97" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I97" s="10"/>
     </row>
@@ -8705,91 +9229,91 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I99" s="10"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I100" s="10"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I101" s="10"/>
     </row>
     <row r="102" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I102" s="10"/>
     </row>
     <row r="103" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I103" s="10"/>
     </row>
@@ -8809,109 +9333,109 @@
     </row>
     <row r="105" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I105" s="10"/>
     </row>
     <row r="106" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I106" s="10"/>
     </row>
     <row r="107" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I107" s="10"/>
     </row>
     <row r="108" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I108" s="10"/>
     </row>
     <row r="109" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="I109" s="10"/>
     </row>
     <row r="110" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I110" s="10"/>
     </row>
@@ -8929,1767 +9453,2384 @@
       <c r="I111" s="12"/>
       <c r="J111" s="7"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I112" s="10"/>
+    </row>
+    <row r="113" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I113" s="10"/>
+    </row>
+    <row r="114" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I114" s="10"/>
+    </row>
+    <row r="115" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I115" s="10"/>
+    </row>
+    <row r="116" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I116" s="10"/>
+    </row>
+    <row r="117" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I117" s="10"/>
+    </row>
+    <row r="118" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I118" s="10"/>
+    </row>
+    <row r="119" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I119" s="10"/>
+    </row>
+    <row r="120" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I120" s="10"/>
+    </row>
+    <row r="121" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I121" s="10"/>
+    </row>
+    <row r="122" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I122" s="10"/>
+    </row>
+    <row r="123" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I123" s="10"/>
+    </row>
+    <row r="124" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I124" s="10"/>
+    </row>
+    <row r="125" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I125" s="10"/>
+    </row>
+    <row r="126" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I126" s="10"/>
+    </row>
+    <row r="127" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="I127" s="10"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B128" s="6"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="12"/>
+      <c r="J128" s="7"/>
+    </row>
+    <row r="129" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I112" s="10"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B113" s="6"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
-      <c r="I113" s="12"/>
-      <c r="J113" s="7"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B114" s="3" t="s">
+      <c r="B129" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I114" s="10"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B115" s="4" t="s">
+      <c r="C129" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I129" s="10"/>
+    </row>
+    <row r="130" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I115" s="10"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
-      <c r="I116" s="10"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
-      <c r="I117" s="10"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
-      <c r="I118" s="10"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-      <c r="I119" s="10"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-      <c r="I120" s="10"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B121" s="4" t="s">
+      <c r="C130" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I130" s="10"/>
+    </row>
+    <row r="131" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B131" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I121" s="10"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B122" s="6"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="7"/>
-      <c r="G122" s="7"/>
-      <c r="H122" s="7"/>
-      <c r="I122" s="12"/>
-      <c r="J122" s="7"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I123" s="10"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I124" s="10"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I125" s="10"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B126" s="6"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
-      <c r="G126" s="7"/>
-      <c r="H126" s="7"/>
-      <c r="I126" s="12"/>
-      <c r="J126" s="7"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I127" s="10"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I128" s="10"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I129" s="10"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B130" s="6"/>
-      <c r="C130" s="7"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="7"/>
-      <c r="G130" s="7"/>
-      <c r="H130" s="7"/>
-      <c r="I130" s="12"/>
-      <c r="J130" s="7"/>
-    </row>
-    <row r="131" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="C131" s="2" t="s">
-        <v>156</v>
+        <v>459</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>367</v>
+        <v>462</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I131" s="10"/>
     </row>
-    <row r="132" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>14</v>
+        <v>50</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>201</v>
+        <v>460</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>244</v>
+        <v>462</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>465</v>
       </c>
       <c r="I132" s="10"/>
     </row>
-    <row r="133" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>157</v>
+        <v>444</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>367</v>
+        <v>466</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I133" s="10"/>
     </row>
-    <row r="134" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>18</v>
+        <v>50</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>202</v>
+        <v>445</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>367</v>
+        <v>466</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I134" s="10"/>
     </row>
-    <row r="135" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>158</v>
+        <v>446</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>367</v>
+        <v>466</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I135" s="10"/>
     </row>
-    <row r="136" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>189</v>
+        <v>447</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>367</v>
+        <v>466</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I136" s="10"/>
     </row>
-    <row r="137" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>159</v>
+        <v>448</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>290</v>
+        <v>466</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>240</v>
       </c>
       <c r="I137" s="10"/>
     </row>
-    <row r="138" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>175</v>
+        <v>50</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>450</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>367</v>
+        <v>466</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I138" s="10"/>
     </row>
-    <row r="139" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>160</v>
+        <v>192</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>451</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>290</v>
+        <v>466</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>240</v>
       </c>
       <c r="I139" s="10"/>
     </row>
-    <row r="140" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>150</v>
+        <v>50</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>180</v>
+        <v>449</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>287</v>
+        <v>466</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>240</v>
       </c>
       <c r="I140" s="10"/>
     </row>
-    <row r="141" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>181</v>
+        <v>449</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>288</v>
+        <v>466</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>240</v>
       </c>
       <c r="I141" s="10"/>
     </row>
-    <row r="142" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>197</v>
+        <v>437</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>182</v>
+        <v>449</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>289</v>
+        <v>466</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>240</v>
       </c>
       <c r="I142" s="10"/>
     </row>
-    <row r="143" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>203</v>
+        <v>50</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>438</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>179</v>
+        <v>449</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>286</v>
+        <v>466</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>240</v>
       </c>
       <c r="I143" s="10"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B144" s="6"/>
-      <c r="C144" s="7"/>
-      <c r="D144" s="7"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="7"/>
-      <c r="G144" s="7"/>
-      <c r="H144" s="7"/>
-      <c r="I144" s="12"/>
-      <c r="J144" s="7"/>
-    </row>
-    <row r="145" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I144" s="10"/>
+    </row>
+    <row r="145" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B145" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I145" s="10"/>
+    </row>
+    <row r="146" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I146" s="10"/>
+    </row>
+    <row r="147" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I147" s="10"/>
+    </row>
+    <row r="148" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="I148" s="10"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B149" s="6"/>
+      <c r="C149" s="7"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="7"/>
+      <c r="G149" s="7"/>
+      <c r="H149" s="7"/>
+      <c r="I149" s="12"/>
+      <c r="J149" s="7"/>
+    </row>
+    <row r="150" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B150" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="I145" s="10"/>
-    </row>
-    <row r="146" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A146" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B146" s="3" t="s">
+      <c r="C150" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I150" s="10"/>
+    </row>
+    <row r="151" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B151" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="E146" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="I146" s="10"/>
-    </row>
-    <row r="147" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B147" s="3" t="s">
+      <c r="C151" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I151" s="10"/>
+    </row>
+    <row r="152" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B152" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="E147" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="I147" s="10"/>
-    </row>
-    <row r="148" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B148" s="3" t="s">
+      <c r="C152" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I152" s="10"/>
+    </row>
+    <row r="153" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B153" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="E148" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="I148" s="10"/>
-    </row>
-    <row r="149" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A149" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="I149" s="10"/>
-    </row>
-    <row r="150" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="I150" s="10"/>
-    </row>
-    <row r="151" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A151" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="I151" s="10"/>
-    </row>
-    <row r="152" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="E152" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="I152" s="10"/>
-    </row>
-    <row r="153" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A153" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="C153" s="2" t="s">
-        <v>160</v>
+        <v>460</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>367</v>
+        <v>462</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>290</v>
+        <v>465</v>
       </c>
       <c r="I153" s="10"/>
     </row>
     <row r="154" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>368</v>
+        <v>463</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>287</v>
+        <v>468</v>
       </c>
       <c r="I154" s="10"/>
     </row>
-    <row r="155" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A155" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="I155" s="10"/>
-    </row>
-    <row r="156" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B155" s="6"/>
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
+      <c r="H155" s="7"/>
+      <c r="I155" s="12"/>
+      <c r="J155" s="7"/>
+    </row>
+    <row r="156" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B156" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I156" s="10"/>
+    </row>
+    <row r="157" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="I156" s="10"/>
-    </row>
-    <row r="157" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="D157" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="E157" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I157" s="10"/>
+    </row>
+    <row r="158" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I158" s="10"/>
+    </row>
+    <row r="159" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I159" s="10"/>
+    </row>
+    <row r="160" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I160" s="10"/>
+    </row>
+    <row r="161" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I161" s="10"/>
+    </row>
+    <row r="162" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="I157" s="10"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B158" s="6"/>
-      <c r="C158" s="7"/>
-      <c r="D158" s="7"/>
-      <c r="E158" s="7"/>
-      <c r="F158" s="7"/>
-      <c r="G158" s="7"/>
-      <c r="H158" s="7"/>
-      <c r="I158" s="12"/>
-      <c r="J158" s="7"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I159" s="10"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I160" s="10"/>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I161" s="10"/>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B162" s="6"/>
-      <c r="C162" s="7"/>
-      <c r="D162" s="7"/>
-      <c r="E162" s="7"/>
-      <c r="F162" s="7"/>
-      <c r="G162" s="7"/>
-      <c r="H162" s="7"/>
-      <c r="I162" s="12"/>
-      <c r="J162" s="7"/>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I162" s="10"/>
+    </row>
+    <row r="163" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>13</v>
+        <v>144</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>240</v>
       </c>
       <c r="I163" s="10"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>14</v>
+        <v>52</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="I164" s="10"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>15</v>
+        <v>52</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="I165" s="10"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B166" s="6"/>
-      <c r="C166" s="7"/>
-      <c r="D166" s="7"/>
-      <c r="E166" s="7"/>
-      <c r="F166" s="7"/>
-      <c r="G166" s="7"/>
-      <c r="H166" s="7"/>
-      <c r="I166" s="12"/>
-      <c r="J166" s="7"/>
+    <row r="166" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="I166" s="10"/>
     </row>
     <row r="167" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>13</v>
+        <v>193</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E167" s="5" t="s">
-        <v>252</v>
+        <v>366</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="I167" s="10"/>
     </row>
     <row r="168" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B168" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="I168" s="10"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B169" s="6"/>
+      <c r="C169" s="7"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="7"/>
+      <c r="F169" s="7"/>
+      <c r="G169" s="7"/>
+      <c r="H169" s="7"/>
+      <c r="I169" s="12"/>
+      <c r="J169" s="7"/>
+    </row>
+    <row r="170" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I170" s="10"/>
+    </row>
+    <row r="171" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B171" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="E168" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="I168" s="10"/>
-    </row>
-    <row r="169" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A169" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B169" s="3" t="s">
+      <c r="C171" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I171" s="10"/>
+    </row>
+    <row r="172" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B172" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="E169" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I169" s="10"/>
-    </row>
-    <row r="170" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A170" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="E170" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="I170" s="10"/>
-    </row>
-    <row r="171" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A171" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="E171" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="I171" s="10"/>
-    </row>
-    <row r="172" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A172" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>153</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>323</v>
+        <v>240</v>
       </c>
       <c r="I172" s="10"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B173" s="6"/>
-      <c r="C173" s="7"/>
-      <c r="D173" s="7"/>
-      <c r="E173" s="7"/>
-      <c r="F173" s="7"/>
-      <c r="G173" s="7"/>
-      <c r="H173" s="7"/>
-      <c r="I173" s="12"/>
-      <c r="J173" s="7"/>
-    </row>
-    <row r="174" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
-        <v>72</v>
+    <row r="173" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I173" s="10"/>
+    </row>
+    <row r="174" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A175" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>14</v>
+        <v>363</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I174" s="10"/>
+    </row>
+    <row r="175" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E175" s="2" t="s">
+      <c r="E175" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I175" s="10"/>
+    </row>
+    <row r="176" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="I176" s="10"/>
+    </row>
+    <row r="177" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I177" s="10"/>
+    </row>
+    <row r="178" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="I178" s="10"/>
+    </row>
+    <row r="179" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I179" s="10"/>
+    </row>
+    <row r="180" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="I180" s="10"/>
+    </row>
+    <row r="181" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="I181" s="10"/>
+    </row>
+    <row r="182" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="I182" s="10"/>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B183" s="6"/>
+      <c r="C183" s="7"/>
+      <c r="D183" s="7"/>
+      <c r="E183" s="7"/>
+      <c r="F183" s="7"/>
+      <c r="G183" s="7"/>
+      <c r="H183" s="7"/>
+      <c r="I183" s="12"/>
+      <c r="J183" s="7"/>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I184" s="10"/>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I185" s="10"/>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I186" s="10"/>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B187" s="6"/>
+      <c r="C187" s="7"/>
+      <c r="D187" s="7"/>
+      <c r="E187" s="7"/>
+      <c r="F187" s="7"/>
+      <c r="G187" s="7"/>
+      <c r="H187" s="7"/>
+      <c r="I187" s="12"/>
+      <c r="J187" s="7"/>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I188" s="10"/>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I189" s="10"/>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I190" s="10"/>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A191" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B191" s="6"/>
+      <c r="C191" s="7"/>
+      <c r="D191" s="7"/>
+      <c r="E191" s="7"/>
+      <c r="F191" s="7"/>
+      <c r="G191" s="7"/>
+      <c r="H191" s="7"/>
+      <c r="I191" s="12"/>
+      <c r="J191" s="7"/>
+    </row>
+    <row r="192" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I192" s="10"/>
+    </row>
+    <row r="193" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="I193" s="10"/>
+    </row>
+    <row r="194" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="I194" s="10"/>
+    </row>
+    <row r="195" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="I195" s="10"/>
+    </row>
+    <row r="196" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="I196" s="10"/>
+    </row>
+    <row r="197" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="I197" s="10"/>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B198" s="6"/>
+      <c r="C198" s="7"/>
+      <c r="D198" s="7"/>
+      <c r="E198" s="7"/>
+      <c r="F198" s="7"/>
+      <c r="G198" s="7"/>
+      <c r="H198" s="7"/>
+      <c r="I198" s="12"/>
+      <c r="J198" s="7"/>
+    </row>
+    <row r="199" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A200" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A201" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A202" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D202" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A176" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A177" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A179" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B179" s="6"/>
-      <c r="C179" s="7"/>
-      <c r="D179" s="7"/>
-      <c r="E179" s="7"/>
-      <c r="F179" s="7"/>
-      <c r="G179" s="7"/>
-      <c r="H179" s="7"/>
-      <c r="I179" s="12"/>
-      <c r="J179" s="7"/>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A180" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A181" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D181" s="2" t="s">
+      <c r="E202" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="E181" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A182" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A183" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A184" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A185" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B185" s="6"/>
-      <c r="C185" s="7"/>
-      <c r="D185" s="7"/>
-      <c r="E185" s="7"/>
-      <c r="F185" s="7"/>
-      <c r="G185" s="7"/>
-      <c r="H185" s="7"/>
-      <c r="I185" s="12"/>
-      <c r="J185" s="7"/>
-    </row>
-    <row r="186" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A186" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A187" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A188" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A189" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A190" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A191" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B191" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A192" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B192" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A193" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B193" s="6"/>
-      <c r="C193" s="7"/>
-      <c r="D193" s="7"/>
-      <c r="E193" s="7"/>
-      <c r="F193" s="7"/>
-      <c r="G193" s="7"/>
-      <c r="H193" s="7"/>
-      <c r="I193" s="12"/>
-      <c r="J193" s="7"/>
-    </row>
-    <row r="194" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A194" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A195" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B195" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A196" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A197" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A198" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A199" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A200" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A201" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="B201" s="6"/>
-      <c r="C201" s="7"/>
-      <c r="D201" s="7"/>
-      <c r="E201" s="7"/>
-      <c r="F201" s="7"/>
-      <c r="G201" s="7"/>
-      <c r="H201" s="7"/>
-      <c r="I201" s="12"/>
-      <c r="J201" s="7"/>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A202" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>167</v>
+        <v>70</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>374</v>
+        <v>166</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>401</v>
+        <v>357</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A204" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B204" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>402</v>
-      </c>
+      <c r="A204" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B204" s="6"/>
+      <c r="C204" s="7"/>
+      <c r="D204" s="7"/>
+      <c r="E204" s="7"/>
+      <c r="F204" s="7"/>
+      <c r="G204" s="7"/>
+      <c r="H204" s="7"/>
+      <c r="I204" s="12"/>
+      <c r="J204" s="7"/>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>167</v>
+        <v>72</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>377</v>
+        <v>118</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>395</v>
+        <v>352</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>403</v>
+        <v>320</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>167</v>
+        <v>72</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>378</v>
+        <v>119</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>396</v>
+        <v>353</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>404</v>
+        <v>320</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>167</v>
+        <v>72</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>379</v>
+        <v>120</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>397</v>
+        <v>354</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>405</v>
+        <v>320</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B208" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>384</v>
+        <v>121</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>393</v>
+        <v>320</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A210" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B210" s="6"/>
+      <c r="C210" s="7"/>
+      <c r="D210" s="7"/>
+      <c r="E210" s="7"/>
+      <c r="F210" s="7"/>
+      <c r="G210" s="7"/>
+      <c r="H210" s="7"/>
+      <c r="I210" s="12"/>
+      <c r="J210" s="7"/>
+    </row>
+    <row r="211" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A211" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C211" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B209" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A210" s="4" t="s">
+      <c r="D211" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A213" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A214" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A215" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A216" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A217" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B218" s="6"/>
+      <c r="C218" s="7"/>
+      <c r="D218" s="7"/>
+      <c r="E218" s="7"/>
+      <c r="F218" s="7"/>
+      <c r="G218" s="7"/>
+      <c r="H218" s="7"/>
+      <c r="I218" s="12"/>
+      <c r="J218" s="7"/>
+    </row>
+    <row r="219" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A219" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C219" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B210" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A211" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B211" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A212" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A213" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B213" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A214" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A215" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="B215" s="6"/>
-      <c r="C215" s="7"/>
-      <c r="D215" s="7"/>
-      <c r="E215" s="7"/>
-      <c r="F215" s="7"/>
-      <c r="G215" s="7"/>
-      <c r="H215" s="7"/>
-      <c r="I215" s="12"/>
-      <c r="J215" s="7"/>
-    </row>
-    <row r="216" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A216" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="B216" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A217" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="B217" s="4" t="s">
+      <c r="D219" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A220" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B220" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C217" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A218" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="B218" s="4" t="s">
+      <c r="C220" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A221" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B221" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A219" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="B219" s="4" t="s">
+      <c r="C221" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A222" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B222" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C219" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A220" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="B220" s="6"/>
-      <c r="C220" s="7"/>
-      <c r="D220" s="7"/>
-      <c r="E220" s="7"/>
-      <c r="F220" s="7"/>
-      <c r="G220" s="7"/>
-      <c r="H220" s="7"/>
-      <c r="I220" s="12"/>
-      <c r="J220" s="7"/>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A221" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="B221" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A222" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="B222" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="C222" s="2" t="s">
-        <v>429</v>
+        <v>195</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>439</v>
+        <v>369</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="B223" s="4" t="s">
-        <v>15</v>
+        <v>158</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>430</v>
+        <v>164</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>440</v>
+        <v>369</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>414</v>
+        <v>158</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>431</v>
+        <v>172</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>440</v>
+        <v>369</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>414</v>
+        <v>158</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C225" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A226" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B226" s="6"/>
+      <c r="C226" s="7"/>
+      <c r="D226" s="7"/>
+      <c r="E226" s="7"/>
+      <c r="F226" s="7"/>
+      <c r="G226" s="7"/>
+      <c r="H226" s="7"/>
+      <c r="I226" s="12"/>
+      <c r="J226" s="7"/>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A227" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A228" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A230" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A231" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A232" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A233" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A234" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A235" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A236" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A237" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A238" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A239" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A240" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B240" s="6"/>
+      <c r="C240" s="7"/>
+      <c r="D240" s="7"/>
+      <c r="E240" s="7"/>
+      <c r="F240" s="7"/>
+      <c r="G240" s="7"/>
+      <c r="H240" s="7"/>
+      <c r="I240" s="12"/>
+      <c r="J240" s="7"/>
+    </row>
+    <row r="241" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A241" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A242" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A243" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A244" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A245" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="B245" s="6"/>
+      <c r="C245" s="7"/>
+      <c r="D245" s="7"/>
+      <c r="E245" s="7"/>
+      <c r="F245" s="7"/>
+      <c r="G245" s="7"/>
+      <c r="H245" s="7"/>
+      <c r="I245" s="12"/>
+      <c r="J245" s="7"/>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A246" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A247" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E247" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="D225" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A226" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="B226" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C226" s="2" t="s">
+    </row>
+    <row r="248" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A248" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A249" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A250" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A251" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A252" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E252" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A227" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="B227" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -10704,10 +11845,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10720,12 +11861,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -10750,7 +11891,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -10758,208 +11899,208 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -10967,76 +12108,65 @@
         <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>163</v>
       </c>
-      <c r="C28" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="B29" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="C29" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>167</v>
+        <v>407</v>
       </c>
       <c r="B30" t="s">
-        <v>204</v>
+        <v>408</v>
       </c>
       <c r="C30" t="s">
-        <v>185</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>411</v>
+      <c r="A31" s="1" t="s">
+        <v>410</v>
       </c>
       <c r="B31" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C31" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B32" t="s">
-        <v>413</v>
-      </c>
-      <c r="C32" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>

--- a/docs/test/test-cases template-v1.1.xlsx
+++ b/docs/test/test-cases template-v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PA\Year 3\Software Engineering\Lab\E-commerce\E-commerce_Web_Application\docs\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9013465E-C368-4F0C-A710-0DE91CD469E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16012C84-032C-40CA-8B30-CDD05A7BCAC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="482">
   <si>
     <t>ID</t>
   </si>
@@ -6942,6 +6942,48 @@
   <si>
     <t>1. Delete product from store
 2. Notify that operation is success</t>
+  </si>
+  <si>
+    <t>1. Amount increase by 2</t>
+  </si>
+  <si>
+    <t>1. Amount decrease by 2</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>1. Show all product</t>
+  </si>
+  <si>
+    <t>1. Proceed to browse product page
+2. Display products with matching name</t>
+  </si>
+  <si>
+    <t>1. Proceed to browse product page
+2. Display products with brand name</t>
+  </si>
+  <si>
+    <t>1. Proceed to browse product page
+2. Display products with category name</t>
+  </si>
+  <si>
+    <t>Passable</t>
+  </si>
+  <si>
+    <t>Mai Đăng Khánh</t>
+  </si>
+  <si>
+    <t>20/12/2020</t>
+  </si>
+  <si>
+    <t>21/12/2020</t>
+  </si>
+  <si>
+    <t>Can only search by product name</t>
+  </si>
+  <si>
+    <t>If empty query, select all product</t>
   </si>
 </sst>
 </file>
@@ -6951,7 +6993,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6980,8 +7022,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6991,6 +7047,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7022,10 +7089,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7064,8 +7132,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
@@ -7443,8 +7524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F153" sqref="F153"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7457,7 +7538,7 @@
     <col min="7" max="7" width="8.5703125" style="2" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="2" customWidth="1"/>
     <col min="11" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
@@ -7523,7 +7604,18 @@
       <c r="E3" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="F3" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -7541,7 +7633,18 @@
       <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="9"/>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -7559,7 +7662,18 @@
       <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="10"/>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -7577,7 +7691,18 @@
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="10"/>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -7595,7 +7720,18 @@
       <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -7613,7 +7749,18 @@
       <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="9"/>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -7631,7 +7778,18 @@
       <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="10"/>
+      <c r="F9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -7663,7 +7821,18 @@
       <c r="E11" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="I11" s="9"/>
+      <c r="F11" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -7681,7 +7850,18 @@
       <c r="E12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="9"/>
+      <c r="F12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -7699,7 +7879,18 @@
       <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="10"/>
+      <c r="F13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -7717,7 +7908,18 @@
       <c r="E14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="10"/>
+      <c r="F14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -7735,7 +7937,18 @@
       <c r="E15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="10"/>
+      <c r="F15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -7753,7 +7966,18 @@
       <c r="E16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="9"/>
+      <c r="F16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -7771,7 +7995,18 @@
       <c r="E17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="10"/>
+      <c r="F17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
@@ -7803,7 +8038,18 @@
       <c r="E19" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="I19" s="10"/>
+      <c r="F19" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="20" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -7821,7 +8067,18 @@
       <c r="E20" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="I20" s="10"/>
+      <c r="F20" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="21" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -7839,7 +8096,18 @@
       <c r="E21" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="I21" s="10"/>
+      <c r="F21" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="22" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -7857,7 +8125,18 @@
       <c r="E22" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="I22" s="10"/>
+      <c r="F22" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="23" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -7875,7 +8154,18 @@
       <c r="E23" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="I23" s="10"/>
+      <c r="F23" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="24" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -7893,7 +8183,18 @@
       <c r="E24" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="I24" s="10"/>
+      <c r="F24" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="25" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -7911,7 +8212,18 @@
       <c r="E25" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="I25" s="10"/>
+      <c r="F25" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
@@ -7929,7 +8241,18 @@
       <c r="E26" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="I26" s="10"/>
+      <c r="F26" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -7947,7 +8270,18 @@
       <c r="E27" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="I27" s="10"/>
+      <c r="F27" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="28" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
@@ -7965,7 +8299,18 @@
       <c r="E28" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="I28" s="10"/>
+      <c r="F28" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="29" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -7983,7 +8328,18 @@
       <c r="E29" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="I29" s="10"/>
+      <c r="F29" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="30" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
@@ -8001,7 +8357,18 @@
       <c r="E30" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="I30" s="10"/>
+      <c r="F30" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
@@ -8033,7 +8400,18 @@
       <c r="E32" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="I32" s="10"/>
+      <c r="F32" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="33" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
@@ -8051,7 +8429,18 @@
       <c r="E33" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="I33" s="10"/>
+      <c r="F33" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="34" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
@@ -8069,7 +8458,18 @@
       <c r="E34" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="I34" s="10"/>
+      <c r="F34" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="35" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
@@ -8087,7 +8487,18 @@
       <c r="E35" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="I35" s="10"/>
+      <c r="F35" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="36" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
@@ -8105,7 +8516,18 @@
       <c r="E36" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="I36" s="10"/>
+      <c r="F36" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="37" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
@@ -8123,7 +8545,18 @@
       <c r="E37" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="I37" s="10"/>
+      <c r="F37" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="38" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
@@ -8141,7 +8574,18 @@
       <c r="E38" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="I38" s="10"/>
+      <c r="F38" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="39" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
@@ -8159,7 +8603,18 @@
       <c r="E39" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="I39" s="10"/>
+      <c r="F39" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="40" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
@@ -8177,7 +8632,18 @@
       <c r="E40" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="I40" s="10"/>
+      <c r="F40" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="41" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -8195,7 +8661,18 @@
       <c r="E41" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="I41" s="10"/>
+      <c r="F41" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="42" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
@@ -8211,7 +8688,18 @@
       <c r="E42" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="I42" s="10"/>
+      <c r="F42" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="43" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
@@ -8229,7 +8717,18 @@
       <c r="E43" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="I43" s="10"/>
+      <c r="F43" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
@@ -8475,7 +8974,7 @@
       <c r="I57" s="12"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>43</v>
       </c>
@@ -8489,11 +8988,25 @@
         <v>299</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="I58" s="10"/>
-    </row>
-    <row r="59" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>43</v>
       </c>
@@ -8507,11 +9020,25 @@
         <v>300</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="I59" s="10"/>
-    </row>
-    <row r="60" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>43</v>
       </c>
@@ -8525,11 +9052,25 @@
         <v>301</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="I60" s="10"/>
-    </row>
-    <row r="61" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>43</v>
       </c>
@@ -8545,9 +9086,23 @@
       <c r="E61" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="I61" s="10"/>
-    </row>
-    <row r="62" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="F61" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>43</v>
       </c>
@@ -8563,9 +9118,23 @@
       <c r="E62" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="I62" s="10"/>
-    </row>
-    <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="F62" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>43</v>
       </c>
@@ -8581,7 +9150,21 @@
       <c r="E63" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="I63" s="10"/>
+      <c r="F63" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
@@ -8616,7 +9199,15 @@
       <c r="F65" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="I65" s="10"/>
+      <c r="G65" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="66" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
@@ -8637,7 +9228,15 @@
       <c r="F66" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="I66" s="10"/>
+      <c r="G66" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="67" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
@@ -8658,7 +9257,15 @@
       <c r="F67" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="I67" s="10"/>
+      <c r="G67" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="68" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
@@ -8679,7 +9286,15 @@
       <c r="F68" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="I68" s="10"/>
+      <c r="G68" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="69" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
@@ -8700,7 +9315,15 @@
       <c r="F69" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="I69" s="10"/>
+      <c r="G69" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="70" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
@@ -8721,7 +9344,15 @@
       <c r="F70" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="I70" s="10"/>
+      <c r="G70" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="71" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
@@ -8742,7 +9373,15 @@
       <c r="F71" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="I71" s="10"/>
+      <c r="G71" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="72" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
@@ -8763,7 +9402,15 @@
       <c r="F72" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="I72" s="10"/>
+      <c r="G72" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="73" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
@@ -8784,7 +9431,15 @@
       <c r="F73" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="I73" s="10"/>
+      <c r="G73" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="74" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
@@ -8805,7 +9460,15 @@
       <c r="F74" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="I74" s="10"/>
+      <c r="G74" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
@@ -8837,7 +9500,18 @@
       <c r="E76" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="I76" s="10"/>
+      <c r="F76" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G76" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="I76" s="17" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="77" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
@@ -8855,7 +9529,18 @@
       <c r="E77" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="I77" s="10"/>
+      <c r="F77" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G77" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="I77" s="17" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="78" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
@@ -8873,7 +9558,18 @@
       <c r="E78" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="I78" s="10"/>
+      <c r="F78" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G78" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="I78" s="17" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
@@ -8891,7 +9587,18 @@
       <c r="E79" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="I79" s="10"/>
+      <c r="F79" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G79" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="I79" s="17" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="80" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
@@ -8909,6 +9616,7 @@
       <c r="E80" s="5" t="s">
         <v>241</v>
       </c>
+      <c r="F80" s="5"/>
       <c r="I80" s="10"/>
     </row>
     <row r="81" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -8927,6 +9635,7 @@
       <c r="E81" s="5" t="s">
         <v>240</v>
       </c>
+      <c r="F81" s="5"/>
       <c r="I81" s="10"/>
     </row>
     <row r="82" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -8945,6 +9654,7 @@
       <c r="E82" s="5" t="s">
         <v>242</v>
       </c>
+      <c r="F82" s="5"/>
       <c r="I82" s="10"/>
     </row>
     <row r="83" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -8963,6 +9673,7 @@
       <c r="E83" s="5" t="s">
         <v>242</v>
       </c>
+      <c r="F83" s="5"/>
       <c r="I83" s="10"/>
     </row>
     <row r="84" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -8981,6 +9692,7 @@
       <c r="E84" s="5" t="s">
         <v>240</v>
       </c>
+      <c r="F84" s="5"/>
       <c r="I84" s="10"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -8999,7 +9711,18 @@
       <c r="E85" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="I85" s="10"/>
+      <c r="F85" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G85" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="I85" s="17" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
@@ -9017,7 +9740,18 @@
       <c r="E86" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="I86" s="10"/>
+      <c r="F86" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G86" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="I86" s="17" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="87" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
@@ -9035,7 +9769,18 @@
       <c r="E87" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="I87" s="10"/>
+      <c r="F87" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G87" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="I87" s="17" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
@@ -9067,7 +9812,18 @@
       <c r="E89" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="I89" s="10"/>
+      <c r="F89" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G89" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="I89" s="17" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="90" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
@@ -9085,7 +9841,18 @@
       <c r="E90" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="I90" s="10"/>
+      <c r="F90" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G90" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="I90" s="17" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="91" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
@@ -9103,7 +9870,18 @@
       <c r="E91" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="I91" s="10"/>
+      <c r="F91" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="G91" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="I91" s="17" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="92" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
@@ -9121,7 +9899,18 @@
       <c r="E92" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="I92" s="10"/>
+      <c r="F92" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G92" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="I92" s="17" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="93" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
@@ -9139,7 +9928,18 @@
       <c r="E93" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="I93" s="10"/>
+      <c r="F93" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G93" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="I93" s="17" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="94" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
@@ -9157,7 +9957,18 @@
       <c r="E94" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="I94" s="10"/>
+      <c r="F94" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G94" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="I94" s="17" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="95" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
@@ -9175,7 +9986,18 @@
       <c r="E95" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="I95" s="10"/>
+      <c r="F95" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G95" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="I95" s="17" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="96" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
@@ -9193,7 +10015,18 @@
       <c r="E96" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="I96" s="10"/>
+      <c r="F96" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G96" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="I96" s="17" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="97" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
@@ -9211,7 +10044,18 @@
       <c r="E97" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="I97" s="10"/>
+      <c r="F97" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G97" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="I97" s="17" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
@@ -9243,7 +10087,18 @@
       <c r="E99" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="I99" s="10"/>
+      <c r="F99" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G99" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="I99" s="17" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
@@ -9261,7 +10116,18 @@
       <c r="E100" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="I100" s="10"/>
+      <c r="F100" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G100" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="I100" s="17" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
@@ -9279,7 +10145,18 @@
       <c r="E101" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="I101" s="10"/>
+      <c r="F101" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G101" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="I101" s="17" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="102" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
@@ -9297,7 +10174,18 @@
       <c r="E102" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="I102" s="10"/>
+      <c r="F102" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G102" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="I102" s="17" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="103" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
@@ -9315,7 +10203,18 @@
       <c r="E103" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="I103" s="10"/>
+      <c r="F103" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G103" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="I103" s="17" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
@@ -9347,7 +10246,18 @@
       <c r="E105" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="I105" s="10"/>
+      <c r="F105" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G105" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="I105" s="17" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="106" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
@@ -9365,7 +10275,18 @@
       <c r="E106" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="I106" s="10"/>
+      <c r="F106" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="G106" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="I106" s="17" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="107" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
@@ -9383,7 +10304,18 @@
       <c r="E107" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="I107" s="10"/>
+      <c r="F107" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G107" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="I107" s="17" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="108" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
@@ -9401,7 +10333,18 @@
       <c r="E108" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="I108" s="10"/>
+      <c r="F108" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G108" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="I108" s="17" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="109" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
@@ -9419,7 +10362,18 @@
       <c r="E109" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="I109" s="10"/>
+      <c r="F109" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G109" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="I109" s="17" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="110" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
@@ -9437,7 +10391,18 @@
       <c r="E110" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="I110" s="10"/>
+      <c r="F110" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G110" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="I110" s="17" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">

--- a/docs/test/test-cases template-v1.1.xlsx
+++ b/docs/test/test-cases template-v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PA\Year 3\Software Engineering\Lab\E-commerce\E-commerce_Web_Application\docs\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0D53DA5-1B49-455C-A40C-C8CE6EC10429}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF87BBD-6F9E-4501-97C2-5AF523B9F2AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="514">
   <si>
     <t>Function/Feature ID</t>
   </si>
@@ -968,136 +968,6 @@
     <t>Register with invalid email format</t>
   </si>
   <si>
-    <r>
-      <t>1. Enter email: "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>example2gmail.com</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"
-2. Enter username: "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>example</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"
-3. Enter fullname: "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>example</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" 
-4. Enter password: "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>example</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"
-5. Confirm password: "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>example</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"
-6. Click "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Register</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" button</t>
-    </r>
-  </si>
-  <si>
     <t>1. Unauthenticated
 2. An error notice will  be displayed</t>
   </si>
@@ -1105,533 +975,13 @@
     <t>Register with username containing special character</t>
   </si>
   <si>
-    <r>
-      <t>1. Enter email: "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>example@gmail.com</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"
-2. Enter username: "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>example;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"
-3. Enter fullname: "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>example</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" 
-4. Enter password: "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>example</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"
-5. Confirm password: "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>example</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"
-6. Click "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Register</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" button</t>
-    </r>
-  </si>
-  <si>
     <t>Register with unmatched passwords</t>
   </si>
   <si>
-    <r>
-      <t>1. Enter email: "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>example@gmail.com</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"
-2. Enter username: "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>example</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"
-3. Enter fullname: "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>example</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" 
-4. Enter password: "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>example1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"
-5. Confirm password: "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>example2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"
-6. Click "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Register</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" button</t>
-    </r>
-  </si>
-  <si>
     <t>Register with password containing special character</t>
   </si>
   <si>
-    <r>
-      <t>1. Enter email: "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>example@gmail.com</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"
-2. Enter username: "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>example</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"
-3. Enter fullname: "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>example</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" 
-4. Enter password: "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>example;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"
-5. Confirm password: "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>example;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"
-6. Click "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Register</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" button</t>
-    </r>
-  </si>
-  <si>
     <t>Register with fullname containing special character</t>
-  </si>
-  <si>
-    <r>
-      <t>1. Enter email: "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>example@gmail.com</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"
-2. Enter username: "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>example</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"
-3. Enter fullname: "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>example;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" 
-4. Enter password: "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>example</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"
-5. Confirm password: "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>example</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"
-6. Click "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Register</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" button</t>
-    </r>
   </si>
   <si>
     <t>Register with blank username</t>
@@ -3174,9 +2524,6 @@
     <t>UC06</t>
   </si>
   <si>
-    <t>Enter a product name</t>
-  </si>
-  <si>
     <r>
       <t>1. Enter "</t>
     </r>
@@ -3227,12 +2574,6 @@
 2. Display products with matching name</t>
   </si>
   <si>
-    <t>Can only search by product name</t>
-  </si>
-  <si>
-    <t>Enter a brand name</t>
-  </si>
-  <si>
     <r>
       <t>1. Enter "</t>
     </r>
@@ -3286,9 +2627,6 @@
     <t>Passable</t>
   </si>
   <si>
-    <t>Enter a category name</t>
-  </si>
-  <si>
     <r>
       <t>1. Enter "</t>
     </r>
@@ -3339,9 +2677,6 @@
 2. Display products with category name</t>
   </si>
   <si>
-    <t>Enter a number</t>
-  </si>
-  <si>
     <r>
       <t>1. Enter "</t>
     </r>
@@ -3390,9 +2725,6 @@
   <si>
     <t>1. Proceed to browse product page
 2. Display products with matching name, brand name or category name</t>
-  </si>
-  <si>
-    <t>Enter special character</t>
   </si>
   <si>
     <r>
@@ -8897,6 +8229,954 @@
       </rPr>
       <t>" button</t>
     </r>
+  </si>
+  <si>
+    <t>1. Unauthenticated
+2. A user name can not be blank notice will  be displayed</t>
+  </si>
+  <si>
+    <t>1. Unauthenticated
+2. A password can not be blank notice will  be displayed</t>
+  </si>
+  <si>
+    <t>1. Unauthenticated
+2. A user name can not contain special character notice will  be displayed</t>
+  </si>
+  <si>
+    <t>1. Unauthenticated
+2. A password can not contain special character notice will  be displayed</t>
+  </si>
+  <si>
+    <t>Search by product name</t>
+  </si>
+  <si>
+    <t>Search by brand name</t>
+  </si>
+  <si>
+    <t>Search by category name</t>
+  </si>
+  <si>
+    <t>Search by a number</t>
+  </si>
+  <si>
+    <t>Search by  special character</t>
+  </si>
+  <si>
+    <t>1. Proceed to browse product page
+2. Display products with matching name or brand name</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Search by price range</t>
+  </si>
+  <si>
+    <t>Search by exact price</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>90-10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Proceed to browse product page
+2. Display products with price equal to query</t>
+  </si>
+  <si>
+    <t>1. Proceed to browse product page
+2. Display products with price belong to query range</t>
+  </si>
+  <si>
+    <t>Can only search by product name, brand name</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter email: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example1@gmail.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Enter username: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+3. Enter fullname: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" 
+4. Enter password: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+5. Confirm password: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+6. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter email: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example2gmail.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Enter username: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+3. Enter fullname: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" 
+4. Enter password: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+5. Confirm password: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+6. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter email: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example3@gmail.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Enter username: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example3;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+3. Enter fullname: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" 
+4. Enter password: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+5. Confirm password: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+6. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter email: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example4@gmail.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Enter username: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+3. Enter fullname: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" 
+4. Enter password: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+5. Confirm password: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+6. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter email: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example@gmail.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Enter username: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+3. Enter fullname: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" 
+4. Enter password: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+5. Confirm password: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+6. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter email: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example5@gmail.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Enter username: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+3. Enter fullname: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" 
+4. Enter password: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+5. Confirm password: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+6. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <t>21/12/2021</t>
+  </si>
+  <si>
+    <t>21/12/2022</t>
+  </si>
+  <si>
+    <t>1. Display coupon not exist</t>
+  </si>
+  <si>
+    <t>21/12/2019</t>
+  </si>
+  <si>
+    <t>21/12/2023</t>
+  </si>
+  <si>
+    <t>21/12/2024</t>
+  </si>
+  <si>
+    <t>1. Amount set to 1</t>
   </si>
 </sst>
 </file>
@@ -8906,7 +9186,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8962,8 +9242,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8985,6 +9272,11 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -9015,11 +9307,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -9094,8 +9387,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -9156,7 +9456,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:J75" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:J77" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Function/Feature ID" dataDxfId="9"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Case ID" dataDxfId="8"/>
@@ -9472,10 +9772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J252"/>
+  <dimension ref="A1:J254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9639,10 +9939,10 @@
         <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>483</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>483</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>16</v>
@@ -9668,10 +9968,10 @@
         <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>484</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>22</v>
+        <v>484</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>16</v>
@@ -9697,13 +9997,13 @@
         <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>485</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>16</v>
+      <c r="G8" s="15" t="s">
+        <v>109</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>17</v>
@@ -9726,13 +10026,13 @@
         <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>486</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>16</v>
+      <c r="G9" s="15" t="s">
+        <v>109</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>17</v>
@@ -9856,10 +10156,10 @@
         <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>22</v>
+        <v>483</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>22</v>
+        <v>483</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>16</v>
@@ -9885,10 +10185,10 @@
         <v>42</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>22</v>
+        <v>484</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>22</v>
+        <v>484</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>16</v>
@@ -9914,13 +10214,13 @@
         <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>22</v>
+        <v>485</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="14" t="s">
-        <v>16</v>
+      <c r="G16" s="15" t="s">
+        <v>109</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>17</v>
@@ -9943,13 +10243,13 @@
         <v>44</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>22</v>
+        <v>486</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="14" t="s">
-        <v>16</v>
+      <c r="G17" s="15" t="s">
+        <v>109</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>17</v>
@@ -9983,7 +10283,7 @@
         <v>47</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>48</v>
+        <v>501</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>49</v>
@@ -10012,13 +10312,13 @@
         <v>50</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>16</v>
@@ -10038,19 +10338,19 @@
         <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>54</v>
+        <v>503</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>16</v>
+        <v>49</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>493</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>17</v>
@@ -10067,16 +10367,16 @@
         <v>26</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>56</v>
+        <v>504</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>16</v>
@@ -10096,10 +10396,10 @@
         <v>29</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>58</v>
+        <v>506</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>49</v>
@@ -10125,19 +10425,19 @@
         <v>32</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>60</v>
+        <v>505</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>16</v>
+        <v>49</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>493</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>17</v>
@@ -10154,16 +10454,16 @@
         <v>35</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>16</v>
@@ -10180,22 +10480,22 @@
         <v>46</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>16</v>
+        <v>49</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>493</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>17</v>
@@ -10209,19 +10509,19 @@
         <v>46</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>16</v>
@@ -10238,22 +10538,22 @@
         <v>46</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>16</v>
+        <v>49</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>493</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>17</v>
@@ -10267,19 +10567,19 @@
         <v>46</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>16</v>
@@ -10296,19 +10596,19 @@
         <v>46</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>16</v>
@@ -10322,7 +10622,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
@@ -10336,7 +10636,7 @@
     </row>
     <row r="32" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>12</v>
@@ -10345,7 +10645,7 @@
         <v>47</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>48</v>
+        <v>501</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>49</v>
@@ -10365,7 +10665,7 @@
     </row>
     <row r="33" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>19</v>
@@ -10374,13 +10674,13 @@
         <v>50</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F33" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G33" s="14" t="s">
         <v>16</v>
@@ -10394,25 +10694,25 @@
     </row>
     <row r="34" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>54</v>
+        <v>503</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>16</v>
+        <v>49</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>493</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>17</v>
@@ -10423,22 +10723,22 @@
     </row>
     <row r="35" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>56</v>
+        <v>504</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G35" s="14" t="s">
         <v>16</v>
@@ -10452,16 +10752,16 @@
     </row>
     <row r="36" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>58</v>
+        <v>506</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>49</v>
@@ -10481,25 +10781,25 @@
     </row>
     <row r="37" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>60</v>
+        <v>505</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>16</v>
+        <v>49</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>493</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>17</v>
@@ -10510,22 +10810,22 @@
     </row>
     <row r="38" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G38" s="14" t="s">
         <v>16</v>
@@ -10539,25 +10839,25 @@
     </row>
     <row r="39" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>16</v>
+        <v>49</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>493</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>17</v>
@@ -10568,22 +10868,22 @@
     </row>
     <row r="40" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G40" s="14" t="s">
         <v>16</v>
@@ -10597,25 +10897,25 @@
     </row>
     <row r="41" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>16</v>
+        <v>49</v>
+      </c>
+      <c r="G41" s="26" t="s">
+        <v>493</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>17</v>
@@ -10627,19 +10927,19 @@
     <row r="42" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G42" s="14" t="s">
         <v>16</v>
@@ -10653,22 +10953,22 @@
     </row>
     <row r="43" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G43" s="14" t="s">
         <v>16</v>
@@ -10682,7 +10982,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="7"/>
@@ -10696,223 +10996,223 @@
     </row>
     <row r="45" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I45" s="10"/>
     </row>
     <row r="46" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I46" s="10"/>
     </row>
     <row r="47" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I47" s="10"/>
     </row>
     <row r="48" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I48" s="10"/>
     </row>
     <row r="49" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I49" s="10"/>
     </row>
     <row r="50" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I50" s="10"/>
     </row>
     <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I51" s="10"/>
     </row>
     <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I52" s="10"/>
     </row>
     <row r="53" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I53" s="10"/>
     </row>
     <row r="54" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I54" s="10"/>
     </row>
     <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I55" s="10"/>
     </row>
     <row r="56" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I56" s="10"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="7"/>
@@ -10926,22 +11226,22 @@
     </row>
     <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>110</v>
+        <v>487</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G58" s="14" t="s">
         <v>16</v>
@@ -10952,31 +11252,28 @@
       <c r="I58" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>114</v>
+        <v>488</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>112</v>
+        <v>492</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>17</v>
@@ -10984,31 +11281,28 @@
       <c r="I59" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>118</v>
+        <v>489</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>117</v>
+        <v>106</v>
+      </c>
+      <c r="G60" s="26" t="s">
+        <v>493</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>17</v>
@@ -11017,30 +11311,30 @@
         <v>18</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>113</v>
+        <v>500</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>121</v>
+        <v>490</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>17</v>
@@ -11048,28 +11342,25 @@
       <c r="I61" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="62" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>124</v>
+        <v>491</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G62" s="14" t="s">
         <v>16</v>
@@ -11080,31 +11371,28 @@
       <c r="I62" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J62" s="2" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>126</v>
+        <v>495</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>128</v>
+        <v>496</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>498</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G63" s="15" t="s">
-        <v>117</v>
+        <v>106</v>
+      </c>
+      <c r="G63" s="26" t="s">
+        <v>493</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>17</v>
@@ -11113,99 +11401,105 @@
         <v>18</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="7"/>
-    </row>
-    <row r="65" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G64" s="26" t="s">
+        <v>493</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>135</v>
+        <v>116</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G65" s="14" t="s">
-        <v>16</v>
+        <v>118</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>109</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G66" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="7"/>
+    </row>
+    <row r="67" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>23</v>
+        <v>121</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="G67" s="14" t="s">
         <v>16</v>
@@ -11214,27 +11508,27 @@
         <v>17</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>26</v>
+        <v>121</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="G68" s="14" t="s">
         <v>16</v>
@@ -11243,27 +11537,27 @@
         <v>17</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="G69" s="14" t="s">
         <v>16</v>
@@ -11272,27 +11566,27 @@
         <v>17</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G70" s="14" t="s">
         <v>16</v>
@@ -11301,21 +11595,21 @@
         <v>17</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>35</v>
+        <v>121</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>135</v>
@@ -11330,27 +11624,27 @@
         <v>17</v>
       </c>
       <c r="I71" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="D72" s="2" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="G72" s="14" t="s">
         <v>16</v>
@@ -11359,27 +11653,27 @@
         <v>17</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>66</v>
+        <v>121</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="G73" s="14" t="s">
         <v>16</v>
@@ -11388,27 +11682,27 @@
         <v>17</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>69</v>
+        <v>121</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="G74" s="14" t="s">
         <v>16</v>
@@ -11417,99 +11711,99 @@
         <v>17</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B75" s="6"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="7"/>
-    </row>
-    <row r="76" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G75" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G76" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G76" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H76" s="5" t="s">
+      <c r="H76" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I76" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="G77" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H77" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I77" s="17" t="s">
-        <v>136</v>
-      </c>
+      <c r="I76" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B77" s="6"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="7"/>
     </row>
     <row r="78" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>23</v>
+        <v>147</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>166</v>
+        <v>149</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="G78" s="16" t="s">
         <v>16</v>
@@ -11518,27 +11812,27 @@
         <v>17</v>
       </c>
       <c r="I78" s="17" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>26</v>
+        <v>147</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="G79" s="16" t="s">
         <v>16</v>
@@ -11547,122 +11841,172 @@
         <v>17</v>
       </c>
       <c r="I79" s="17" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>29</v>
+        <v>147</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>95</v>
+        <v>154</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F80" s="5"/>
-      <c r="I80" s="10"/>
+        <v>155</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G80" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I80" s="17" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="81" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="F81" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G81" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G82" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I82" s="17" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C83" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="G83" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I83" s="17" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G84" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I84" s="17" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D85" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="E85" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E81" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F81" s="5"/>
-      <c r="I81" s="10"/>
-    </row>
-    <row r="82" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F82" s="5"/>
-      <c r="I82" s="10"/>
-    </row>
-    <row r="83" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F83" s="5"/>
-      <c r="I83" s="10"/>
-    </row>
-    <row r="84" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F84" s="5"/>
-      <c r="I84" s="10"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>172</v>
+      <c r="F85" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="G85" s="16" t="s">
         <v>16</v>
@@ -11671,56 +12015,56 @@
         <v>17</v>
       </c>
       <c r="I85" s="17" t="s">
-        <v>136</v>
+        <v>512</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>174</v>
+        <v>99</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G86" s="16" t="s">
-        <v>16</v>
+        <v>509</v>
+      </c>
+      <c r="G86" s="27" t="s">
+        <v>109</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I86" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="G87" s="16" t="s">
         <v>16</v>
@@ -11729,41 +12073,56 @@
         <v>17</v>
       </c>
       <c r="I87" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B88" s="6"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="7"/>
-    </row>
-    <row r="89" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G88" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I88" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>12</v>
+        <v>147</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>128</v>
+        <v>165</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="G89" s="16" t="s">
         <v>16</v>
@@ -11772,56 +12131,41 @@
         <v>17</v>
       </c>
       <c r="I89" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G90" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H90" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I90" s="17" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B90" s="6"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="7"/>
     </row>
     <row r="91" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>23</v>
+        <v>168</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>187</v>
+        <v>170</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="G91" s="16" t="s">
         <v>16</v>
@@ -11830,27 +12174,27 @@
         <v>17</v>
       </c>
       <c r="I91" s="17" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>26</v>
+        <v>168</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>191</v>
+        <v>172</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="G92" s="16" t="s">
         <v>16</v>
@@ -11859,27 +12203,27 @@
         <v>17</v>
       </c>
       <c r="I92" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>29</v>
+        <v>168</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>82</v>
+        <v>174</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="G93" s="16" t="s">
         <v>16</v>
@@ -11888,27 +12232,27 @@
         <v>17</v>
       </c>
       <c r="I93" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>82</v>
+      <c r="F94" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="G94" s="16" t="s">
         <v>16</v>
@@ -11917,27 +12261,27 @@
         <v>17</v>
       </c>
       <c r="I94" s="17" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>35</v>
+        <v>168</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G95" s="16" t="s">
         <v>16</v>
@@ -11946,27 +12290,27 @@
         <v>17</v>
       </c>
       <c r="I95" s="17" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>63</v>
+        <v>168</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G96" s="16" t="s">
         <v>16</v>
@@ -11975,27 +12319,27 @@
         <v>17</v>
       </c>
       <c r="I96" s="17" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>66</v>
+        <v>168</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G97" s="16" t="s">
         <v>16</v>
@@ -12004,99 +12348,99 @@
         <v>17</v>
       </c>
       <c r="I97" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B98" s="6"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="12"/>
-      <c r="J98" s="7"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G98" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I98" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G99" s="16" t="s">
-        <v>16</v>
+        <v>190</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="G99" s="27" t="s">
+        <v>109</v>
       </c>
       <c r="H99" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I99" s="17" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G100" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H100" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I100" s="17" t="s">
-        <v>136</v>
-      </c>
+      <c r="A100" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B100" s="6"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="7"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>23</v>
+        <v>192</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="G101" s="16" t="s">
         <v>16</v>
@@ -12105,27 +12449,27 @@
         <v>17</v>
       </c>
       <c r="I101" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="G102" s="16" t="s">
         <v>16</v>
@@ -12134,27 +12478,27 @@
         <v>17</v>
       </c>
       <c r="I102" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>29</v>
+        <v>192</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>82</v>
+        <v>199</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="G103" s="16" t="s">
         <v>16</v>
@@ -12163,99 +12507,99 @@
         <v>17</v>
       </c>
       <c r="I103" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B104" s="6"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="7"/>
-      <c r="I104" s="12"/>
-      <c r="J104" s="7"/>
-    </row>
-    <row r="105" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G104" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I104" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G105" s="16" t="s">
-        <v>16</v>
+        <v>204</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G105" s="27" t="s">
+        <v>109</v>
       </c>
       <c r="H105" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I105" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="G106" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H106" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I106" s="17" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B106" s="6"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="7"/>
     </row>
     <row r="107" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>23</v>
+        <v>206</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="G107" s="16" t="s">
         <v>16</v>
@@ -12264,27 +12608,27 @@
         <v>17</v>
       </c>
       <c r="I107" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="G108" s="16" t="s">
         <v>16</v>
@@ -12293,27 +12637,27 @@
         <v>17</v>
       </c>
       <c r="I108" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="G109" s="16" t="s">
         <v>16</v>
@@ -12322,27 +12666,27 @@
         <v>17</v>
       </c>
       <c r="I109" s="17" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="E110" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G110" s="16" t="s">
         <v>16</v>
@@ -12351,2405 +12695,2463 @@
         <v>17</v>
       </c>
       <c r="I110" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="B111" s="6"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
-      <c r="I111" s="12"/>
-      <c r="J111" s="7"/>
-    </row>
-    <row r="112" spans="1:10" s="25" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A112" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="B112" s="21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G111" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I111" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G112" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I112" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" s="6"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="7"/>
+    </row>
+    <row r="114" spans="1:10" s="25" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A114" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="B114" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C112" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="E112" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="F112" s="22"/>
-      <c r="G112" s="22"/>
-      <c r="H112" s="22"/>
-      <c r="I112" s="24"/>
-      <c r="J112" s="22"/>
-    </row>
-    <row r="113" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I113" s="10"/>
-    </row>
-    <row r="114" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>240</v>
+      <c r="C114" s="22" t="s">
+        <v>226</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I114" s="10"/>
+        <v>471</v>
+      </c>
+      <c r="E114" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F114" s="22"/>
+      <c r="G114" s="22"/>
+      <c r="H114" s="22"/>
+      <c r="I114" s="24"/>
+      <c r="J114" s="22"/>
     </row>
     <row r="115" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I115" s="10"/>
     </row>
     <row r="116" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B116" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I116" s="10"/>
+    </row>
+    <row r="117" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I117" s="10"/>
+    </row>
+    <row r="118" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B118" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I116" s="10"/>
-    </row>
-    <row r="117" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B117" s="4" t="s">
+      <c r="C118" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I118" s="10"/>
+    </row>
+    <row r="119" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C117" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I117" s="10"/>
-    </row>
-    <row r="118" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B118" s="3" t="s">
+      <c r="C119" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I119" s="10"/>
+    </row>
+    <row r="120" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B120" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C118" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I118" s="10"/>
-    </row>
-    <row r="119" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I119" s="10"/>
-    </row>
-    <row r="120" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>245</v>
+      <c r="C120" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I120" s="10"/>
     </row>
     <row r="121" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I121" s="10"/>
     </row>
     <row r="122" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I122" s="10"/>
     </row>
     <row r="123" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I123" s="10"/>
     </row>
     <row r="124" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A124" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="B124" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="C124" s="19" t="s">
-        <v>247</v>
+      <c r="A124" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>239</v>
+        <v>481</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I124" s="10"/>
     </row>
     <row r="125" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A125" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="B125" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="C125" s="19" t="s">
-        <v>249</v>
+      <c r="A125" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>239</v>
+        <v>482</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I125" s="10"/>
     </row>
     <row r="126" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A126" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B126" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="C126" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="B126" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="C126" s="19" t="s">
-        <v>251</v>
-      </c>
       <c r="D126" s="2" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I126" s="10"/>
     </row>
     <row r="127" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A127" s="18" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B127" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="C127" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I127" s="10"/>
+    </row>
+    <row r="128" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A128" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B128" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="C128" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I128" s="10"/>
+    </row>
+    <row r="129" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A129" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B129" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="C129" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I129" s="10"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B130" s="6"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="7"/>
+    </row>
+    <row r="131" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I131" s="10"/>
+    </row>
+    <row r="132" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I132" s="10"/>
+    </row>
+    <row r="133" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I133" s="10"/>
+    </row>
+    <row r="134" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I134" s="10"/>
+    </row>
+    <row r="135" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C127" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="I127" s="10"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="B128" s="6"/>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="7"/>
-      <c r="G128" s="7"/>
-      <c r="H128" s="7"/>
-      <c r="I128" s="12"/>
-      <c r="J128" s="7"/>
-    </row>
-    <row r="129" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I129" s="10"/>
-    </row>
-    <row r="130" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I130" s="10"/>
-    </row>
-    <row r="131" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I131" s="10"/>
-    </row>
-    <row r="132" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="I132" s="10"/>
-    </row>
-    <row r="133" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C133" s="2" t="s">
+      <c r="E135" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I135" s="10"/>
+    </row>
+    <row r="136" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I136" s="10"/>
+    </row>
+    <row r="137" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I137" s="10"/>
+    </row>
+    <row r="138" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I138" s="10"/>
+    </row>
+    <row r="139" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I139" s="10"/>
+    </row>
+    <row r="140" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I140" s="10"/>
+    </row>
+    <row r="141" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I141" s="10"/>
+    </row>
+    <row r="142" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I142" s="10"/>
+    </row>
+    <row r="143" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I143" s="10"/>
+    </row>
+    <row r="144" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B144" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D133" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I133" s="10"/>
-    </row>
-    <row r="134" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I134" s="10"/>
-    </row>
-    <row r="135" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I135" s="10"/>
-    </row>
-    <row r="136" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A136" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I136" s="10"/>
-    </row>
-    <row r="137" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I137" s="10"/>
-    </row>
-    <row r="138" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I138" s="10"/>
-    </row>
-    <row r="139" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I139" s="10"/>
-    </row>
-    <row r="140" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I140" s="10"/>
-    </row>
-    <row r="141" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E141" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I141" s="10"/>
-    </row>
-    <row r="142" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I142" s="10"/>
-    </row>
-    <row r="143" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I143" s="10"/>
-    </row>
-    <row r="144" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B144" s="3" t="s">
+      <c r="C144" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="E144" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I144" s="10"/>
     </row>
     <row r="145" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I145" s="10"/>
     </row>
     <row r="146" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I146" s="10"/>
     </row>
     <row r="147" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I147" s="10"/>
     </row>
     <row r="148" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I148" s="10"/>
+    </row>
+    <row r="149" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I149" s="10"/>
+    </row>
+    <row r="150" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B150" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="I148" s="10"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B149" s="6"/>
-      <c r="C149" s="7"/>
-      <c r="D149" s="7"/>
-      <c r="E149" s="7"/>
-      <c r="F149" s="7"/>
-      <c r="G149" s="7"/>
-      <c r="H149" s="7"/>
-      <c r="I149" s="12"/>
-      <c r="J149" s="7"/>
-    </row>
-    <row r="150" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>257</v>
       </c>
       <c r="D150" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E150" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="I150" s="10"/>
     </row>
-    <row r="151" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A151" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C151" s="2" t="s">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D151" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E151" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I151" s="10"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="7"/>
+      <c r="G151" s="7"/>
+      <c r="H151" s="7"/>
+      <c r="I151" s="12"/>
+      <c r="J151" s="7"/>
     </row>
     <row r="152" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I152" s="10"/>
     </row>
     <row r="153" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="I153" s="10"/>
     </row>
     <row r="154" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B154" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I154" s="10"/>
+    </row>
+    <row r="155" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I155" s="10"/>
+    </row>
+    <row r="156" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B156" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="I154" s="10"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="B155" s="6"/>
-      <c r="C155" s="7"/>
-      <c r="D155" s="7"/>
-      <c r="E155" s="7"/>
-      <c r="F155" s="7"/>
-      <c r="G155" s="7"/>
-      <c r="H155" s="7"/>
-      <c r="I155" s="12"/>
-      <c r="J155" s="7"/>
-    </row>
-    <row r="156" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="C156" s="2" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E156" s="5" t="s">
-        <v>82</v>
+        <v>262</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="I156" s="10"/>
     </row>
-    <row r="157" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E157" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I157" s="10"/>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B157" s="6"/>
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="7"/>
+      <c r="G157" s="7"/>
+      <c r="H157" s="7"/>
+      <c r="I157" s="12"/>
+      <c r="J157" s="7"/>
     </row>
     <row r="158" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I158" s="10"/>
     </row>
     <row r="159" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I159" s="10"/>
     </row>
     <row r="160" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I160" s="10"/>
     </row>
     <row r="161" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>85</v>
+        <v>270</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I161" s="10"/>
     </row>
     <row r="162" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>284</v>
+        <v>267</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="I162" s="10"/>
     </row>
     <row r="163" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>285</v>
+        <v>80</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I163" s="10"/>
     </row>
     <row r="164" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="I164" s="10"/>
     </row>
-    <row r="165" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>289</v>
+        <v>267</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="I165" s="10"/>
     </row>
-    <row r="166" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="I166" s="10"/>
     </row>
     <row r="167" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C167" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B167" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>293</v>
-      </c>
       <c r="D167" s="2" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="I167" s="10"/>
     </row>
     <row r="168" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>246</v>
+        <v>67</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="I168" s="10"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="B169" s="6"/>
-      <c r="C169" s="7"/>
-      <c r="D169" s="7"/>
-      <c r="E169" s="7"/>
-      <c r="F169" s="7"/>
-      <c r="G169" s="7"/>
-      <c r="H169" s="7"/>
-      <c r="I169" s="12"/>
-      <c r="J169" s="7"/>
-    </row>
-    <row r="170" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="I169" s="10"/>
+    </row>
+    <row r="170" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E170" s="5" t="s">
-        <v>82</v>
+        <v>286</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="I170" s="10"/>
     </row>
-    <row r="171" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A171" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E171" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I171" s="10"/>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B171" s="6"/>
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="7"/>
+      <c r="F171" s="7"/>
+      <c r="G171" s="7"/>
+      <c r="H171" s="7"/>
+      <c r="I171" s="12"/>
+      <c r="J171" s="7"/>
     </row>
     <row r="172" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="E172" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I172" s="10"/>
     </row>
     <row r="173" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I173" s="10"/>
     </row>
     <row r="174" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I174" s="10"/>
     </row>
     <row r="175" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>85</v>
+        <v>270</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I175" s="10"/>
     </row>
     <row r="176" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>284</v>
+        <v>267</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="I176" s="10"/>
     </row>
     <row r="177" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>285</v>
+        <v>80</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I177" s="10"/>
     </row>
     <row r="178" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="I178" s="10"/>
     </row>
-    <row r="179" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E179" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I179" s="10"/>
+    </row>
+    <row r="180" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="I179" s="10"/>
-    </row>
-    <row r="180" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A180" s="3" t="s">
-        <v>300</v>
-      </c>
       <c r="B180" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="I180" s="10"/>
     </row>
     <row r="181" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="I181" s="10"/>
     </row>
     <row r="182" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>246</v>
+        <v>67</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="I182" s="10"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A183" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="B183" s="6"/>
-      <c r="C183" s="7"/>
-      <c r="D183" s="7"/>
-      <c r="E183" s="7"/>
-      <c r="F183" s="7"/>
-      <c r="G183" s="7"/>
-      <c r="H183" s="7"/>
-      <c r="I183" s="12"/>
-      <c r="J183" s="7"/>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="I183" s="10"/>
+    </row>
+    <row r="184" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>12</v>
+        <v>235</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="I184" s="10"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A185" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I185" s="10"/>
+      <c r="A185" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B185" s="6"/>
+      <c r="C185" s="7"/>
+      <c r="D185" s="7"/>
+      <c r="E185" s="7"/>
+      <c r="F185" s="7"/>
+      <c r="G185" s="7"/>
+      <c r="H185" s="7"/>
+      <c r="I185" s="12"/>
+      <c r="J185" s="7"/>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>23</v>
+        <v>291</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="I186" s="10"/>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A187" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="B187" s="6"/>
-      <c r="C187" s="7"/>
-      <c r="D187" s="7"/>
-      <c r="E187" s="7"/>
-      <c r="F187" s="7"/>
-      <c r="G187" s="7"/>
-      <c r="H187" s="7"/>
-      <c r="I187" s="12"/>
-      <c r="J187" s="7"/>
+      <c r="A187" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I187" s="10"/>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>12</v>
+        <v>291</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="I188" s="10"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A189" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I189" s="10"/>
+      <c r="A189" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B189" s="6"/>
+      <c r="C189" s="7"/>
+      <c r="D189" s="7"/>
+      <c r="E189" s="7"/>
+      <c r="F189" s="7"/>
+      <c r="G189" s="7"/>
+      <c r="H189" s="7"/>
+      <c r="I189" s="12"/>
+      <c r="J189" s="7"/>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B190" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I190" s="10"/>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I191" s="10"/>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B192" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I190" s="10"/>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A191" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="B191" s="6"/>
-      <c r="C191" s="7"/>
-      <c r="D191" s="7"/>
-      <c r="E191" s="7"/>
-      <c r="F191" s="7"/>
-      <c r="G191" s="7"/>
-      <c r="H191" s="7"/>
-      <c r="I191" s="12"/>
-      <c r="J191" s="7"/>
-    </row>
-    <row r="192" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A192" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="E192" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="I192" s="10"/>
     </row>
-    <row r="193" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A193" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B193" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="E193" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="I193" s="10"/>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B193" s="6"/>
+      <c r="C193" s="7"/>
+      <c r="D193" s="7"/>
+      <c r="E193" s="7"/>
+      <c r="F193" s="7"/>
+      <c r="G193" s="7"/>
+      <c r="H193" s="7"/>
+      <c r="I193" s="12"/>
+      <c r="J193" s="7"/>
     </row>
     <row r="194" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>309</v>
+        <v>151</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>311</v>
+        <v>153</v>
       </c>
       <c r="I194" s="10"/>
     </row>
     <row r="195" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>312</v>
+        <v>154</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>314</v>
+        <v>155</v>
       </c>
       <c r="I195" s="10"/>
     </row>
     <row r="196" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="I196" s="10"/>
     </row>
     <row r="197" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="I197" s="10"/>
+    </row>
+    <row r="198" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E198" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B197" s="4" t="s">
+      <c r="I198" s="10"/>
+    </row>
+    <row r="199" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B199" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E197" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="I197" s="10"/>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A198" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="B198" s="6"/>
-      <c r="C198" s="7"/>
-      <c r="D198" s="7"/>
-      <c r="E198" s="7"/>
-      <c r="F198" s="7"/>
-      <c r="G198" s="7"/>
-      <c r="H198" s="7"/>
-      <c r="I198" s="12"/>
-      <c r="J198" s="7"/>
-    </row>
-    <row r="199" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A199" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="C199" s="2" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A200" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>325</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I199" s="10"/>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B200" s="6"/>
+      <c r="C200" s="7"/>
+      <c r="D200" s="7"/>
+      <c r="E200" s="7"/>
+      <c r="F200" s="7"/>
+      <c r="G200" s="7"/>
+      <c r="H200" s="7"/>
+      <c r="I200" s="12"/>
+      <c r="J200" s="7"/>
     </row>
     <row r="201" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>23</v>
+        <v>311</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
     </row>
     <row r="202" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>26</v>
+        <v>311</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A204" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A205" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D205" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B203" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A204" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="B204" s="6"/>
-      <c r="C204" s="7"/>
-      <c r="D204" s="7"/>
-      <c r="E204" s="7"/>
-      <c r="F204" s="7"/>
-      <c r="G204" s="7"/>
-      <c r="H204" s="7"/>
-      <c r="I204" s="12"/>
-      <c r="J204" s="7"/>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A205" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>337</v>
-      </c>
       <c r="E205" s="2" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A206" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="B206" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>338</v>
-      </c>
+      <c r="A206" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="B206" s="6"/>
+      <c r="C206" s="7"/>
+      <c r="D206" s="7"/>
+      <c r="E206" s="7"/>
+      <c r="F206" s="7"/>
+      <c r="G206" s="7"/>
+      <c r="H206" s="7"/>
+      <c r="I206" s="12"/>
+      <c r="J206" s="7"/>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="B207" s="4" t="s">
-        <v>23</v>
+        <v>324</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>26</v>
+        <v>324</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A210" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D211" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B209" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A210" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="B210" s="6"/>
-      <c r="C210" s="7"/>
-      <c r="D210" s="7"/>
-      <c r="E210" s="7"/>
-      <c r="F210" s="7"/>
-      <c r="G210" s="7"/>
-      <c r="H210" s="7"/>
-      <c r="I210" s="12"/>
-      <c r="J210" s="7"/>
-    </row>
-    <row r="211" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A211" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="B211" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>350</v>
-      </c>
       <c r="E211" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A212" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="B212" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>82</v>
-      </c>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B212" s="6"/>
+      <c r="C212" s="7"/>
+      <c r="D212" s="7"/>
+      <c r="E212" s="7"/>
+      <c r="F212" s="7"/>
+      <c r="G212" s="7"/>
+      <c r="H212" s="7"/>
+      <c r="I212" s="12"/>
+      <c r="J212" s="7"/>
     </row>
     <row r="213" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="B213" s="4" t="s">
-        <v>23</v>
+        <v>337</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>82</v>
+        <v>340</v>
       </c>
     </row>
     <row r="214" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>26</v>
+        <v>337</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="215" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>29</v>
+        <v>337</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="216" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="B216" s="4" t="s">
-        <v>32</v>
+        <v>337</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="217" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="B217" s="4" t="s">
-        <v>35</v>
+        <v>337</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A218" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="B218" s="6"/>
-      <c r="C218" s="7"/>
-      <c r="D218" s="7"/>
-      <c r="E218" s="7"/>
-      <c r="F218" s="7"/>
-      <c r="G218" s="7"/>
-      <c r="H218" s="7"/>
-      <c r="I218" s="12"/>
-      <c r="J218" s="7"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A218" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="219" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>12</v>
+        <v>337</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A220" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="B220" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>82</v>
-      </c>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B220" s="6"/>
+      <c r="C220" s="7"/>
+      <c r="D220" s="7"/>
+      <c r="E220" s="7"/>
+      <c r="F220" s="7"/>
+      <c r="G220" s="7"/>
+      <c r="H220" s="7"/>
+      <c r="I220" s="12"/>
+      <c r="J220" s="7"/>
     </row>
     <row r="221" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="B221" s="4" t="s">
-        <v>23</v>
+        <v>348</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>82</v>
+        <v>340</v>
       </c>
     </row>
     <row r="222" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="B222" s="3" t="s">
-        <v>26</v>
+        <v>348</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="223" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="B223" s="3" t="s">
-        <v>29</v>
+        <v>348</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="224" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="B224" s="4" t="s">
-        <v>32</v>
+        <v>348</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="225" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="B225" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A226" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A227" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B227" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C225" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A226" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="B226" s="6"/>
-      <c r="C226" s="7"/>
-      <c r="D226" s="7"/>
-      <c r="E226" s="7"/>
-      <c r="F226" s="7"/>
-      <c r="G226" s="7"/>
-      <c r="H226" s="7"/>
-      <c r="I226" s="12"/>
-      <c r="J226" s="7"/>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A227" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="B227" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="C227" s="2" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>364</v>
+        <v>77</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A228" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="B228" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>367</v>
-      </c>
+      <c r="A228" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B228" s="6"/>
+      <c r="C228" s="7"/>
+      <c r="D228" s="7"/>
+      <c r="E228" s="7"/>
+      <c r="F228" s="7"/>
+      <c r="G228" s="7"/>
+      <c r="H228" s="7"/>
+      <c r="I228" s="12"/>
+      <c r="J228" s="7"/>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="B229" s="4" t="s">
-        <v>23</v>
+        <v>350</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="B230" s="3" t="s">
-        <v>26</v>
+        <v>350</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D232" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B232" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>378</v>
-      </c>
       <c r="E232" s="2" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="B234" s="3" t="s">
-        <v>63</v>
+        <v>350</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="B236" s="4" t="s">
-        <v>69</v>
+        <v>350</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="B237" s="3" t="s">
-        <v>72</v>
+        <v>350</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="B239" s="4" t="s">
-        <v>246</v>
+        <v>350</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A240" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="B240" s="6"/>
-      <c r="C240" s="7"/>
-      <c r="D240" s="7"/>
-      <c r="E240" s="7"/>
-      <c r="F240" s="7"/>
-      <c r="G240" s="7"/>
-      <c r="H240" s="7"/>
-      <c r="I240" s="12"/>
-      <c r="J240" s="7"/>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A240" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="241" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A242" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B242" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>403</v>
-      </c>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A242" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="B242" s="6"/>
+      <c r="C242" s="7"/>
+      <c r="D242" s="7"/>
+      <c r="E242" s="7"/>
+      <c r="F242" s="7"/>
+      <c r="G242" s="7"/>
+      <c r="H242" s="7"/>
+      <c r="I242" s="12"/>
+      <c r="J242" s="7"/>
     </row>
     <row r="243" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A244" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A245" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A246" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A247" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B247" s="6"/>
+      <c r="C247" s="7"/>
+      <c r="D247" s="7"/>
+      <c r="E247" s="7"/>
+      <c r="F247" s="7"/>
+      <c r="G247" s="7"/>
+      <c r="H247" s="7"/>
+      <c r="I247" s="12"/>
+      <c r="J247" s="7"/>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A248" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="B243" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C243" s="2" t="s">
+      <c r="B248" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A249" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E249" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A244" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B244" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A245" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="B245" s="6"/>
-      <c r="C245" s="7"/>
-      <c r="D245" s="7"/>
-      <c r="E245" s="7"/>
-      <c r="F245" s="7"/>
-      <c r="G245" s="7"/>
-      <c r="H245" s="7"/>
-      <c r="I245" s="12"/>
-      <c r="J245" s="7"/>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A246" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="B246" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A247" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="B247" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A248" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="B248" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A249" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="B249" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="250" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="251" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="252" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A253" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C253" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B252" s="4" t="s">
+      <c r="D253" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A254" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B254" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C252" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="E252" s="2" t="s">
-        <v>424</v>
+      <c r="C254" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -14780,23 +15182,23 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="B5" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="C5" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -14807,10 +15209,10 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="C6" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -14818,10 +15220,10 @@
         <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="C7" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -14829,263 +15231,263 @@
         <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="C8" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C9" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="C10" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="C11" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="B12" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="C12" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="C13" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="C14" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="C15" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B16" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="C16" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B17" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="C17" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B18" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="C18" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B19" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="C19" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B20" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="C20" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B21" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="C21" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="B22" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="C22" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B23" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="C23" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="B24" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="C24" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B25" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="C25" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="B26" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="C26" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="B27" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="C27" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="B28" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="C28" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="B29" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="C29" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="B30" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="C30" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="B31" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="C31" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>

--- a/docs/test/test-cases template-v1.1.xlsx
+++ b/docs/test/test-cases template-v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PA\Year 3\Software Engineering\Lab\E-commerce\E-commerce_Web_Application\docs\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF87BBD-6F9E-4501-97C2-5AF523B9F2AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8AB5F0-A045-484C-8F45-8A4AE7B56EDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="512">
   <si>
     <t>Function/Feature ID</t>
   </si>
@@ -5106,32 +5106,6 @@
     <t>Blank comment</t>
   </si>
   <si>
-    <r>
-      <t>1. Enter comment: ""
-2. Click "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Add comment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
     <t>1. Submit comment
 2. Display newly added comment</t>
   </si>
@@ -5139,346 +5113,31 @@
     <t>Comment contains special character</t>
   </si>
   <si>
-    <r>
-      <t>1. Enter comment: "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>$|\/'.;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"
-2. Click "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Add comment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
     <t>Long comment (&gt;100 character)</t>
   </si>
   <si>
-    <r>
-      <t>1. Enter comment: "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lorem-100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"
-2. Click "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Add comment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
     <t>Long comment (&gt;1000 character)</t>
   </si>
   <si>
-    <r>
-      <t>1. Enter comment: "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lorem-1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"
-2. Click "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Add comment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
     <t>Long comment (&gt;10000 characters)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. Enter comment: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Lorem-10000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"
-2. Click "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Add comment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <t>Function 22: Add rating</t>
-  </si>
-  <si>
     <t>UC22</t>
   </si>
   <si>
     <t>Rate 1 star</t>
   </si>
   <si>
-    <r>
-      <t>1. Check</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 1 star</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> box</t>
-    </r>
-  </si>
-  <si>
-    <t>1. Submit rating</t>
-  </si>
-  <si>
     <t>Rate 2 star</t>
   </si>
   <si>
-    <r>
-      <t>1. Check</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 2 star</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> box</t>
-    </r>
-  </si>
-  <si>
     <t>Rate 3 star</t>
   </si>
   <si>
-    <r>
-      <t>1. Check</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 3 star</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> box</t>
-    </r>
-  </si>
-  <si>
     <t>Rate 4 star</t>
   </si>
   <si>
-    <r>
-      <t>1. Check</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 4 star</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> box</t>
-    </r>
-  </si>
-  <si>
     <t>Rate 5 star</t>
-  </si>
-  <si>
-    <r>
-      <t>1. Check</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 5 star</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> box</t>
-    </r>
   </si>
   <si>
     <t>Function 23: Change password as admin</t>
@@ -6291,12 +5950,6 @@
     <t>Comment about a product in produt detail</t>
   </si>
   <si>
-    <t>Add rating</t>
-  </si>
-  <si>
-    <t>Rate a product quality</t>
-  </si>
-  <si>
     <t>Change password as admin</t>
   </si>
   <si>
@@ -9158,25 +8811,751 @@
     </r>
   </si>
   <si>
-    <t>21/12/2021</t>
-  </si>
-  <si>
-    <t>21/12/2022</t>
-  </si>
-  <si>
     <t>1. Display coupon not exist</t>
   </si>
   <si>
-    <t>21/12/2019</t>
-  </si>
-  <si>
-    <t>21/12/2023</t>
-  </si>
-  <si>
-    <t>21/12/2024</t>
-  </si>
-  <si>
     <t>1. Amount set to 1</t>
+  </si>
+  <si>
+    <t>22/12/2020</t>
+  </si>
+  <si>
+    <t>Rate 1 star without comment</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Check </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 star</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> box
+1. Enter comment: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$|\/'.;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Check </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 star</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> box
+1. Enter comment: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lorem-100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Check </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 star</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> box
+1. Enter comment: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lorem-1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Check </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 star</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> box
+1. Enter comment: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Lorem-10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Check </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 star</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> box
+1. Enter comment: ""
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Check </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 star</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> box
+1. Enter comment: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lorem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Check </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2 star</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> box
+1. Enter comment: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lorem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Check </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3 star</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> box
+1. Enter comment: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lorem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Check </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4 star</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> box
+1. Enter comment: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lorem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.Not check any box
+1. Enter comment: ""
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Submit comment and rating
+2. Display newly added comment</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Check </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5 star</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> box
+1. Enter comment: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lorem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Submit rating
+2. Display newly added comment</t>
+  </si>
+  <si>
+    <t>Comment without rating</t>
+  </si>
+  <si>
+    <r>
+      <t>1.Not check any box
+1. Enter comment: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lorem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -9312,7 +9691,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -9391,6 +9770,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9474,7 +9856,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A5:D31" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A5:D30" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Feature Name"/>
@@ -9772,10 +10154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J254"/>
+  <dimension ref="A1:J255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H102" sqref="H102"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F201" sqref="F201:I212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9939,10 +10321,10 @@
         <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>16</v>
@@ -9968,10 +10350,10 @@
         <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>16</v>
@@ -9997,7 +10379,7 @@
         <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>22</v>
@@ -10026,7 +10408,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>22</v>
@@ -10156,10 +10538,10 @@
         <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>16</v>
@@ -10185,10 +10567,10 @@
         <v>42</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>16</v>
@@ -10214,7 +10596,7 @@
         <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>22</v>
@@ -10243,7 +10625,7 @@
         <v>44</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>22</v>
@@ -10283,7 +10665,7 @@
         <v>47</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>49</v>
@@ -10312,7 +10694,7 @@
         <v>50</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>51</v>
@@ -10341,7 +10723,7 @@
         <v>52</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>51</v>
@@ -10350,7 +10732,7 @@
         <v>49</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>17</v>
@@ -10370,7 +10752,7 @@
         <v>53</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>51</v>
@@ -10399,7 +10781,7 @@
         <v>54</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>49</v>
@@ -10428,7 +10810,7 @@
         <v>55</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>51</v>
@@ -10437,7 +10819,7 @@
         <v>49</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>17</v>
@@ -10495,7 +10877,7 @@
         <v>49</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>17</v>
@@ -10553,7 +10935,7 @@
         <v>49</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>17</v>
@@ -10645,7 +11027,7 @@
         <v>47</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>49</v>
@@ -10674,7 +11056,7 @@
         <v>50</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>51</v>
@@ -10703,7 +11085,7 @@
         <v>52</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>51</v>
@@ -10712,7 +11094,7 @@
         <v>49</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>17</v>
@@ -10732,7 +11114,7 @@
         <v>53</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>51</v>
@@ -10761,7 +11143,7 @@
         <v>54</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>49</v>
@@ -10790,7 +11172,7 @@
         <v>55</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>51</v>
@@ -10799,7 +11181,7 @@
         <v>49</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>17</v>
@@ -10857,7 +11239,7 @@
         <v>49</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>17</v>
@@ -10915,7 +11297,7 @@
         <v>49</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>17</v>
@@ -11232,7 +11614,7 @@
         <v>12</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>105</v>
@@ -11261,7 +11643,7 @@
         <v>19</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>107</v>
@@ -11270,7 +11652,7 @@
         <v>108</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="G59" s="15" t="s">
         <v>109</v>
@@ -11290,7 +11672,7 @@
         <v>23</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>110</v>
@@ -11302,7 +11684,7 @@
         <v>106</v>
       </c>
       <c r="G60" s="26" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>17</v>
@@ -11311,7 +11693,7 @@
         <v>18</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -11322,7 +11704,7 @@
         <v>26</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>112</v>
@@ -11351,7 +11733,7 @@
         <v>29</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>114</v>
@@ -11380,19 +11762,19 @@
         <v>32</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>106</v>
       </c>
       <c r="G63" s="26" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>17</v>
@@ -11401,7 +11783,7 @@
         <v>18</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -11412,19 +11794,19 @@
         <v>35</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>106</v>
       </c>
       <c r="G64" s="26" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>17</v>
@@ -11433,7 +11815,7 @@
         <v>18</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -11928,7 +12310,7 @@
         <v>17</v>
       </c>
       <c r="I82" s="17" t="s">
-        <v>507</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -11945,10 +12327,10 @@
         <v>93</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="G83" s="16" t="s">
         <v>16</v>
@@ -11957,7 +12339,7 @@
         <v>17</v>
       </c>
       <c r="I83" s="17" t="s">
-        <v>508</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -11986,7 +12368,7 @@
         <v>17</v>
       </c>
       <c r="I84" s="17" t="s">
-        <v>511</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -12015,7 +12397,7 @@
         <v>17</v>
       </c>
       <c r="I85" s="17" t="s">
-        <v>512</v>
+        <v>125</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -12035,7 +12417,7 @@
         <v>77</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="G86" s="27" t="s">
         <v>109</v>
@@ -12044,7 +12426,7 @@
         <v>17</v>
       </c>
       <c r="I86" s="17" t="s">
-        <v>510</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -12397,7 +12779,7 @@
         <v>77</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="G99" s="27" t="s">
         <v>109</v>
@@ -12781,7 +13163,7 @@
         <v>226</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="E114" s="23" t="s">
         <v>77</v>
@@ -12803,7 +13185,7 @@
         <v>227</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>77</v>
@@ -12821,7 +13203,7 @@
         <v>229</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>77</v>
@@ -12839,7 +13221,7 @@
         <v>230</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>77</v>
@@ -12857,7 +13239,7 @@
         <v>231</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>77</v>
@@ -12875,7 +13257,7 @@
         <v>232</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>77</v>
@@ -12893,7 +13275,7 @@
         <v>233</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>77</v>
@@ -12911,7 +13293,7 @@
         <v>234</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>77</v>
@@ -12929,7 +13311,7 @@
         <v>234</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>77</v>
@@ -12947,7 +13329,7 @@
         <v>234</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="E123" s="5" t="s">
         <v>77</v>
@@ -12965,7 +13347,7 @@
         <v>234</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>77</v>
@@ -12983,7 +13365,7 @@
         <v>234</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>77</v>
@@ -14148,7 +14530,18 @@
       <c r="E194" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="I194" s="10"/>
+      <c r="F194" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G194" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H194" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I194" s="17" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="195" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
@@ -14166,7 +14559,18 @@
       <c r="E195" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="I195" s="10"/>
+      <c r="F195" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G195" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H195" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I195" s="17" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="196" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
@@ -14184,7 +14588,18 @@
       <c r="E196" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="I196" s="10"/>
+      <c r="F196" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G196" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H196" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I196" s="17" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="197" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
@@ -14202,7 +14617,18 @@
       <c r="E197" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="I197" s="10"/>
+      <c r="F197" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G197" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H197" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I197" s="17" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="198" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
@@ -14220,7 +14646,18 @@
       <c r="E198" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="I198" s="10"/>
+      <c r="F198" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G198" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H198" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I198" s="17" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="199" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
@@ -14238,7 +14675,18 @@
       <c r="E199" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="I199" s="10"/>
+      <c r="F199" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G199" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H199" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I199" s="17" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
@@ -14254,7 +14702,7 @@
       <c r="I200" s="12"/>
       <c r="J200" s="7"/>
     </row>
-    <row r="201" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
         <v>311</v>
       </c>
@@ -14265,13 +14713,16 @@
         <v>312</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>313</v>
+        <v>506</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="G201" s="16"/>
+      <c r="H201" s="5"/>
+      <c r="I201" s="17"/>
+    </row>
+    <row r="202" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
         <v>311</v>
       </c>
@@ -14279,16 +14730,19 @@
         <v>19</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>316</v>
+        <v>497</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+      <c r="G202" s="16"/>
+      <c r="H202" s="5"/>
+      <c r="I202" s="17"/>
+    </row>
+    <row r="203" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
         <v>311</v>
       </c>
@@ -14296,16 +14750,19 @@
         <v>23</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>318</v>
+        <v>498</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+      <c r="G203" s="16"/>
+      <c r="H203" s="5"/>
+      <c r="I203" s="17"/>
+    </row>
+    <row r="204" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
         <v>311</v>
       </c>
@@ -14313,16 +14770,19 @@
         <v>26</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>320</v>
+        <v>499</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+      <c r="G204" s="28"/>
+      <c r="H204" s="5"/>
+      <c r="I204" s="17"/>
+    </row>
+    <row r="205" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
         <v>311</v>
       </c>
@@ -14330,174 +14790,201 @@
         <v>29</v>
       </c>
       <c r="C205" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="G205" s="28"/>
+      <c r="H205" s="5"/>
+      <c r="I205" s="17"/>
+    </row>
+    <row r="206" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A206" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="G206" s="16"/>
+      <c r="H206" s="5"/>
+      <c r="I206" s="17"/>
+    </row>
+    <row r="207" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A207" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="G207" s="16"/>
+      <c r="H207" s="5"/>
+      <c r="I207" s="17"/>
+    </row>
+    <row r="208" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A208" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D205" s="2" t="s">
+      <c r="D208" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="G208" s="16"/>
+      <c r="H208" s="5"/>
+      <c r="I208" s="17"/>
+    </row>
+    <row r="209" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A209" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C209" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="E205" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A206" s="6" t="s">
+      <c r="D209" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="G209" s="16"/>
+      <c r="H209" s="5"/>
+      <c r="I209" s="17"/>
+    </row>
+    <row r="210" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A210" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C210" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B206" s="6"/>
-      <c r="C206" s="7"/>
-      <c r="D206" s="7"/>
-      <c r="E206" s="7"/>
-      <c r="F206" s="7"/>
-      <c r="G206" s="7"/>
-      <c r="H206" s="7"/>
-      <c r="I206" s="12"/>
-      <c r="J206" s="7"/>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A207" s="4" t="s">
+      <c r="D210" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="G210" s="16"/>
+      <c r="H210" s="5"/>
+      <c r="I210" s="17"/>
+    </row>
+    <row r="211" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A211" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="G211" s="16"/>
+      <c r="H211" s="5"/>
+      <c r="I211" s="17"/>
+    </row>
+    <row r="212" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G212" s="28"/>
+      <c r="H212" s="5"/>
+      <c r="I212" s="17"/>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="B207" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A208" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="B208" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A209" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="B209" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A210" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A211" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="B211" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A212" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="B212" s="6"/>
-      <c r="C212" s="7"/>
-      <c r="D212" s="7"/>
-      <c r="E212" s="7"/>
-      <c r="F212" s="7"/>
-      <c r="G212" s="7"/>
-      <c r="H212" s="7"/>
-      <c r="I212" s="12"/>
-      <c r="J212" s="7"/>
-    </row>
-    <row r="213" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A213" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="B213" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>340</v>
-      </c>
+      <c r="B213" s="6"/>
+      <c r="C213" s="7"/>
+      <c r="D213" s="7"/>
+      <c r="E213" s="7"/>
+      <c r="F213" s="7"/>
+      <c r="G213" s="7"/>
+      <c r="H213" s="7"/>
+      <c r="I213" s="12"/>
+      <c r="J213" s="7"/>
     </row>
     <row r="214" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>19</v>
+        <v>325</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>77</v>
+        <v>328</v>
       </c>
     </row>
     <row r="215" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>77</v>
@@ -14505,16 +14992,16 @@
     </row>
     <row r="216" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="B216" s="3" t="s">
-        <v>26</v>
+        <v>325</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>77</v>
@@ -14522,16 +15009,16 @@
     </row>
     <row r="217" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>77</v>
@@ -14539,16 +15026,16 @@
     </row>
     <row r="218" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="B218" s="4" t="s">
-        <v>32</v>
+        <v>325</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>77</v>
@@ -14556,81 +15043,81 @@
     </row>
     <row r="219" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A220" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="B220" s="6"/>
-      <c r="C220" s="7"/>
-      <c r="D220" s="7"/>
-      <c r="E220" s="7"/>
-      <c r="F220" s="7"/>
-      <c r="G220" s="7"/>
-      <c r="H220" s="7"/>
-      <c r="I220" s="12"/>
-      <c r="J220" s="7"/>
-    </row>
-    <row r="221" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A221" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="B221" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>340</v>
-      </c>
+    <row r="220" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A220" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B221" s="6"/>
+      <c r="C221" s="7"/>
+      <c r="D221" s="7"/>
+      <c r="E221" s="7"/>
+      <c r="F221" s="7"/>
+      <c r="G221" s="7"/>
+      <c r="H221" s="7"/>
+      <c r="I221" s="12"/>
+      <c r="J221" s="7"/>
     </row>
     <row r="222" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="B222" s="4" t="s">
-        <v>19</v>
+        <v>336</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>77</v>
+        <v>328</v>
       </c>
     </row>
     <row r="223" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>77</v>
@@ -14638,16 +15125,16 @@
     </row>
     <row r="224" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="B224" s="3" t="s">
-        <v>26</v>
+        <v>336</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>77</v>
@@ -14655,16 +15142,16 @@
     </row>
     <row r="225" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>77</v>
@@ -14672,16 +15159,16 @@
     </row>
     <row r="226" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="B226" s="4" t="s">
-        <v>32</v>
+        <v>336</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>77</v>
@@ -14689,415 +15176,415 @@
     </row>
     <row r="227" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A228" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="B228" s="6"/>
-      <c r="C228" s="7"/>
-      <c r="D228" s="7"/>
-      <c r="E228" s="7"/>
-      <c r="F228" s="7"/>
-      <c r="G228" s="7"/>
-      <c r="H228" s="7"/>
-      <c r="I228" s="12"/>
-      <c r="J228" s="7"/>
+    <row r="228" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A228" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A229" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="B229" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>353</v>
-      </c>
+      <c r="A229" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B229" s="6"/>
+      <c r="C229" s="7"/>
+      <c r="D229" s="7"/>
+      <c r="E229" s="7"/>
+      <c r="F229" s="7"/>
+      <c r="G229" s="7"/>
+      <c r="H229" s="7"/>
+      <c r="I229" s="12"/>
+      <c r="J229" s="7"/>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="B230" s="4" t="s">
-        <v>19</v>
+        <v>338</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="B232" s="3" t="s">
-        <v>26</v>
+        <v>338</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E233" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="B233" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="B236" s="3" t="s">
-        <v>58</v>
+        <v>338</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="B237" s="4" t="s">
-        <v>61</v>
+        <v>338</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="B239" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A240" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B240" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C239" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A240" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="B240" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="C240" s="2" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
     </row>
     <row r="241" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="B241" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A242" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B242" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C241" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A242" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="B242" s="6"/>
-      <c r="C242" s="7"/>
-      <c r="D242" s="7"/>
-      <c r="E242" s="7"/>
-      <c r="F242" s="7"/>
-      <c r="G242" s="7"/>
-      <c r="H242" s="7"/>
-      <c r="I242" s="12"/>
-      <c r="J242" s="7"/>
-    </row>
-    <row r="243" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A243" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="B243" s="4" t="s">
+      <c r="C242" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A243" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B243" s="6"/>
+      <c r="C243" s="7"/>
+      <c r="D243" s="7"/>
+      <c r="E243" s="7"/>
+      <c r="F243" s="7"/>
+      <c r="G243" s="7"/>
+      <c r="H243" s="7"/>
+      <c r="I243" s="12"/>
+      <c r="J243" s="7"/>
+    </row>
+    <row r="244" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A244" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B244" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C243" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A244" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="B244" s="4" t="s">
+      <c r="C244" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A245" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B245" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C244" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A245" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="B245" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="C245" s="2" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
     </row>
     <row r="246" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="B246" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A247" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B247" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C246" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="E246" s="2" t="s">
+      <c r="C247" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E247" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A247" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="B247" s="6"/>
-      <c r="C247" s="7"/>
-      <c r="D247" s="7"/>
-      <c r="E247" s="7"/>
-      <c r="F247" s="7"/>
-      <c r="G247" s="7"/>
-      <c r="H247" s="7"/>
-      <c r="I247" s="12"/>
-      <c r="J247" s="7"/>
-    </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A248" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B248" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>403</v>
-      </c>
+      <c r="A248" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="B248" s="6"/>
+      <c r="C248" s="7"/>
+      <c r="D248" s="7"/>
+      <c r="E248" s="7"/>
+      <c r="F248" s="7"/>
+      <c r="G248" s="7"/>
+      <c r="H248" s="7"/>
+      <c r="I248" s="12"/>
+      <c r="J248" s="7"/>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="B249" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A250" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B250" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C249" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A250" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B250" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="C250" s="2" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>77</v>
+        <v>394</v>
       </c>
     </row>
     <row r="251" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>77</v>
@@ -15105,16 +15592,16 @@
     </row>
     <row r="252" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>77</v>
@@ -15122,16 +15609,16 @@
     </row>
     <row r="253" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>77</v>
@@ -15139,19 +15626,36 @@
     </row>
     <row r="254" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A255" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C255" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B254" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="E254" s="2" t="s">
-        <v>413</v>
+      <c r="D255" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -15166,10 +15670,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15182,23 +15686,23 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="B5" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="C5" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -15209,10 +15713,10 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="C6" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -15220,10 +15724,10 @@
         <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="C7" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -15231,10 +15735,10 @@
         <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="C8" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -15242,10 +15746,10 @@
         <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="C9" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -15253,10 +15757,10 @@
         <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="C10" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -15264,21 +15768,21 @@
         <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="C11" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="B12" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="C12" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -15286,10 +15790,10 @@
         <v>147</v>
       </c>
       <c r="B13" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="C13" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -15297,10 +15801,10 @@
         <v>168</v>
       </c>
       <c r="B14" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="C14" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -15308,10 +15812,10 @@
         <v>192</v>
       </c>
       <c r="B15" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="C15" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -15319,10 +15823,10 @@
         <v>206</v>
       </c>
       <c r="B16" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="C16" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -15330,10 +15834,10 @@
         <v>225</v>
       </c>
       <c r="B17" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="C17" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -15341,10 +15845,10 @@
         <v>245</v>
       </c>
       <c r="B18" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="C18" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -15355,7 +15859,7 @@
         <v>261</v>
       </c>
       <c r="C19" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -15363,10 +15867,10 @@
         <v>265</v>
       </c>
       <c r="B20" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="C20" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -15374,10 +15878,10 @@
         <v>289</v>
       </c>
       <c r="B21" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="C21" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -15385,10 +15889,10 @@
         <v>291</v>
       </c>
       <c r="B22" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="C22" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -15396,10 +15900,10 @@
         <v>293</v>
       </c>
       <c r="B23" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="C23" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -15407,10 +15911,10 @@
         <v>295</v>
       </c>
       <c r="B24" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="C24" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -15418,76 +15922,65 @@
         <v>311</v>
       </c>
       <c r="B25" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="C25" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B26" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="C26" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B27" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="C27" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>348</v>
+      <c r="A28" t="s">
+        <v>338</v>
       </c>
       <c r="B28" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="C28" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="B29" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="C29" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>389</v>
+      <c r="A30" s="1" t="s">
+        <v>388</v>
       </c>
       <c r="B30" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="C30" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B31" t="s">
-        <v>469</v>
-      </c>
-      <c r="C31" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>

--- a/docs/test/test-cases template-v1.1.xlsx
+++ b/docs/test/test-cases template-v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PA\Year 3\Software Engineering\Lab\E-commerce\E-commerce_Web_Application\docs\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8AB5F0-A045-484C-8F45-8A4AE7B56EDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0583B6-5294-43C8-9BBD-44CB58A8AA94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="512">
   <si>
     <t>Function/Feature ID</t>
   </si>
@@ -10157,7 +10157,7 @@
   <dimension ref="A1:J255"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F201" sqref="F201:I212"/>
+      <selection activeCell="F202" sqref="F202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14718,9 +14718,18 @@
       <c r="E201" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G201" s="16"/>
-      <c r="H201" s="5"/>
-      <c r="I201" s="17"/>
+      <c r="F201" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G201" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H201" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I201" s="17" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="202" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
@@ -14738,9 +14747,18 @@
       <c r="E202" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="G202" s="16"/>
-      <c r="H202" s="5"/>
-      <c r="I202" s="17"/>
+      <c r="F202" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="G202" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H202" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I202" s="17" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="203" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
@@ -14758,9 +14776,18 @@
       <c r="E203" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="G203" s="16"/>
-      <c r="H203" s="5"/>
-      <c r="I203" s="17"/>
+      <c r="F203" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="G203" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H203" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I203" s="17" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="204" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
@@ -14778,9 +14805,18 @@
       <c r="E204" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="G204" s="28"/>
-      <c r="H204" s="5"/>
-      <c r="I204" s="17"/>
+      <c r="F204" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G204" s="28" t="s">
+        <v>479</v>
+      </c>
+      <c r="H204" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I204" s="17" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="205" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
@@ -14798,9 +14834,18 @@
       <c r="E205" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="G205" s="28"/>
-      <c r="H205" s="5"/>
-      <c r="I205" s="17"/>
+      <c r="F205" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G205" s="28" t="s">
+        <v>479</v>
+      </c>
+      <c r="H205" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I205" s="17" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="206" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
@@ -14818,9 +14863,18 @@
       <c r="E206" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="G206" s="16"/>
-      <c r="H206" s="5"/>
-      <c r="I206" s="17"/>
+      <c r="F206" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="G206" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H206" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I206" s="17" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="207" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
@@ -14838,9 +14892,18 @@
       <c r="E207" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="G207" s="16"/>
-      <c r="H207" s="5"/>
-      <c r="I207" s="17"/>
+      <c r="F207" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="G207" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H207" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I207" s="17" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="208" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
@@ -14858,9 +14921,18 @@
       <c r="E208" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="G208" s="16"/>
-      <c r="H208" s="5"/>
-      <c r="I208" s="17"/>
+      <c r="F208" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="G208" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H208" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I208" s="17" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="209" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
@@ -14878,9 +14950,18 @@
       <c r="E209" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="G209" s="16"/>
-      <c r="H209" s="5"/>
-      <c r="I209" s="17"/>
+      <c r="F209" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="G209" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H209" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I209" s="17" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="210" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
@@ -14898,9 +14979,18 @@
       <c r="E210" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="G210" s="16"/>
-      <c r="H210" s="5"/>
-      <c r="I210" s="17"/>
+      <c r="F210" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="G210" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H210" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I210" s="17" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="211" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
@@ -14918,9 +15008,18 @@
       <c r="E211" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="G211" s="16"/>
-      <c r="H211" s="5"/>
-      <c r="I211" s="17"/>
+      <c r="F211" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="G211" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H211" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I211" s="17" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="212" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
@@ -14938,9 +15037,18 @@
       <c r="E212" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="G212" s="28"/>
-      <c r="H212" s="5"/>
-      <c r="I212" s="17"/>
+      <c r="F212" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G212" s="28" t="s">
+        <v>479</v>
+      </c>
+      <c r="H212" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I212" s="17" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">

--- a/docs/test/test-cases template-v1.1.xlsx
+++ b/docs/test/test-cases template-v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PA\Year 3\Software Engineering\Lab\E-commerce\E-commerce_Web_Application\docs\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0583B6-5294-43C8-9BBD-44CB58A8AA94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977F2B18-302D-4668-81F9-C891E414EB88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="527">
   <si>
     <t>Function/Feature ID</t>
   </si>
@@ -9555,6 +9555,671 @@
         <scheme val="minor"/>
       </rPr>
       <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>New and old passwords are the same</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter password: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Enter new password: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+3. Confirm new password: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+4. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Display error message: Old and new passwords are the same</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter password: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Enter new password: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+3. Confirm new password: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+4. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Display error message: Unmatched password confirmation</t>
+  </si>
+  <si>
+    <t>1. Display error message: New password can not be blank</t>
+  </si>
+  <si>
+    <t>1. Display error message: New password 's length must be 3 or more</t>
+  </si>
+  <si>
+    <t>1. Display error message: incorrect old password</t>
+  </si>
+  <si>
+    <t>1. Display error message: old password can not be blank</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter password: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Enter new password: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+3. Confirm new password: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+4. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter password: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Enter new password: ""
+3. Confirm new password: ""
+4. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter password: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Enter new password: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+3. Confirm new password: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+4. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter password: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Enter new password: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+3. Confirm new password: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+4. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter password: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exam ple</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Enter new password: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+3. Confirm new password: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+4. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter password: ""
+2. Enter new password: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+3. Confirm new password: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+4. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
     </r>
   </si>
 </sst>
@@ -10154,10 +10819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J255"/>
+  <dimension ref="A1:J256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F202" sqref="F202"/>
+    <sheetView tabSelected="1" topLeftCell="B214" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E219" sqref="E219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10384,8 +11049,8 @@
       <c r="F8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="15" t="s">
-        <v>109</v>
+      <c r="G8" s="26" t="s">
+        <v>479</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>17</v>
@@ -10413,8 +11078,8 @@
       <c r="F9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>109</v>
+      <c r="G9" s="26" t="s">
+        <v>479</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>17</v>
@@ -10601,8 +11266,8 @@
       <c r="F16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="15" t="s">
-        <v>109</v>
+      <c r="G16" s="26" t="s">
+        <v>479</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>17</v>
@@ -10630,8 +11295,8 @@
       <c r="F17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="15" t="s">
-        <v>109</v>
+      <c r="G17" s="26" t="s">
+        <v>479</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>17</v>
@@ -10874,10 +11539,10 @@
         <v>51</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>479</v>
+        <v>51</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>17</v>
@@ -11236,10 +11901,10 @@
         <v>51</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G39" s="26" t="s">
-        <v>479</v>
+        <v>51</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>17</v>
@@ -15075,44 +15740,80 @@
         <v>326</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>327</v>
+        <v>513</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>328</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G214" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H214" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I214" s="17" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="215" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B215" s="4" t="s">
-        <v>19</v>
+      <c r="B215" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>329</v>
+        <v>512</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>327</v>
+        <v>515</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>77</v>
+        <v>514</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G215" s="28" t="s">
+        <v>479</v>
+      </c>
+      <c r="H215" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I215" s="17" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="216" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B216" s="4" t="s">
-        <v>23</v>
+      <c r="B216" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>327</v>
+        <v>521</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>77</v>
+        <v>516</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="G216" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H216" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I216" s="17" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="217" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -15120,16 +15821,28 @@
         <v>325</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>327</v>
+        <v>522</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>77</v>
+        <v>517</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="G217" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="H217" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I217" s="17" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="218" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -15137,98 +15850,146 @@
         <v>325</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>327</v>
+        <v>523</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>77</v>
+        <v>328</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G218" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H218" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I218" s="17" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="219" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B219" s="4" t="s">
-        <v>32</v>
+      <c r="B219" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>327</v>
+        <v>524</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>77</v>
+        <v>519</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G219" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H219" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I219" s="17" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="220" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B220" s="4" t="s">
-        <v>35</v>
+      <c r="B220" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C220" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G220" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H220" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I220" s="17" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A221" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C221" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D220" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A221" s="6" t="s">
+      <c r="D221" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G221" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H221" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I221" s="17" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A222" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="B221" s="6"/>
-      <c r="C221" s="7"/>
-      <c r="D221" s="7"/>
-      <c r="E221" s="7"/>
-      <c r="F221" s="7"/>
-      <c r="G221" s="7"/>
-      <c r="H221" s="7"/>
-      <c r="I221" s="12"/>
-      <c r="J221" s="7"/>
-    </row>
-    <row r="222" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A222" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="B222" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>328</v>
-      </c>
+      <c r="B222" s="6"/>
+      <c r="C222" s="7"/>
+      <c r="D222" s="7"/>
+      <c r="E222" s="7"/>
+      <c r="F222" s="7"/>
+      <c r="G222" s="7"/>
+      <c r="H222" s="7"/>
+      <c r="I222" s="12"/>
+      <c r="J222" s="7"/>
     </row>
     <row r="223" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="B223" s="4" t="s">
-        <v>19</v>
+      <c r="B223" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>77</v>
+        <v>328</v>
       </c>
     </row>
     <row r="224" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -15236,10 +15997,10 @@
         <v>336</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>327</v>
@@ -15252,11 +16013,11 @@
       <c r="A225" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="B225" s="3" t="s">
-        <v>26</v>
+      <c r="B225" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>327</v>
@@ -15270,10 +16031,10 @@
         <v>336</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>327</v>
@@ -15286,11 +16047,11 @@
       <c r="A227" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="B227" s="4" t="s">
-        <v>32</v>
+      <c r="B227" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>327</v>
@@ -15304,10 +16065,10 @@
         <v>336</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>327</v>
@@ -15316,52 +16077,61 @@
         <v>77</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A229" s="6" t="s">
+    <row r="229" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A229" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A230" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="B229" s="6"/>
-      <c r="C229" s="7"/>
-      <c r="D229" s="7"/>
-      <c r="E229" s="7"/>
-      <c r="F229" s="7"/>
-      <c r="G229" s="7"/>
-      <c r="H229" s="7"/>
-      <c r="I229" s="12"/>
-      <c r="J229" s="7"/>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A230" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="B230" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>341</v>
-      </c>
+      <c r="B230" s="6"/>
+      <c r="C230" s="7"/>
+      <c r="D230" s="7"/>
+      <c r="E230" s="7"/>
+      <c r="F230" s="7"/>
+      <c r="G230" s="7"/>
+      <c r="H230" s="7"/>
+      <c r="I230" s="12"/>
+      <c r="J230" s="7"/>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B231" s="4" t="s">
-        <v>19</v>
+      <c r="B231" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
+      </c>
+      <c r="G231" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H231" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I231" s="17" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
@@ -15369,50 +16139,77 @@
         <v>338</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
+      </c>
+      <c r="G232" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H232" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I232" s="17" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B233" s="3" t="s">
-        <v>26</v>
+      <c r="B233" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
+      </c>
+      <c r="G233" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H233" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I233" s="17" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B234" s="4" t="s">
-        <v>29</v>
+      <c r="B234" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
+      </c>
+      <c r="G234" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H234" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I234" s="17" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
@@ -15420,16 +16217,25 @@
         <v>338</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
+      </c>
+      <c r="G235" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H235" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I235" s="17" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
@@ -15437,50 +16243,77 @@
         <v>338</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
+      </c>
+      <c r="G236" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H236" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I236" s="17" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B237" s="3" t="s">
-        <v>58</v>
+      <c r="B237" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>359</v>
+      </c>
+      <c r="G237" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H237" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I237" s="17" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B238" s="4" t="s">
-        <v>61</v>
+      <c r="B238" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>359</v>
+      </c>
+      <c r="G238" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H238" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I238" s="17" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
@@ -15488,50 +16321,77 @@
         <v>338</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>366</v>
+        <v>359</v>
+      </c>
+      <c r="G239" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H239" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I239" s="17" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B240" s="3" t="s">
-        <v>67</v>
+      <c r="B240" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+      <c r="G240" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H240" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I240" s="17" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B241" s="4" t="s">
-        <v>69</v>
+      <c r="B241" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
+      </c>
+      <c r="G241" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H241" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I241" s="17" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="242" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -15539,78 +16399,96 @@
         <v>338</v>
       </c>
       <c r="B242" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="G242" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H242" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I242" s="17" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A243" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B243" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C242" s="2" t="s">
+      <c r="C243" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D242" s="2" t="s">
+      <c r="D243" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="E242" s="2" t="s">
+      <c r="E243" s="2" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A243" s="6" t="s">
+      <c r="G243" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H243" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I243" s="17" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A244" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B243" s="6"/>
-      <c r="C243" s="7"/>
-      <c r="D243" s="7"/>
-      <c r="E243" s="7"/>
-      <c r="F243" s="7"/>
-      <c r="G243" s="7"/>
-      <c r="H243" s="7"/>
-      <c r="I243" s="12"/>
-      <c r="J243" s="7"/>
-    </row>
-    <row r="244" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A244" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="B244" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B244" s="6"/>
+      <c r="C244" s="7"/>
+      <c r="D244" s="7"/>
+      <c r="E244" s="7"/>
+      <c r="F244" s="7"/>
+      <c r="G244" s="7"/>
+      <c r="H244" s="7"/>
+      <c r="I244" s="12"/>
+      <c r="J244" s="7"/>
+    </row>
+    <row r="245" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
         <v>377</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="246" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
         <v>377</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>380</v>
@@ -15621,81 +16499,81 @@
         <v>377</v>
       </c>
       <c r="B247" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A248" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B248" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C247" s="2" t="s">
+      <c r="C248" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="D247" s="2" t="s">
+      <c r="D248" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="E247" s="2" t="s">
+      <c r="E248" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A248" s="6" t="s">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A249" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="B248" s="6"/>
-      <c r="C248" s="7"/>
-      <c r="D248" s="7"/>
-      <c r="E248" s="7"/>
-      <c r="F248" s="7"/>
-      <c r="G248" s="7"/>
-      <c r="H248" s="7"/>
-      <c r="I248" s="12"/>
-      <c r="J248" s="7"/>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A249" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="B249" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>391</v>
-      </c>
+      <c r="B249" s="6"/>
+      <c r="C249" s="7"/>
+      <c r="D249" s="7"/>
+      <c r="E249" s="7"/>
+      <c r="F249" s="7"/>
+      <c r="G249" s="7"/>
+      <c r="H249" s="7"/>
+      <c r="I249" s="12"/>
+      <c r="J249" s="7"/>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
         <v>388</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
         <v>388</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>77</v>
+        <v>394</v>
       </c>
     </row>
     <row r="252" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -15703,10 +16581,10 @@
         <v>388</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>396</v>
@@ -15720,10 +16598,10 @@
         <v>388</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>396</v>
@@ -15737,10 +16615,10 @@
         <v>388</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>396</v>
@@ -15754,15 +16632,32 @@
         <v>388</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>396</v>
       </c>
       <c r="E255" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A256" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E256" s="2" t="s">
         <v>401</v>
       </c>
     </row>

--- a/docs/test/test-cases template-v1.1.xlsx
+++ b/docs/test/test-cases template-v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PA\Year 3\Software Engineering\Lab\E-commerce\E-commerce_Web_Application\docs\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977F2B18-302D-4668-81F9-C891E414EB88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042F7F94-13B7-4C4A-B66B-54946411A15C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="526">
   <si>
     <t>Function/Feature ID</t>
   </si>
@@ -5147,34 +5147,6 @@
   </si>
   <si>
     <t>Enter correct old password and matching new passwords</t>
-  </si>
-  <si>
-    <r>
-      <t>1. Enter password: ""
-2. Enter new password: ""
-3. Confirm new password: ""
-4. Click "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" button</t>
-    </r>
   </si>
   <si>
     <t>1. Account's password changed
@@ -10819,10 +10791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J256"/>
+  <dimension ref="A1:J257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B214" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E219" sqref="E219"/>
+    <sheetView tabSelected="1" topLeftCell="A221" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G232" sqref="G232:I244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10986,10 +10958,10 @@
         <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>16</v>
@@ -11015,10 +10987,10 @@
         <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>16</v>
@@ -11044,13 +11016,13 @@
         <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>17</v>
@@ -11073,13 +11045,13 @@
         <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>17</v>
@@ -11203,10 +11175,10 @@
         <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>16</v>
@@ -11232,10 +11204,10 @@
         <v>42</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>16</v>
@@ -11261,13 +11233,13 @@
         <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>17</v>
@@ -11290,13 +11262,13 @@
         <v>44</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>17</v>
@@ -11330,7 +11302,7 @@
         <v>47</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>49</v>
@@ -11359,7 +11331,7 @@
         <v>50</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>51</v>
@@ -11388,7 +11360,7 @@
         <v>52</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>51</v>
@@ -11397,7 +11369,7 @@
         <v>49</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>17</v>
@@ -11417,7 +11389,7 @@
         <v>53</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>51</v>
@@ -11446,7 +11418,7 @@
         <v>54</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>49</v>
@@ -11475,7 +11447,7 @@
         <v>55</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>51</v>
@@ -11484,7 +11456,7 @@
         <v>49</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>17</v>
@@ -11600,7 +11572,7 @@
         <v>49</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>17</v>
@@ -11692,7 +11664,7 @@
         <v>47</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>49</v>
@@ -11721,7 +11693,7 @@
         <v>50</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>51</v>
@@ -11750,7 +11722,7 @@
         <v>52</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>51</v>
@@ -11759,7 +11731,7 @@
         <v>49</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>17</v>
@@ -11779,7 +11751,7 @@
         <v>53</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>51</v>
@@ -11808,7 +11780,7 @@
         <v>54</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>49</v>
@@ -11837,7 +11809,7 @@
         <v>55</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>51</v>
@@ -11846,7 +11818,7 @@
         <v>49</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>17</v>
@@ -11962,7 +11934,7 @@
         <v>49</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>17</v>
@@ -12279,7 +12251,7 @@
         <v>12</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>105</v>
@@ -12308,7 +12280,7 @@
         <v>19</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>107</v>
@@ -12317,7 +12289,7 @@
         <v>108</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G59" s="15" t="s">
         <v>109</v>
@@ -12337,7 +12309,7 @@
         <v>23</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>110</v>
@@ -12349,7 +12321,7 @@
         <v>106</v>
       </c>
       <c r="G60" s="26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>17</v>
@@ -12358,7 +12330,7 @@
         <v>18</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -12369,7 +12341,7 @@
         <v>26</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>112</v>
@@ -12398,7 +12370,7 @@
         <v>29</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>114</v>
@@ -12427,19 +12399,19 @@
         <v>32</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>482</v>
-      </c>
       <c r="E63" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>106</v>
       </c>
       <c r="G63" s="26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>17</v>
@@ -12448,7 +12420,7 @@
         <v>18</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -12459,19 +12431,19 @@
         <v>35</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>106</v>
       </c>
       <c r="G64" s="26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>17</v>
@@ -12480,7 +12452,7 @@
         <v>18</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -12992,10 +12964,10 @@
         <v>93</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G83" s="16" t="s">
         <v>16</v>
@@ -13082,7 +13054,7 @@
         <v>77</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G86" s="27" t="s">
         <v>109</v>
@@ -13444,7 +13416,7 @@
         <v>77</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G99" s="27" t="s">
         <v>109</v>
@@ -13828,7 +13800,7 @@
         <v>226</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E114" s="23" t="s">
         <v>77</v>
@@ -13850,7 +13822,7 @@
         <v>227</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>77</v>
@@ -13868,7 +13840,7 @@
         <v>229</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>77</v>
@@ -13886,7 +13858,7 @@
         <v>230</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>77</v>
@@ -13904,7 +13876,7 @@
         <v>231</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>77</v>
@@ -13922,7 +13894,7 @@
         <v>232</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>77</v>
@@ -13940,7 +13912,7 @@
         <v>233</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>77</v>
@@ -13958,7 +13930,7 @@
         <v>234</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>77</v>
@@ -13976,7 +13948,7 @@
         <v>234</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>77</v>
@@ -13994,7 +13966,7 @@
         <v>234</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E123" s="5" t="s">
         <v>77</v>
@@ -14012,7 +13984,7 @@
         <v>234</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>77</v>
@@ -14030,7 +14002,7 @@
         <v>234</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>77</v>
@@ -15205,7 +15177,7 @@
         <v>17</v>
       </c>
       <c r="I194" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -15234,7 +15206,7 @@
         <v>17</v>
       </c>
       <c r="I195" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -15263,7 +15235,7 @@
         <v>17</v>
       </c>
       <c r="I196" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -15292,7 +15264,7 @@
         <v>17</v>
       </c>
       <c r="I197" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -15321,7 +15293,7 @@
         <v>17</v>
       </c>
       <c r="I198" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -15350,7 +15322,7 @@
         <v>17</v>
       </c>
       <c r="I199" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
@@ -15378,7 +15350,7 @@
         <v>312</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>117</v>
@@ -15393,7 +15365,7 @@
         <v>17</v>
       </c>
       <c r="I201" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="202" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -15407,13 +15379,13 @@
         <v>314</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G202" s="16" t="s">
         <v>16</v>
@@ -15422,7 +15394,7 @@
         <v>17</v>
       </c>
       <c r="I202" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -15436,13 +15408,13 @@
         <v>315</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G203" s="16" t="s">
         <v>16</v>
@@ -15451,7 +15423,7 @@
         <v>17</v>
       </c>
       <c r="I203" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -15465,22 +15437,22 @@
         <v>316</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>117</v>
       </c>
       <c r="G204" s="28" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H204" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I204" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -15494,22 +15466,22 @@
         <v>317</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>117</v>
       </c>
       <c r="G205" s="28" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H205" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I205" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -15523,13 +15495,13 @@
         <v>319</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G206" s="16" t="s">
         <v>16</v>
@@ -15538,7 +15510,7 @@
         <v>17</v>
       </c>
       <c r="I206" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -15552,13 +15524,13 @@
         <v>320</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G207" s="16" t="s">
         <v>16</v>
@@ -15567,7 +15539,7 @@
         <v>17</v>
       </c>
       <c r="I207" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -15581,13 +15553,13 @@
         <v>321</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G208" s="16" t="s">
         <v>16</v>
@@ -15596,7 +15568,7 @@
         <v>17</v>
       </c>
       <c r="I208" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="209" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -15610,13 +15582,13 @@
         <v>322</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G209" s="16" t="s">
         <v>16</v>
@@ -15625,7 +15597,7 @@
         <v>17</v>
       </c>
       <c r="I209" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="210" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -15639,13 +15611,13 @@
         <v>323</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G210" s="16" t="s">
         <v>16</v>
@@ -15654,7 +15626,7 @@
         <v>17</v>
       </c>
       <c r="I210" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="211" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -15665,16 +15637,16 @@
         <v>67</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G211" s="16" t="s">
         <v>16</v>
@@ -15683,7 +15655,7 @@
         <v>17</v>
       </c>
       <c r="I211" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="212" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -15694,10 +15666,10 @@
         <v>69</v>
       </c>
       <c r="C212" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D212" s="2" t="s">
         <v>510</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>511</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>313</v>
@@ -15706,13 +15678,13 @@
         <v>117</v>
       </c>
       <c r="G212" s="28" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H212" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I212" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
@@ -15740,13 +15712,13 @@
         <v>326</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G214" s="16" t="s">
         <v>16</v>
@@ -15755,7 +15727,7 @@
         <v>17</v>
       </c>
       <c r="I214" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="215" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -15763,28 +15735,28 @@
         <v>325</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G215" s="28" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H215" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I215" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="216" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -15792,19 +15764,19 @@
         <v>325</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G216" s="16" t="s">
         <v>16</v>
@@ -15813,7 +15785,7 @@
         <v>17</v>
       </c>
       <c r="I216" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="217" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -15821,19 +15793,19 @@
         <v>325</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E217" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="F217" s="2" t="s">
         <v>517</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>518</v>
       </c>
       <c r="G217" s="27" t="s">
         <v>109</v>
@@ -15842,7 +15814,7 @@
         <v>17</v>
       </c>
       <c r="I217" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="218" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -15850,19 +15822,19 @@
         <v>325</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G218" s="16" t="s">
         <v>16</v>
@@ -15871,7 +15843,7 @@
         <v>17</v>
       </c>
       <c r="I218" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="219" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -15879,19 +15851,19 @@
         <v>325</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G219" s="16" t="s">
         <v>16</v>
@@ -15900,7 +15872,7 @@
         <v>17</v>
       </c>
       <c r="I219" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="220" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -15908,19 +15880,19 @@
         <v>325</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G220" s="16" t="s">
         <v>16</v>
@@ -15929,7 +15901,7 @@
         <v>17</v>
       </c>
       <c r="I220" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="221" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -15937,19 +15909,19 @@
         <v>325</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G221" s="16" t="s">
         <v>16</v>
@@ -15958,12 +15930,12 @@
         <v>17</v>
       </c>
       <c r="I221" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B222" s="6"/>
       <c r="C222" s="7"/>
@@ -15977,7 +15949,7 @@
     </row>
     <row r="223" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>12</v>
@@ -15986,625 +15958,682 @@
         <v>326</v>
       </c>
       <c r="D223" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E223" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="E223" s="2" t="s">
-        <v>328</v>
+      <c r="F223" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="G223" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H223" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I223" s="17" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="224" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>329</v>
+        <v>511</v>
       </c>
       <c r="D224" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F224" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="E224" s="2" t="s">
-        <v>77</v>
+      <c r="G224" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="H224" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I224" s="17" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="225" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="B225" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B225" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>327</v>
+        <v>520</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>77</v>
+        <v>515</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="G225" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H225" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I225" s="17" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="226" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="B226" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B226" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>327</v>
+        <v>521</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>77</v>
+        <v>516</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="G226" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="H226" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I226" s="17" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="227" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D227" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E227" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="E227" s="2" t="s">
-        <v>77</v>
+      <c r="F227" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="G227" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H227" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I227" s="17" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="228" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>327</v>
+        <v>523</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>77</v>
+        <v>518</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="G228" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H228" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I228" s="17" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="229" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="G229" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H229" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I229" s="17" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A230" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G230" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H230" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I230" s="17" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A231" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B229" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A230" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="B230" s="6"/>
-      <c r="C230" s="7"/>
-      <c r="D230" s="7"/>
-      <c r="E230" s="7"/>
-      <c r="F230" s="7"/>
-      <c r="G230" s="7"/>
-      <c r="H230" s="7"/>
-      <c r="I230" s="12"/>
-      <c r="J230" s="7"/>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A231" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="B231" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="G231" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H231" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I231" s="17" t="s">
-        <v>495</v>
-      </c>
+      <c r="B231" s="6"/>
+      <c r="C231" s="7"/>
+      <c r="D231" s="7"/>
+      <c r="E231" s="7"/>
+      <c r="F231" s="7"/>
+      <c r="G231" s="7"/>
+      <c r="H231" s="7"/>
+      <c r="I231" s="12"/>
+      <c r="J231" s="7"/>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C232" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B232" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>342</v>
-      </c>
       <c r="D232" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="G232" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H232" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I232" s="17" t="s">
-        <v>495</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G232" s="16"/>
+      <c r="H232" s="5"/>
+      <c r="I232" s="17"/>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="G233" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H233" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I233" s="17" t="s">
-        <v>495</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G233" s="16"/>
+      <c r="H233" s="5"/>
+      <c r="I233" s="17"/>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="B234" s="3" t="s">
-        <v>26</v>
+        <v>337</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="G234" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H234" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I234" s="17" t="s">
-        <v>495</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G234" s="16"/>
+      <c r="H234" s="5"/>
+      <c r="I234" s="17"/>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="B235" s="4" t="s">
-        <v>29</v>
+        <v>337</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="G235" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H235" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I235" s="17" t="s">
-        <v>495</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G235" s="16"/>
+      <c r="H235" s="5"/>
+      <c r="I235" s="17"/>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="G236" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H236" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I236" s="17" t="s">
-        <v>495</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G236" s="16"/>
+      <c r="H236" s="5"/>
+      <c r="I236" s="17"/>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="G237" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H237" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I237" s="17" t="s">
-        <v>495</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="G237" s="16"/>
+      <c r="H237" s="5"/>
+      <c r="I237" s="17"/>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="B238" s="3" t="s">
-        <v>58</v>
+        <v>337</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="G238" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H238" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I238" s="17" t="s">
-        <v>495</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G238" s="16"/>
+      <c r="H238" s="5"/>
+      <c r="I238" s="17"/>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="B239" s="4" t="s">
-        <v>61</v>
+        <v>337</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="G239" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H239" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I239" s="17" t="s">
-        <v>495</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G239" s="16"/>
+      <c r="H239" s="5"/>
+      <c r="I239" s="17"/>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="G240" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H240" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I240" s="17" t="s">
-        <v>495</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G240" s="16"/>
+      <c r="H240" s="5"/>
+      <c r="I240" s="17"/>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="B241" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="G241" s="16"/>
+      <c r="H241" s="5"/>
+      <c r="I241" s="17"/>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A242" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B242" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C241" s="2" t="s">
+      <c r="C242" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D242" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D241" s="2" t="s">
+      <c r="E242" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="E241" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="G241" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H241" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I241" s="17" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A242" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="B242" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="G242" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H242" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I242" s="17" t="s">
-        <v>495</v>
-      </c>
+      <c r="F242" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="G242" s="16"/>
+      <c r="H242" s="5"/>
+      <c r="I242" s="17"/>
     </row>
     <row r="243" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B243" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G243" s="16"/>
+      <c r="H243" s="5"/>
+      <c r="I243" s="17"/>
+    </row>
+    <row r="244" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A244" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B244" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="C244" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D244" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D243" s="2" t="s">
+      <c r="E244" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="E243" s="2" t="s">
+      <c r="F244" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="G244" s="16"/>
+      <c r="H244" s="5"/>
+      <c r="I244" s="17"/>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A245" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="G243" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H243" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I243" s="17" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A244" s="6" t="s">
+      <c r="B245" s="6"/>
+      <c r="C245" s="7"/>
+      <c r="D245" s="7"/>
+      <c r="E245" s="7"/>
+      <c r="F245" s="7"/>
+      <c r="G245" s="7"/>
+      <c r="H245" s="7"/>
+      <c r="I245" s="12"/>
+      <c r="J245" s="7"/>
+    </row>
+    <row r="246" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A246" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="B244" s="6"/>
-      <c r="C244" s="7"/>
-      <c r="D244" s="7"/>
-      <c r="E244" s="7"/>
-      <c r="F244" s="7"/>
-      <c r="G244" s="7"/>
-      <c r="H244" s="7"/>
-      <c r="I244" s="12"/>
-      <c r="J244" s="7"/>
-    </row>
-    <row r="245" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A245" s="4" t="s">
+      <c r="B246" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C246" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B245" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C245" s="2" t="s">
+      <c r="D246" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="D245" s="2" t="s">
+      <c r="E246" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="E245" s="2" t="s">
+    </row>
+    <row r="247" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A247" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C247" s="2" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="246" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A246" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="B246" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C246" s="2" t="s">
+      <c r="D247" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="D246" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A247" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="B247" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>384</v>
-      </c>
       <c r="E247" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="248" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B248" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A249" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B249" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C248" s="2" t="s">
+      <c r="C249" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D249" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="D248" s="2" t="s">
+      <c r="E249" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A250" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="E248" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A249" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="B249" s="6"/>
-      <c r="C249" s="7"/>
-      <c r="D249" s="7"/>
-      <c r="E249" s="7"/>
-      <c r="F249" s="7"/>
-      <c r="G249" s="7"/>
-      <c r="H249" s="7"/>
-      <c r="I249" s="12"/>
-      <c r="J249" s="7"/>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A250" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="B250" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>391</v>
-      </c>
+      <c r="B250" s="6"/>
+      <c r="C250" s="7"/>
+      <c r="D250" s="7"/>
+      <c r="E250" s="7"/>
+      <c r="F250" s="7"/>
+      <c r="G250" s="7"/>
+      <c r="H250" s="7"/>
+      <c r="I250" s="12"/>
+      <c r="J250" s="7"/>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C251" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B251" s="4" t="s">
+      <c r="D251" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A252" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B252" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C251" s="2" t="s">
+      <c r="C252" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D252" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D251" s="2" t="s">
+      <c r="E252" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="E251" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A252" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="B252" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E252" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="253" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>77</v>
@@ -16612,16 +16641,16 @@
     </row>
     <row r="254" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>77</v>
@@ -16629,16 +16658,16 @@
     </row>
     <row r="255" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>77</v>
@@ -16646,19 +16675,36 @@
     </row>
     <row r="256" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B256" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A257" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B257" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C256" s="2" t="s">
+      <c r="C257" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E257" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E256" s="2" t="s">
-        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -16689,23 +16735,23 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B5" t="s">
         <v>404</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>405</v>
-      </c>
-      <c r="C5" t="s">
-        <v>406</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -16716,10 +16762,10 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
+        <v>406</v>
+      </c>
+      <c r="C6" t="s">
         <v>407</v>
-      </c>
-      <c r="C6" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -16727,10 +16773,10 @@
         <v>39</v>
       </c>
       <c r="B7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C7" t="s">
         <v>409</v>
-      </c>
-      <c r="C7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -16738,10 +16784,10 @@
         <v>46</v>
       </c>
       <c r="B8" t="s">
+        <v>410</v>
+      </c>
+      <c r="C8" t="s">
         <v>411</v>
-      </c>
-      <c r="C8" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -16749,10 +16795,10 @@
         <v>72</v>
       </c>
       <c r="B9" t="s">
+        <v>412</v>
+      </c>
+      <c r="C9" t="s">
         <v>413</v>
-      </c>
-      <c r="C9" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -16760,10 +16806,10 @@
         <v>74</v>
       </c>
       <c r="B10" t="s">
+        <v>414</v>
+      </c>
+      <c r="C10" t="s">
         <v>415</v>
-      </c>
-      <c r="C10" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -16771,21 +16817,21 @@
         <v>104</v>
       </c>
       <c r="B11" t="s">
+        <v>416</v>
+      </c>
+      <c r="C11" t="s">
         <v>417</v>
-      </c>
-      <c r="C11" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B12" t="s">
         <v>419</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>420</v>
-      </c>
-      <c r="C12" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -16793,10 +16839,10 @@
         <v>147</v>
       </c>
       <c r="B13" t="s">
+        <v>421</v>
+      </c>
+      <c r="C13" t="s">
         <v>422</v>
-      </c>
-      <c r="C13" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -16804,10 +16850,10 @@
         <v>168</v>
       </c>
       <c r="B14" t="s">
+        <v>423</v>
+      </c>
+      <c r="C14" t="s">
         <v>424</v>
-      </c>
-      <c r="C14" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -16815,10 +16861,10 @@
         <v>192</v>
       </c>
       <c r="B15" t="s">
+        <v>425</v>
+      </c>
+      <c r="C15" t="s">
         <v>426</v>
-      </c>
-      <c r="C15" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -16826,10 +16872,10 @@
         <v>206</v>
       </c>
       <c r="B16" t="s">
+        <v>427</v>
+      </c>
+      <c r="C16" t="s">
         <v>428</v>
-      </c>
-      <c r="C16" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -16837,10 +16883,10 @@
         <v>225</v>
       </c>
       <c r="B17" t="s">
+        <v>429</v>
+      </c>
+      <c r="C17" t="s">
         <v>430</v>
-      </c>
-      <c r="C17" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -16848,10 +16894,10 @@
         <v>245</v>
       </c>
       <c r="B18" t="s">
+        <v>431</v>
+      </c>
+      <c r="C18" t="s">
         <v>432</v>
-      </c>
-      <c r="C18" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -16862,7 +16908,7 @@
         <v>261</v>
       </c>
       <c r="C19" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -16870,10 +16916,10 @@
         <v>265</v>
       </c>
       <c r="B20" t="s">
+        <v>434</v>
+      </c>
+      <c r="C20" t="s">
         <v>435</v>
-      </c>
-      <c r="C20" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -16881,10 +16927,10 @@
         <v>289</v>
       </c>
       <c r="B21" t="s">
+        <v>436</v>
+      </c>
+      <c r="C21" t="s">
         <v>437</v>
-      </c>
-      <c r="C21" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -16892,10 +16938,10 @@
         <v>291</v>
       </c>
       <c r="B22" t="s">
+        <v>438</v>
+      </c>
+      <c r="C22" t="s">
         <v>439</v>
-      </c>
-      <c r="C22" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -16903,10 +16949,10 @@
         <v>293</v>
       </c>
       <c r="B23" t="s">
+        <v>440</v>
+      </c>
+      <c r="C23" t="s">
         <v>441</v>
-      </c>
-      <c r="C23" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -16914,10 +16960,10 @@
         <v>295</v>
       </c>
       <c r="B24" t="s">
+        <v>442</v>
+      </c>
+      <c r="C24" t="s">
         <v>443</v>
-      </c>
-      <c r="C24" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -16925,10 +16971,10 @@
         <v>311</v>
       </c>
       <c r="B25" t="s">
+        <v>444</v>
+      </c>
+      <c r="C25" t="s">
         <v>445</v>
-      </c>
-      <c r="C25" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -16936,54 +16982,54 @@
         <v>325</v>
       </c>
       <c r="B26" t="s">
+        <v>446</v>
+      </c>
+      <c r="C26" t="s">
         <v>447</v>
-      </c>
-      <c r="C26" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B27" t="s">
+        <v>448</v>
+      </c>
+      <c r="C27" t="s">
         <v>449</v>
-      </c>
-      <c r="C27" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B28" t="s">
+        <v>450</v>
+      </c>
+      <c r="C28" t="s">
         <v>451</v>
-      </c>
-      <c r="C28" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B29" t="s">
+        <v>452</v>
+      </c>
+      <c r="C29" t="s">
         <v>453</v>
-      </c>
-      <c r="C29" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B30" t="s">
+        <v>454</v>
+      </c>
+      <c r="C30" t="s">
         <v>455</v>
-      </c>
-      <c r="C30" t="s">
-        <v>456</v>
       </c>
     </row>
   </sheetData>

--- a/docs/test/test-cases template-v1.1.xlsx
+++ b/docs/test/test-cases template-v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PA\Year 3\Software Engineering\Lab\E-commerce\E-commerce_Web_Application\docs\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042F7F94-13B7-4C4A-B66B-54946411A15C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1B5078-6C65-4C05-9B5C-1416E14B1C12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="526">
   <si>
     <t>Function/Feature ID</t>
   </si>
@@ -10794,7 +10794,7 @@
   <dimension ref="A1:J257"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A221" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G232" sqref="G232:I244"/>
+      <selection activeCell="O226" sqref="O226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16212,9 +16212,15 @@
       <c r="F232" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="G232" s="16"/>
-      <c r="H232" s="5"/>
-      <c r="I232" s="17"/>
+      <c r="G232" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H232" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I232" s="17" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
@@ -16235,9 +16241,15 @@
       <c r="F233" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="G233" s="16"/>
-      <c r="H233" s="5"/>
-      <c r="I233" s="17"/>
+      <c r="G233" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H233" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I233" s="17" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
@@ -16258,9 +16270,15 @@
       <c r="F234" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="G234" s="16"/>
-      <c r="H234" s="5"/>
-      <c r="I234" s="17"/>
+      <c r="G234" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H234" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I234" s="17" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
@@ -16281,9 +16299,15 @@
       <c r="F235" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="G235" s="16"/>
-      <c r="H235" s="5"/>
-      <c r="I235" s="17"/>
+      <c r="G235" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H235" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I235" s="17" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
@@ -16304,9 +16328,15 @@
       <c r="F236" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="G236" s="16"/>
-      <c r="H236" s="5"/>
-      <c r="I236" s="17"/>
+      <c r="G236" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H236" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I236" s="17" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
@@ -16327,9 +16357,15 @@
       <c r="F237" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="G237" s="16"/>
-      <c r="H237" s="5"/>
-      <c r="I237" s="17"/>
+      <c r="G237" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H237" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I237" s="17" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
@@ -16350,9 +16386,15 @@
       <c r="F238" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="G238" s="16"/>
-      <c r="H238" s="5"/>
-      <c r="I238" s="17"/>
+      <c r="G238" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H238" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I238" s="17" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
@@ -16373,9 +16415,15 @@
       <c r="F239" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="G239" s="16"/>
-      <c r="H239" s="5"/>
-      <c r="I239" s="17"/>
+      <c r="G239" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H239" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I239" s="17" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
@@ -16396,9 +16444,15 @@
       <c r="F240" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="G240" s="16"/>
-      <c r="H240" s="5"/>
-      <c r="I240" s="17"/>
+      <c r="G240" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H240" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I240" s="17" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
@@ -16419,9 +16473,15 @@
       <c r="F241" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="G241" s="16"/>
-      <c r="H241" s="5"/>
-      <c r="I241" s="17"/>
+      <c r="G241" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H241" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I241" s="17" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
@@ -16442,9 +16502,15 @@
       <c r="F242" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="G242" s="16"/>
-      <c r="H242" s="5"/>
-      <c r="I242" s="17"/>
+      <c r="G242" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H242" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I242" s="17" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="243" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
@@ -16465,9 +16531,15 @@
       <c r="F243" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="G243" s="16"/>
-      <c r="H243" s="5"/>
-      <c r="I243" s="17"/>
+      <c r="G243" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H243" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I243" s="17" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="244" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
@@ -16488,9 +16560,15 @@
       <c r="F244" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="G244" s="16"/>
-      <c r="H244" s="5"/>
-      <c r="I244" s="17"/>
+      <c r="G244" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H244" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I244" s="17" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">

--- a/docs/test/test-cases template-v1.1.xlsx
+++ b/docs/test/test-cases template-v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PA\Year 3\Software Engineering\Lab\E-commerce\E-commerce_Web_Application\docs\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1B5078-6C65-4C05-9B5C-1416E14B1C12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE83B498-E403-454C-ACC3-53A782B69A02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="525">
   <si>
     <t>Function/Feature ID</t>
   </si>
@@ -5049,54 +5049,6 @@
     <t>UC20</t>
   </si>
   <si>
-    <t xml:space="preserve">1. On profile's shopping history
-2. Click picture of product 1 </t>
-  </si>
-  <si>
-    <t>1. On profile's shopping history
-2. Click picture of product 2</t>
-  </si>
-  <si>
-    <t>Click on product 3</t>
-  </si>
-  <si>
-    <t>1. On profile's shopping history
-2. Click picture of product 3</t>
-  </si>
-  <si>
-    <t>1. Proceed to product detail of product 3</t>
-  </si>
-  <si>
-    <t>Click on product 4</t>
-  </si>
-  <si>
-    <t>1. On profile's shopping history
-2. Click picture of product 4</t>
-  </si>
-  <si>
-    <t>1. Proceed to product detail of product 4</t>
-  </si>
-  <si>
-    <t>Click on product 5</t>
-  </si>
-  <si>
-    <t>1. On profile's shopping history
-2. Click picture of product 5</t>
-  </si>
-  <si>
-    <t>1. Proceed to product detail of product 5</t>
-  </si>
-  <si>
-    <t>Click on product 6</t>
-  </si>
-  <si>
-    <t>1. On profile's shopping history
-2. Click picture of product 6</t>
-  </si>
-  <si>
-    <t>1. Proceed to product detail of product 6</t>
-  </si>
-  <si>
     <t>Function 21: Add comment</t>
   </si>
   <si>
@@ -10193,6 +10145,45 @@
       </rPr>
       <t>" button</t>
     </r>
+  </si>
+  <si>
+    <t>View order date</t>
+  </si>
+  <si>
+    <t>View total price</t>
+  </si>
+  <si>
+    <t>View receive date</t>
+  </si>
+  <si>
+    <t>View order id</t>
+  </si>
+  <si>
+    <t>1. Display product id</t>
+  </si>
+  <si>
+    <t>1. Display total price of order</t>
+  </si>
+  <si>
+    <t>1. Display simple date time format of the order date</t>
+  </si>
+  <si>
+    <t>1. Display date time of the order date</t>
+  </si>
+  <si>
+    <t>1. Display date time of the order receive date</t>
+  </si>
+  <si>
+    <t>1. Display long date time format of the order date</t>
+  </si>
+  <si>
+    <t>23/12/2020</t>
+  </si>
+  <si>
+    <t>1. Error request not found</t>
+  </si>
+  <si>
+    <t>1. Display error message: must choose at least one prodct</t>
   </si>
 </sst>
 </file>
@@ -10202,7 +10193,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10265,8 +10256,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10295,8 +10298,14 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -10322,13 +10331,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF4F81BD"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -10411,6 +10429,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -10791,10 +10818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J257"/>
+  <dimension ref="A1:J255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O226" sqref="O226"/>
+    <sheetView tabSelected="1" topLeftCell="A224" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M245" sqref="M245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10804,7 +10831,7 @@
     <col min="3" max="3" width="28.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="40" style="2" customWidth="1"/>
     <col min="5" max="6" width="57.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="2" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="28.5703125" style="2" customWidth="1"/>
@@ -10958,10 +10985,10 @@
         <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>16</v>
@@ -10987,10 +11014,10 @@
         <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>16</v>
@@ -11016,13 +11043,13 @@
         <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>17</v>
@@ -11045,13 +11072,13 @@
         <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>17</v>
@@ -11175,10 +11202,10 @@
         <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>16</v>
@@ -11204,10 +11231,10 @@
         <v>42</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>16</v>
@@ -11233,13 +11260,13 @@
         <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>17</v>
@@ -11262,13 +11289,13 @@
         <v>44</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>17</v>
@@ -11302,7 +11329,7 @@
         <v>47</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>49</v>
@@ -11331,7 +11358,7 @@
         <v>50</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>51</v>
@@ -11360,7 +11387,7 @@
         <v>52</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>51</v>
@@ -11369,7 +11396,7 @@
         <v>49</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>17</v>
@@ -11389,7 +11416,7 @@
         <v>53</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>51</v>
@@ -11418,7 +11445,7 @@
         <v>54</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>49</v>
@@ -11447,7 +11474,7 @@
         <v>55</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>51</v>
@@ -11456,7 +11483,7 @@
         <v>49</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>17</v>
@@ -11572,7 +11599,7 @@
         <v>49</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>17</v>
@@ -11664,7 +11691,7 @@
         <v>47</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>49</v>
@@ -11693,7 +11720,7 @@
         <v>50</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>51</v>
@@ -11722,7 +11749,7 @@
         <v>52</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>51</v>
@@ -11731,7 +11758,7 @@
         <v>49</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>17</v>
@@ -11751,7 +11778,7 @@
         <v>53</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>51</v>
@@ -11780,7 +11807,7 @@
         <v>54</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>49</v>
@@ -11809,7 +11836,7 @@
         <v>55</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>51</v>
@@ -11818,7 +11845,7 @@
         <v>49</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>17</v>
@@ -11934,7 +11961,7 @@
         <v>49</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>17</v>
@@ -12251,7 +12278,7 @@
         <v>12</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>105</v>
@@ -12280,7 +12307,7 @@
         <v>19</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>107</v>
@@ -12289,7 +12316,7 @@
         <v>108</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="G59" s="15" t="s">
         <v>109</v>
@@ -12309,7 +12336,7 @@
         <v>23</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>110</v>
@@ -12321,7 +12348,7 @@
         <v>106</v>
       </c>
       <c r="G60" s="26" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>17</v>
@@ -12330,7 +12357,7 @@
         <v>18</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -12341,7 +12368,7 @@
         <v>26</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>112</v>
@@ -12370,7 +12397,7 @@
         <v>29</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>114</v>
@@ -12399,19 +12426,19 @@
         <v>32</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>106</v>
       </c>
       <c r="G63" s="26" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>17</v>
@@ -12420,7 +12447,7 @@
         <v>18</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -12431,19 +12458,19 @@
         <v>35</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>106</v>
       </c>
       <c r="G64" s="26" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>17</v>
@@ -12452,7 +12479,7 @@
         <v>18</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -12964,10 +12991,10 @@
         <v>93</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="G83" s="16" t="s">
         <v>16</v>
@@ -13054,7 +13081,7 @@
         <v>77</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="G86" s="27" t="s">
         <v>109</v>
@@ -13416,7 +13443,7 @@
         <v>77</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="G99" s="27" t="s">
         <v>109</v>
@@ -13800,7 +13827,7 @@
         <v>226</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="E114" s="23" t="s">
         <v>77</v>
@@ -13822,7 +13849,7 @@
         <v>227</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>77</v>
@@ -13840,7 +13867,7 @@
         <v>229</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>77</v>
@@ -13858,7 +13885,7 @@
         <v>230</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>77</v>
@@ -13876,7 +13903,7 @@
         <v>231</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>77</v>
@@ -13894,7 +13921,7 @@
         <v>232</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>77</v>
@@ -13912,7 +13939,7 @@
         <v>233</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>77</v>
@@ -13930,7 +13957,7 @@
         <v>234</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>77</v>
@@ -13948,7 +13975,7 @@
         <v>234</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>77</v>
@@ -13966,7 +13993,7 @@
         <v>234</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="E123" s="5" t="s">
         <v>77</v>
@@ -13984,7 +14011,7 @@
         <v>234</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>77</v>
@@ -14002,7 +14029,7 @@
         <v>234</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>77</v>
@@ -15151,33 +15178,33 @@
       <c r="I193" s="12"/>
       <c r="J193" s="7"/>
     </row>
-    <row r="194" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>295</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>151</v>
+        <v>512</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E194" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F194" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G194" s="16" t="s">
-        <v>16</v>
+        <v>519</v>
+      </c>
+      <c r="E194" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="F194" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="G194" s="28" t="s">
+        <v>464</v>
       </c>
       <c r="H194" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I194" s="17" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -15185,48 +15212,48 @@
         <v>295</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>154</v>
+        <v>514</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E195" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="F195" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G195" s="16" t="s">
-        <v>16</v>
+        <v>520</v>
+      </c>
+      <c r="E195" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="F195" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="G195" s="28" t="s">
+        <v>464</v>
       </c>
       <c r="H195" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I195" s="17" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>295</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>298</v>
+        <v>515</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E196" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="F196" s="5" t="s">
-        <v>300</v>
+        <v>516</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>516</v>
       </c>
       <c r="G196" s="16" t="s">
         <v>16</v>
@@ -15235,27 +15262,27 @@
         <v>17</v>
       </c>
       <c r="I196" s="17" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>295</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>301</v>
+        <v>513</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E197" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="F197" s="5" t="s">
-        <v>303</v>
+        <v>517</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>517</v>
       </c>
       <c r="G197" s="16" t="s">
         <v>16</v>
@@ -15264,56 +15291,41 @@
         <v>17</v>
       </c>
       <c r="I197" s="17" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A198" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E198" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="F198" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="G198" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H198" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I198" s="17" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A199" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>32</v>
+        <v>522</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B198" s="6"/>
+      <c r="C198" s="7"/>
+      <c r="D198" s="7"/>
+      <c r="E198" s="7"/>
+      <c r="F198" s="7"/>
+      <c r="G198" s="7"/>
+      <c r="H198" s="7"/>
+      <c r="I198" s="12"/>
+      <c r="J198" s="7"/>
+    </row>
+    <row r="199" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="E199" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="F199" s="5" t="s">
-        <v>309</v>
+        <v>491</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="G199" s="16" t="s">
         <v>16</v>
@@ -15322,41 +15334,56 @@
         <v>17</v>
       </c>
       <c r="I199" s="17" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A200" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="B200" s="6"/>
-      <c r="C200" s="7"/>
-      <c r="D200" s="7"/>
-      <c r="E200" s="7"/>
-      <c r="F200" s="7"/>
-      <c r="G200" s="7"/>
-      <c r="H200" s="7"/>
-      <c r="I200" s="12"/>
-      <c r="J200" s="7"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A200" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G200" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H200" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I200" s="17" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="201" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>12</v>
+        <v>297</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>117</v>
+        <v>492</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>117</v>
+        <v>492</v>
       </c>
       <c r="G201" s="16" t="s">
         <v>16</v>
@@ -15365,143 +15392,143 @@
         <v>17</v>
       </c>
       <c r="I201" s="17" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
     </row>
     <row r="202" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>19</v>
+        <v>297</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="G202" s="16" t="s">
-        <v>16</v>
+        <v>117</v>
+      </c>
+      <c r="G202" s="28" t="s">
+        <v>464</v>
       </c>
       <c r="H202" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I202" s="17" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="G203" s="16" t="s">
-        <v>16</v>
+        <v>117</v>
+      </c>
+      <c r="G203" s="28" t="s">
+        <v>464</v>
       </c>
       <c r="H203" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I203" s="17" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G204" s="28" t="s">
-        <v>478</v>
+        <v>492</v>
+      </c>
+      <c r="G204" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="H204" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I204" s="17" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G205" s="28" t="s">
-        <v>478</v>
+        <v>492</v>
+      </c>
+      <c r="G205" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="H205" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I205" s="17" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>32</v>
+        <v>297</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="G206" s="16" t="s">
         <v>16</v>
@@ -15510,27 +15537,27 @@
         <v>17</v>
       </c>
       <c r="I206" s="17" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B207" s="4" t="s">
-        <v>35</v>
+        <v>297</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="G207" s="16" t="s">
         <v>16</v>
@@ -15539,27 +15566,27 @@
         <v>17</v>
       </c>
       <c r="I207" s="17" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="G208" s="16" t="s">
         <v>16</v>
@@ -15568,27 +15595,27 @@
         <v>17</v>
       </c>
       <c r="I208" s="17" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
     </row>
     <row r="209" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>61</v>
+        <v>297</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>322</v>
+        <v>481</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G209" s="16" t="s">
         <v>16</v>
@@ -15597,128 +15624,128 @@
         <v>17</v>
       </c>
       <c r="I209" s="17" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
     </row>
     <row r="210" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>323</v>
+        <v>495</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>506</v>
+        <v>299</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="G210" s="16" t="s">
-        <v>16</v>
+        <v>117</v>
+      </c>
+      <c r="G210" s="28" t="s">
+        <v>464</v>
       </c>
       <c r="H210" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I210" s="17" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A211" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B211" s="6"/>
+      <c r="C211" s="7"/>
+      <c r="D211" s="7"/>
+      <c r="E211" s="7"/>
+      <c r="F211" s="7"/>
+      <c r="G211" s="7"/>
+      <c r="H211" s="7"/>
+      <c r="I211" s="12"/>
+      <c r="J211" s="7"/>
+    </row>
+    <row r="212" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="B211" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="G211" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H211" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I211" s="17" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A212" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="B212" s="4" t="s">
-        <v>69</v>
+      <c r="B212" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>509</v>
+        <v>312</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>313</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G212" s="28" t="s">
-        <v>478</v>
+        <v>313</v>
+      </c>
+      <c r="G212" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="H212" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I212" s="17" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A213" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="B213" s="6"/>
-      <c r="C213" s="7"/>
-      <c r="D213" s="7"/>
-      <c r="E213" s="7"/>
-      <c r="F213" s="7"/>
-      <c r="G213" s="7"/>
-      <c r="H213" s="7"/>
-      <c r="I213" s="12"/>
-      <c r="J213" s="7"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A213" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G213" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="H213" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I213" s="17" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="214" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>327</v>
+        <v>501</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>327</v>
+        <v>501</v>
       </c>
       <c r="G214" s="16" t="s">
         <v>16</v>
@@ -15727,56 +15754,56 @@
         <v>17</v>
       </c>
       <c r="I214" s="17" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
     </row>
     <row r="215" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>511</v>
+        <v>315</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G215" s="28" t="s">
-        <v>478</v>
+        <v>503</v>
+      </c>
+      <c r="G215" s="27" t="s">
+        <v>109</v>
       </c>
       <c r="H215" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I215" s="17" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
     </row>
     <row r="216" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>515</v>
+        <v>313</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>515</v>
+        <v>313</v>
       </c>
       <c r="G216" s="16" t="s">
         <v>16</v>
@@ -15785,56 +15812,56 @@
         <v>17</v>
       </c>
       <c r="I216" s="17" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
     </row>
     <row r="217" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="G217" s="27" t="s">
-        <v>109</v>
+        <v>504</v>
+      </c>
+      <c r="G217" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="H217" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I217" s="17" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
     </row>
     <row r="218" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>327</v>
+        <v>504</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>327</v>
+        <v>504</v>
       </c>
       <c r="G218" s="16" t="s">
         <v>16</v>
@@ -15843,27 +15870,27 @@
         <v>17</v>
       </c>
       <c r="I218" s="17" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
     </row>
     <row r="219" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="G219" s="16" t="s">
         <v>16</v>
@@ -15872,56 +15899,41 @@
         <v>17</v>
       </c>
       <c r="I219" s="17" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A220" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="B220" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="G220" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H220" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I220" s="17" t="s">
-        <v>494</v>
-      </c>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="B220" s="6"/>
+      <c r="C220" s="7"/>
+      <c r="D220" s="7"/>
+      <c r="E220" s="7"/>
+      <c r="F220" s="7"/>
+      <c r="G220" s="7"/>
+      <c r="H220" s="7"/>
+      <c r="I220" s="12"/>
+      <c r="J220" s="7"/>
     </row>
     <row r="221" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>519</v>
+        <v>313</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>519</v>
+        <v>313</v>
       </c>
       <c r="G221" s="16" t="s">
         <v>16</v>
@@ -15930,41 +15942,56 @@
         <v>17</v>
       </c>
       <c r="I221" s="17" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A222" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="B222" s="6"/>
-      <c r="C222" s="7"/>
-      <c r="D222" s="7"/>
-      <c r="E222" s="7"/>
-      <c r="F222" s="7"/>
-      <c r="G222" s="7"/>
-      <c r="H222" s="7"/>
-      <c r="I222" s="12"/>
-      <c r="J222" s="7"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A222" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G222" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="H222" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I222" s="17" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="223" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>327</v>
+        <v>501</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>327</v>
+        <v>501</v>
       </c>
       <c r="G223" s="16" t="s">
         <v>16</v>
@@ -15973,56 +16000,56 @@
         <v>17</v>
       </c>
       <c r="I223" s="17" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
     </row>
     <row r="224" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>511</v>
+        <v>315</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G224" s="28" t="s">
-        <v>478</v>
+        <v>503</v>
+      </c>
+      <c r="G224" s="27" t="s">
+        <v>109</v>
       </c>
       <c r="H224" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I224" s="17" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
     </row>
     <row r="225" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>515</v>
+        <v>313</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>515</v>
+        <v>313</v>
       </c>
       <c r="G225" s="16" t="s">
         <v>16</v>
@@ -16031,56 +16058,56 @@
         <v>17</v>
       </c>
       <c r="I225" s="17" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
     </row>
     <row r="226" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="G226" s="27" t="s">
-        <v>109</v>
+        <v>504</v>
+      </c>
+      <c r="G226" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="H226" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I226" s="17" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
     </row>
     <row r="227" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>327</v>
+        <v>504</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>327</v>
+        <v>504</v>
       </c>
       <c r="G227" s="16" t="s">
         <v>16</v>
@@ -16089,27 +16116,27 @@
         <v>17</v>
       </c>
       <c r="I227" s="17" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
     </row>
     <row r="228" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="G228" s="16" t="s">
         <v>16</v>
@@ -16118,56 +16145,41 @@
         <v>17</v>
       </c>
       <c r="I228" s="17" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A229" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="B229" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F229" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="G229" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H229" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I229" s="17" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B229" s="6"/>
+      <c r="C229" s="7"/>
+      <c r="D229" s="7"/>
+      <c r="E229" s="7"/>
+      <c r="F229" s="7"/>
+      <c r="G229" s="7"/>
+      <c r="H229" s="7"/>
+      <c r="I229" s="12"/>
+      <c r="J229" s="7"/>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="B230" s="4" t="s">
-        <v>58</v>
+        <v>323</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>525</v>
+        <v>325</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>519</v>
+        <v>326</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>519</v>
+        <v>326</v>
       </c>
       <c r="G230" s="16" t="s">
         <v>16</v>
@@ -16176,41 +16188,56 @@
         <v>17</v>
       </c>
       <c r="I230" s="17" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A231" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="B231" s="6"/>
-      <c r="C231" s="7"/>
-      <c r="D231" s="7"/>
-      <c r="E231" s="7"/>
-      <c r="F231" s="7"/>
-      <c r="G231" s="7"/>
-      <c r="H231" s="7"/>
-      <c r="I231" s="12"/>
-      <c r="J231" s="7"/>
+      <c r="A231" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G231" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H231" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I231" s="17" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="B232" s="3" t="s">
-        <v>12</v>
+        <v>323</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G232" s="16" t="s">
         <v>16</v>
@@ -16219,27 +16246,27 @@
         <v>17</v>
       </c>
       <c r="I232" s="17" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="B233" s="4" t="s">
-        <v>19</v>
+        <v>323</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="G233" s="16" t="s">
         <v>16</v>
@@ -16248,27 +16275,27 @@
         <v>17</v>
       </c>
       <c r="I233" s="17" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D234" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B234" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>345</v>
-      </c>
       <c r="E234" s="2" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="G234" s="16" t="s">
         <v>16</v>
@@ -16277,27 +16304,27 @@
         <v>17</v>
       </c>
       <c r="I234" s="17" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="B235" s="3" t="s">
-        <v>26</v>
+        <v>323</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="G235" s="16" t="s">
         <v>16</v>
@@ -16306,27 +16333,27 @@
         <v>17</v>
       </c>
       <c r="I235" s="17" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G236" s="16" t="s">
         <v>16</v>
@@ -16335,27 +16362,27 @@
         <v>17</v>
       </c>
       <c r="I236" s="17" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="B237" s="4" t="s">
-        <v>32</v>
+        <v>323</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="G237" s="16" t="s">
         <v>16</v>
@@ -16364,27 +16391,27 @@
         <v>17</v>
       </c>
       <c r="I237" s="17" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="G238" s="16" t="s">
         <v>16</v>
@@ -16393,27 +16420,27 @@
         <v>17</v>
       </c>
       <c r="I238" s="17" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="B239" s="3" t="s">
-        <v>58</v>
+        <v>323</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G239" s="16" t="s">
         <v>16</v>
@@ -16422,27 +16449,27 @@
         <v>17</v>
       </c>
       <c r="I239" s="17" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="B240" s="4" t="s">
-        <v>61</v>
+        <v>323</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G240" s="16" t="s">
         <v>16</v>
@@ -16451,27 +16478,27 @@
         <v>17</v>
       </c>
       <c r="I240" s="17" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="G241" s="16" t="s">
         <v>16</v>
@@ -16480,27 +16507,27 @@
         <v>17</v>
       </c>
       <c r="I241" s="17" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="B242" s="3" t="s">
-        <v>67</v>
+        <v>323</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G242" s="16" t="s">
         <v>16</v>
@@ -16509,209 +16536,237 @@
         <v>17</v>
       </c>
       <c r="I242" s="17" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A243" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="B243" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="G243" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H243" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I243" s="17" t="s">
-        <v>494</v>
-      </c>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A243" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B243" s="6"/>
+      <c r="C243" s="7"/>
+      <c r="D243" s="7"/>
+      <c r="E243" s="7"/>
+      <c r="F243" s="7"/>
+      <c r="G243" s="7"/>
+      <c r="H243" s="7"/>
+      <c r="I243" s="12"/>
+      <c r="J243" s="7"/>
     </row>
     <row r="244" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="G244" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H244" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="G244" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="H244" s="30" t="s">
         <v>17</v>
       </c>
       <c r="I244" s="17" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A245" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="B245" s="6"/>
-      <c r="C245" s="7"/>
-      <c r="D245" s="7"/>
-      <c r="E245" s="7"/>
-      <c r="F245" s="7"/>
-      <c r="G245" s="7"/>
-      <c r="H245" s="7"/>
-      <c r="I245" s="12"/>
-      <c r="J245" s="7"/>
+        <v>522</v>
+      </c>
+      <c r="J244" s="31"/>
+    </row>
+    <row r="245" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A245" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="G245" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="H245" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I245" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="J245" s="31"/>
     </row>
     <row r="246" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="G246" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="H246" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I246" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="J246" s="31"/>
+    </row>
+    <row r="247" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A247" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="G247" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="H247" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I247" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="J247" s="31"/>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A248" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B248" s="6"/>
+      <c r="C248" s="7"/>
+      <c r="D248" s="7"/>
+      <c r="E248" s="7"/>
+      <c r="F248" s="7"/>
+      <c r="G248" s="7"/>
+      <c r="H248" s="7"/>
+      <c r="I248" s="12"/>
+      <c r="J248" s="7"/>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A249" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E249" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B246" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C246" s="2" t="s">
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A250" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C250" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D246" s="2" t="s">
+      <c r="D250" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="E246" s="2" t="s">
+      <c r="E250" s="2" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="247" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A247" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="B247" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C247" s="2" t="s">
+    <row r="251" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A251" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C251" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="D247" s="2" t="s">
+      <c r="D251" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="E247" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A248" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="B248" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C248" s="2" t="s">
+      <c r="E251" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A252" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C252" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D248" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A249" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="B249" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="E249" s="2" t="s">
+      <c r="D252" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E252" s="2" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A250" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="B250" s="6"/>
-      <c r="C250" s="7"/>
-      <c r="D250" s="7"/>
-      <c r="E250" s="7"/>
-      <c r="F250" s="7"/>
-      <c r="G250" s="7"/>
-      <c r="H250" s="7"/>
-      <c r="I250" s="12"/>
-      <c r="J250" s="7"/>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A251" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="B251" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="E251" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A252" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="B252" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="E252" s="2" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="253" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>77</v>
@@ -16719,16 +16774,16 @@
     </row>
     <row r="254" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>77</v>
@@ -16736,53 +16791,19 @@
     </row>
     <row r="255" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A256" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="B256" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="E256" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A257" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="B257" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="E257" s="2" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -16813,23 +16834,23 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="B5" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="C5" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -16840,10 +16861,10 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="C6" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -16851,10 +16872,10 @@
         <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="C7" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -16862,10 +16883,10 @@
         <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C8" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -16873,10 +16894,10 @@
         <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C9" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -16884,10 +16905,10 @@
         <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="C10" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -16895,21 +16916,21 @@
         <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="C11" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="B12" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="C12" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -16917,10 +16938,10 @@
         <v>147</v>
       </c>
       <c r="B13" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="C13" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -16928,10 +16949,10 @@
         <v>168</v>
       </c>
       <c r="B14" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="C14" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -16939,10 +16960,10 @@
         <v>192</v>
       </c>
       <c r="B15" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="C15" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -16950,10 +16971,10 @@
         <v>206</v>
       </c>
       <c r="B16" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="C16" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -16961,10 +16982,10 @@
         <v>225</v>
       </c>
       <c r="B17" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="C17" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -16972,10 +16993,10 @@
         <v>245</v>
       </c>
       <c r="B18" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="C18" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -16986,7 +17007,7 @@
         <v>261</v>
       </c>
       <c r="C19" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -16994,10 +17015,10 @@
         <v>265</v>
       </c>
       <c r="B20" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="C20" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -17005,10 +17026,10 @@
         <v>289</v>
       </c>
       <c r="B21" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="C21" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -17016,10 +17037,10 @@
         <v>291</v>
       </c>
       <c r="B22" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="C22" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -17027,10 +17048,10 @@
         <v>293</v>
       </c>
       <c r="B23" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="C23" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -17038,76 +17059,76 @@
         <v>295</v>
       </c>
       <c r="B24" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="C24" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="B25" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="C25" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="B26" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="C26" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B27" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="C27" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B28" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C28" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="B29" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="C29" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="B30" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="C30" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>

--- a/docs/test/test-cases template-v1.1.xlsx
+++ b/docs/test/test-cases template-v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PA\Year 3\Software Engineering\Lab\E-commerce\E-commerce_Web_Application\docs\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE83B498-E403-454C-ACC3-53A782B69A02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174D8ADB-76E0-43EF-A152-AF61E489E871}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="527">
   <si>
     <t>Function/Feature ID</t>
   </si>
@@ -7820,10 +7820,6 @@
 2. A user name can not contain special character notice will  be displayed</t>
   </si>
   <si>
-    <t>1. Unauthenticated
-2. A password can not contain special character notice will  be displayed</t>
-  </si>
-  <si>
     <t>Search by product name</t>
   </si>
   <si>
@@ -10184,6 +10180,142 @@
   </si>
   <si>
     <t>1. Display error message: must choose at least one prodct</t>
+  </si>
+  <si>
+    <t>fixed 25/12/2020</t>
+  </si>
+  <si>
+    <t>Register with password containing sapce character</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter email: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example5@gmail.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+2. Enter username: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+3. Enter fullname: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" 
+4. Enter password: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exa mple;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+5. Confirm password: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+6. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -10820,8 +10952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M245" sqref="M245"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11049,7 +11181,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>17</v>
@@ -11072,13 +11204,13 @@
         <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>457</v>
+        <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>464</v>
+        <v>15</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>17</v>
@@ -11266,7 +11398,7 @@
         <v>22</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>17</v>
@@ -11289,13 +11421,13 @@
         <v>44</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>457</v>
+        <v>15</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>464</v>
+        <v>15</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>17</v>
@@ -11329,7 +11461,7 @@
         <v>47</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>49</v>
@@ -11358,7 +11490,7 @@
         <v>50</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>51</v>
@@ -11387,22 +11519,25 @@
         <v>52</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>18</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="90" x14ac:dyDescent="0.25">
@@ -11416,7 +11551,7 @@
         <v>53</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>51</v>
@@ -11442,25 +11577,28 @@
         <v>29</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>54</v>
+        <v>525</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>477</v>
+        <v>526</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="14" t="s">
-        <v>16</v>
+      <c r="G23" s="26" t="s">
+        <v>463</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>18</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="90" x14ac:dyDescent="0.25">
@@ -11474,7 +11612,7 @@
         <v>55</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>51</v>
@@ -11483,13 +11621,16 @@
         <v>49</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>18</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="90" x14ac:dyDescent="0.25">
@@ -11599,13 +11740,16 @@
         <v>49</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>18</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="90" x14ac:dyDescent="0.25">
@@ -11691,7 +11835,7 @@
         <v>47</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>49</v>
@@ -11720,7 +11864,7 @@
         <v>50</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>51</v>
@@ -11749,22 +11893,25 @@
         <v>52</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>18</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="90" x14ac:dyDescent="0.25">
@@ -11778,7 +11925,7 @@
         <v>53</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>51</v>
@@ -11807,22 +11954,25 @@
         <v>54</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G36" s="14" t="s">
-        <v>16</v>
+      <c r="G36" s="26" t="s">
+        <v>463</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>18</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="90" x14ac:dyDescent="0.25">
@@ -11836,7 +11986,7 @@
         <v>55</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>51</v>
@@ -11845,13 +11995,16 @@
         <v>49</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I37" s="9" t="s">
         <v>18</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="90" x14ac:dyDescent="0.25">
@@ -11961,13 +12114,16 @@
         <v>49</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I41" s="9" t="s">
         <v>18</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="90" x14ac:dyDescent="0.25">
@@ -12278,7 +12434,7 @@
         <v>12</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>105</v>
@@ -12307,7 +12463,7 @@
         <v>19</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>107</v>
@@ -12316,7 +12472,7 @@
         <v>108</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G59" s="15" t="s">
         <v>109</v>
@@ -12336,7 +12492,7 @@
         <v>23</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>110</v>
@@ -12348,7 +12504,7 @@
         <v>106</v>
       </c>
       <c r="G60" s="26" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>17</v>
@@ -12357,7 +12513,7 @@
         <v>18</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -12368,7 +12524,7 @@
         <v>26</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>112</v>
@@ -12397,7 +12553,7 @@
         <v>29</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>114</v>
@@ -12426,19 +12582,19 @@
         <v>32</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>467</v>
-      </c>
       <c r="E63" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>106</v>
       </c>
       <c r="G63" s="26" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>17</v>
@@ -12447,7 +12603,7 @@
         <v>18</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -12458,19 +12614,19 @@
         <v>35</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>106</v>
       </c>
       <c r="G64" s="26" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>17</v>
@@ -12479,7 +12635,7 @@
         <v>18</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -12991,10 +13147,10 @@
         <v>93</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G83" s="16" t="s">
         <v>16</v>
@@ -13081,7 +13237,7 @@
         <v>77</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G86" s="27" t="s">
         <v>109</v>
@@ -13443,7 +13599,7 @@
         <v>77</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G99" s="27" t="s">
         <v>109</v>
@@ -15186,25 +15342,25 @@
         <v>35</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E194" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F194" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G194" s="28" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H194" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I194" s="17" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -15215,25 +15371,25 @@
         <v>58</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E195" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F195" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G195" s="28" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H195" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I195" s="17" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
@@ -15244,16 +15400,16 @@
         <v>61</v>
       </c>
       <c r="C196" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="D196" s="2" t="s">
-        <v>516</v>
-      </c>
       <c r="E196" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G196" s="16" t="s">
         <v>16</v>
@@ -15262,7 +15418,7 @@
         <v>17</v>
       </c>
       <c r="I196" s="17" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
@@ -15273,16 +15429,16 @@
         <v>64</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G197" s="16" t="s">
         <v>16</v>
@@ -15291,7 +15447,7 @@
         <v>17</v>
       </c>
       <c r="I197" s="17" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15319,7 +15475,7 @@
         <v>298</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>117</v>
@@ -15334,7 +15490,7 @@
         <v>17</v>
       </c>
       <c r="I199" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -15348,13 +15504,13 @@
         <v>300</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G200" s="16" t="s">
         <v>16</v>
@@ -15363,7 +15519,7 @@
         <v>17</v>
       </c>
       <c r="I200" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="201" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -15377,13 +15533,13 @@
         <v>301</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G201" s="16" t="s">
         <v>16</v>
@@ -15392,7 +15548,7 @@
         <v>17</v>
       </c>
       <c r="I201" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="202" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -15406,22 +15562,22 @@
         <v>302</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>117</v>
       </c>
       <c r="G202" s="28" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H202" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I202" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -15435,22 +15591,22 @@
         <v>303</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>117</v>
       </c>
       <c r="G203" s="28" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H203" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I203" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -15464,13 +15620,13 @@
         <v>305</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G204" s="16" t="s">
         <v>16</v>
@@ -15479,7 +15635,7 @@
         <v>17</v>
       </c>
       <c r="I204" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -15493,13 +15649,13 @@
         <v>306</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G205" s="16" t="s">
         <v>16</v>
@@ -15508,7 +15664,7 @@
         <v>17</v>
       </c>
       <c r="I205" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -15522,13 +15678,13 @@
         <v>307</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G206" s="16" t="s">
         <v>16</v>
@@ -15537,7 +15693,7 @@
         <v>17</v>
       </c>
       <c r="I206" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -15551,13 +15707,13 @@
         <v>308</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G207" s="16" t="s">
         <v>16</v>
@@ -15566,7 +15722,7 @@
         <v>17</v>
       </c>
       <c r="I207" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -15580,13 +15736,13 @@
         <v>309</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G208" s="16" t="s">
         <v>16</v>
@@ -15595,7 +15751,7 @@
         <v>17</v>
       </c>
       <c r="I208" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="209" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -15606,16 +15762,16 @@
         <v>67</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G209" s="16" t="s">
         <v>16</v>
@@ -15624,7 +15780,7 @@
         <v>17</v>
       </c>
       <c r="I209" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="210" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -15635,10 +15791,10 @@
         <v>69</v>
       </c>
       <c r="C210" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D210" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>496</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>299</v>
@@ -15647,13 +15803,13 @@
         <v>117</v>
       </c>
       <c r="G210" s="28" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H210" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I210" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
@@ -15681,7 +15837,7 @@
         <v>312</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>313</v>
@@ -15696,7 +15852,7 @@
         <v>17</v>
       </c>
       <c r="I212" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="213" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -15707,25 +15863,25 @@
         <v>19</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>313</v>
       </c>
       <c r="G213" s="28" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H213" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I213" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="214" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -15739,13 +15895,13 @@
         <v>314</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G214" s="16" t="s">
         <v>16</v>
@@ -15754,7 +15910,7 @@
         <v>17</v>
       </c>
       <c r="I214" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="215" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -15768,13 +15924,13 @@
         <v>315</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E215" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="F215" s="2" t="s">
         <v>502</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>503</v>
       </c>
       <c r="G215" s="27" t="s">
         <v>109</v>
@@ -15783,7 +15939,7 @@
         <v>17</v>
       </c>
       <c r="I215" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="216" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -15797,7 +15953,7 @@
         <v>316</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>313</v>
@@ -15812,7 +15968,7 @@
         <v>17</v>
       </c>
       <c r="I216" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="217" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -15826,13 +15982,13 @@
         <v>317</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G217" s="16" t="s">
         <v>16</v>
@@ -15841,7 +15997,7 @@
         <v>17</v>
       </c>
       <c r="I217" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="218" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -15855,13 +16011,13 @@
         <v>318</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G218" s="16" t="s">
         <v>16</v>
@@ -15870,7 +16026,7 @@
         <v>17</v>
       </c>
       <c r="I218" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="219" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -15884,13 +16040,13 @@
         <v>319</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G219" s="16" t="s">
         <v>16</v>
@@ -15899,7 +16055,7 @@
         <v>17</v>
       </c>
       <c r="I219" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
@@ -15927,7 +16083,7 @@
         <v>312</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>313</v>
@@ -15942,7 +16098,7 @@
         <v>17</v>
       </c>
       <c r="I221" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="222" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -15953,25 +16109,25 @@
         <v>19</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>313</v>
       </c>
       <c r="G222" s="28" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H222" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I222" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="223" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -15985,13 +16141,13 @@
         <v>314</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G223" s="16" t="s">
         <v>16</v>
@@ -16000,7 +16156,7 @@
         <v>17</v>
       </c>
       <c r="I223" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="224" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -16014,13 +16170,13 @@
         <v>315</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E224" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="F224" s="2" t="s">
         <v>502</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>503</v>
       </c>
       <c r="G224" s="27" t="s">
         <v>109</v>
@@ -16029,7 +16185,7 @@
         <v>17</v>
       </c>
       <c r="I224" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="225" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -16043,7 +16199,7 @@
         <v>316</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>313</v>
@@ -16058,7 +16214,7 @@
         <v>17</v>
       </c>
       <c r="I225" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="226" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -16072,13 +16228,13 @@
         <v>317</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G226" s="16" t="s">
         <v>16</v>
@@ -16087,7 +16243,7 @@
         <v>17</v>
       </c>
       <c r="I226" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="227" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -16101,13 +16257,13 @@
         <v>318</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G227" s="16" t="s">
         <v>16</v>
@@ -16116,7 +16272,7 @@
         <v>17</v>
       </c>
       <c r="I227" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="228" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -16130,13 +16286,13 @@
         <v>319</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G228" s="16" t="s">
         <v>16</v>
@@ -16145,7 +16301,7 @@
         <v>17</v>
       </c>
       <c r="I228" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
@@ -16188,7 +16344,7 @@
         <v>17</v>
       </c>
       <c r="I230" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
@@ -16217,7 +16373,7 @@
         <v>17</v>
       </c>
       <c r="I231" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
@@ -16246,7 +16402,7 @@
         <v>17</v>
       </c>
       <c r="I232" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
@@ -16275,7 +16431,7 @@
         <v>17</v>
       </c>
       <c r="I233" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
@@ -16304,7 +16460,7 @@
         <v>17</v>
       </c>
       <c r="I234" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
@@ -16333,7 +16489,7 @@
         <v>17</v>
       </c>
       <c r="I235" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
@@ -16362,7 +16518,7 @@
         <v>17</v>
       </c>
       <c r="I236" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
@@ -16391,7 +16547,7 @@
         <v>17</v>
       </c>
       <c r="I237" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
@@ -16420,7 +16576,7 @@
         <v>17</v>
       </c>
       <c r="I238" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
@@ -16449,7 +16605,7 @@
         <v>17</v>
       </c>
       <c r="I239" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
@@ -16478,7 +16634,7 @@
         <v>17</v>
       </c>
       <c r="I240" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="241" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -16507,7 +16663,7 @@
         <v>17</v>
       </c>
       <c r="I241" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="242" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -16536,7 +16692,7 @@
         <v>17</v>
       </c>
       <c r="I242" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
@@ -16570,16 +16726,16 @@
         <v>365</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G244" s="29" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H244" s="30" t="s">
         <v>17</v>
       </c>
       <c r="I244" s="17" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J244" s="31"/>
     </row>
@@ -16600,16 +16756,16 @@
         <v>365</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G245" s="29" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H245" s="30" t="s">
         <v>17</v>
       </c>
       <c r="I245" s="17" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J245" s="31"/>
     </row>
@@ -16630,16 +16786,16 @@
         <v>365</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G246" s="29" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H246" s="30" t="s">
         <v>17</v>
       </c>
       <c r="I246" s="17" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J246" s="31"/>
     </row>
@@ -16657,19 +16813,19 @@
         <v>371</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G247" s="29" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H247" s="30" t="s">
         <v>17</v>
       </c>
       <c r="I247" s="17" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J247" s="31"/>
     </row>

--- a/docs/test/test-cases template-v1.1.xlsx
+++ b/docs/test/test-cases template-v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PA\Year 3\Software Engineering\Lab\E-commerce\E-commerce_Web_Application\docs\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174D8ADB-76E0-43EF-A152-AF61E489E871}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493FF349-CBC8-4F12-BC20-F05A05375FDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="527">
   <si>
     <t>Function/Feature ID</t>
   </si>
@@ -10952,8 +10952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11189,6 +11189,9 @@
       <c r="I8" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="J8" s="2" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -11405,6 +11408,9 @@
       </c>
       <c r="I16" s="9" t="s">
         <v>18</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">

--- a/docs/test/test-cases template-v1.1.xlsx
+++ b/docs/test/test-cases template-v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PA\Year 3\Software Engineering\Lab\E-commerce\E-commerce_Web_Application\docs\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493FF349-CBC8-4F12-BC20-F05A05375FDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C9835A-AAB0-4C90-9C6A-0A2962DB6918}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="530">
   <si>
     <t>Function/Feature ID</t>
   </si>
@@ -10316,6 +10316,15 @@
       </rPr>
       <t>" button</t>
     </r>
+  </si>
+  <si>
+    <t>Not test</t>
+  </si>
+  <si>
+    <t>UC12</t>
+  </si>
+  <si>
+    <t>Fixed</t>
   </si>
 </sst>
 </file>
@@ -10325,7 +10334,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10400,8 +10409,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10436,8 +10452,13 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -10472,13 +10493,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -10571,10 +10608,29 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
@@ -10950,10 +11006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J255"/>
+  <dimension ref="A1:O255"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10967,10 +11023,15 @@
     <col min="8" max="8" width="21.42578125" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="28.5703125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="4"/>
+    <col min="11" max="11" width="8.85546875" style="4"/>
+    <col min="12" max="12" width="10.7109375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="4"/>
+    <col min="15" max="15" width="8" style="4" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -11001,8 +11062,17 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="33">
+        <f>COUNTIF($G$3:$G$255, "Good")</f>
+        <v>104</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -11015,8 +11085,22 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="L2" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="M2" s="33">
+        <f>COUNTIF($G$3:$G$255, "Fail")</f>
+        <v>24</v>
+      </c>
+      <c r="N2" s="36" t="s">
+        <v>529</v>
+      </c>
+      <c r="O2" s="37">
+        <f>COUNTIF(J:J,"*"&amp;"fixed"&amp;"*")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -11044,8 +11128,17 @@
       <c r="I3" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="L3" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="M3" s="33">
+        <f>COUNTIF($G$3:$G$255, "Passable")</f>
+        <v>9</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -11073,8 +11166,17 @@
       <c r="I4" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="L4" s="33" t="s">
+        <v>527</v>
+      </c>
+      <c r="M4" s="33">
+        <f>COUNTIF($G$3:$G$255, "")-25</f>
+        <v>91</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -11103,7 +11205,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -11132,7 +11234,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -11161,7 +11263,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -11193,7 +11295,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -11222,7 +11324,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>38</v>
       </c>
@@ -11236,7 +11338,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>39</v>
       </c>
@@ -11265,7 +11367,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>39</v>
       </c>
@@ -11294,7 +11396,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
@@ -11323,7 +11425,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>39</v>
       </c>
@@ -11352,7 +11454,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
@@ -11381,7 +11483,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>39</v>
       </c>
@@ -16983,7 +17085,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17141,7 +17243,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>225</v>
+        <v>528</v>
       </c>
       <c r="B17" t="s">
         <v>415</v>
@@ -17152,7 +17254,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="B18" t="s">
         <v>417</v>
@@ -17163,7 +17265,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="B19" t="s">
         <v>261</v>
@@ -17174,7 +17276,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B20" t="s">
         <v>420</v>
@@ -17185,7 +17287,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="B21" t="s">
         <v>422</v>
@@ -17196,7 +17298,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B22" t="s">
         <v>424</v>
@@ -17207,7 +17309,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B23" t="s">
         <v>426</v>
@@ -17218,7 +17320,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B24" t="s">
         <v>428</v>
@@ -17229,7 +17331,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B25" t="s">
         <v>430</v>
@@ -17240,7 +17342,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="B26" t="s">
         <v>432</v>
@@ -17251,7 +17353,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="B27" t="s">
         <v>434</v>
@@ -17261,8 +17363,8 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>323</v>
+      <c r="A28" s="1" t="s">
+        <v>311</v>
       </c>
       <c r="B28" t="s">
         <v>436</v>
@@ -17272,8 +17374,8 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>362</v>
+      <c r="A29" s="1" t="s">
+        <v>321</v>
       </c>
       <c r="B29" t="s">
         <v>438</v>
@@ -17284,7 +17386,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>373</v>
+        <v>323</v>
       </c>
       <c r="B30" t="s">
         <v>440</v>

--- a/docs/test/test-cases template-v1.1.xlsx
+++ b/docs/test/test-cases template-v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PA\Year 3\Software Engineering\Lab\E-commerce\E-commerce_Web_Application\docs\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C9835A-AAB0-4C90-9C6A-0A2962DB6918}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA38EBA-4644-480A-8D43-BB00F8CE0F8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11009,7 +11009,7 @@
   <dimension ref="A1:O255"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11170,8 +11170,8 @@
         <v>527</v>
       </c>
       <c r="M4" s="33">
-        <f>COUNTIF($G$3:$G$255, "")-25</f>
-        <v>91</v>
+        <f>COUNTIF($G$3:$G$255, "")-24</f>
+        <v>92</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
